--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -451,17 +451,13 @@
         <v>153.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>154</v>
-      </c>
-      <c r="K2" t="n">
-        <v>154</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>153.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>151</v>
-      </c>
-      <c r="K3" t="n">
-        <v>154</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>153</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>154</v>
-      </c>
-      <c r="K4" t="n">
-        <v>154</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>153.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>154</v>
-      </c>
-      <c r="K5" t="n">
-        <v>154</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>153.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>155</v>
-      </c>
-      <c r="K6" t="n">
-        <v>154</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>154.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>155</v>
-      </c>
-      <c r="K7" t="n">
-        <v>154</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -704,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -739,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -774,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -809,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -844,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -879,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -914,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -949,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -984,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1194,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1544,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1579,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1684,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -2556,13 +2516,17 @@
         <v>153.8</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>153</v>
+      </c>
+      <c r="K61" t="n">
+        <v>153</v>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2591,14 +2555,22 @@
         <v>154</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>155</v>
+      </c>
+      <c r="K62" t="n">
+        <v>153</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2604,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>153</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2836,13 +2814,17 @@
         <v>153.6</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>153</v>
+      </c>
+      <c r="K69" t="n">
+        <v>153</v>
+      </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
@@ -2871,14 +2853,22 @@
         <v>153.6</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>154</v>
+      </c>
+      <c r="K70" t="n">
+        <v>153</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2912,8 +2902,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>153</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2" t="n">
-        <v>197.2221</v>
+        <v>313.541</v>
       </c>
       <c r="G2" t="n">
-        <v>153.8</v>
+        <v>150.6833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D3" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F3" t="n">
-        <v>103</v>
+        <v>197.2221</v>
       </c>
       <c r="G3" t="n">
-        <v>153.2</v>
+        <v>150.75</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C4" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E4" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F4" t="n">
         <v>103</v>
       </c>
       <c r="G4" t="n">
-        <v>153</v>
+        <v>150.7666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>103</v>
       </c>
       <c r="G5" t="n">
-        <v>153.6</v>
+        <v>150.8166666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E6" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F6" t="n">
-        <v>5749.866</v>
+        <v>103</v>
       </c>
       <c r="G6" t="n">
-        <v>153.6</v>
+        <v>150.8666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>155</v>
       </c>
       <c r="C7" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E7" t="n">
         <v>155</v>
       </c>
       <c r="F7" t="n">
-        <v>5500</v>
+        <v>5749.866</v>
       </c>
       <c r="G7" t="n">
-        <v>154.2</v>
+        <v>150.95</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C8" t="n">
         <v>157</v>
@@ -652,13 +652,13 @@
         <v>157</v>
       </c>
       <c r="E8" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>5500</v>
       </c>
       <c r="G8" t="n">
-        <v>155.4</v>
+        <v>151.05</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>157</v>
       </c>
       <c r="F9" t="n">
-        <v>269.974</v>
+        <v>500</v>
       </c>
       <c r="G9" t="n">
-        <v>156</v>
+        <v>151.15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>157</v>
       </c>
       <c r="F10" t="n">
-        <v>534.162</v>
+        <v>269.974</v>
       </c>
       <c r="G10" t="n">
-        <v>156.6</v>
+        <v>151.2666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,16 +760,16 @@
         <v>157</v>
       </c>
       <c r="F11" t="n">
-        <v>2.1254</v>
+        <v>534.162</v>
       </c>
       <c r="G11" t="n">
-        <v>157</v>
+        <v>151.45</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -795,16 +795,16 @@
         <v>157</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>2.1254</v>
       </c>
       <c r="G12" t="n">
-        <v>157</v>
+        <v>151.5666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -830,16 +830,16 @@
         <v>157</v>
       </c>
       <c r="F13" t="n">
-        <v>63.69426751592356</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>157</v>
+        <v>151.6833333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,28 +853,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C14" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D14" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E14" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F14" t="n">
-        <v>1168.698</v>
+        <v>63.69426751592356</v>
       </c>
       <c r="G14" t="n">
-        <v>156.8</v>
+        <v>151.7666666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -888,28 +888,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C15" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D15" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E15" t="n">
         <v>155</v>
       </c>
       <c r="F15" t="n">
-        <v>1400</v>
+        <v>1168.698</v>
       </c>
       <c r="G15" t="n">
-        <v>156.4</v>
+        <v>151.85</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -926,25 +926,25 @@
         <v>155</v>
       </c>
       <c r="C16" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E16" t="n">
         <v>155</v>
       </c>
       <c r="F16" t="n">
-        <v>1565.4614</v>
+        <v>1400</v>
       </c>
       <c r="G16" t="n">
-        <v>156.4</v>
+        <v>151.9166666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -958,7 +958,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" t="n">
         <v>157</v>
@@ -967,13 +967,13 @@
         <v>157</v>
       </c>
       <c r="E17" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F17" t="n">
-        <v>2238.4102</v>
+        <v>1565.4614</v>
       </c>
       <c r="G17" t="n">
-        <v>156.4</v>
+        <v>152.0333333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>156</v>
       </c>
       <c r="C18" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D18" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E18" t="n">
         <v>156</v>
       </c>
       <c r="F18" t="n">
-        <v>311.821</v>
+        <v>2238.4102</v>
       </c>
       <c r="G18" t="n">
-        <v>156.2</v>
+        <v>152.1333333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>156</v>
       </c>
       <c r="C19" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" t="n">
         <v>156</v>
       </c>
       <c r="F19" t="n">
-        <v>6208.0897</v>
+        <v>311.821</v>
       </c>
       <c r="G19" t="n">
-        <v>156.4</v>
+        <v>152.2166666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" t="n">
         <v>157</v>
@@ -1072,13 +1072,13 @@
         <v>157</v>
       </c>
       <c r="E20" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="n">
-        <v>3782</v>
+        <v>6208.0897</v>
       </c>
       <c r="G20" t="n">
-        <v>156.8</v>
+        <v>152.3333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>157</v>
       </c>
       <c r="F21" t="n">
-        <v>3168</v>
+        <v>3782</v>
       </c>
       <c r="G21" t="n">
-        <v>156.8</v>
+        <v>152.4333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>157</v>
       </c>
       <c r="C22" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22" t="n">
         <v>157</v>
       </c>
       <c r="F22" t="n">
-        <v>3595</v>
+        <v>3168</v>
       </c>
       <c r="G22" t="n">
-        <v>157</v>
+        <v>152.5333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C23" t="n">
         <v>158</v>
@@ -1177,13 +1177,13 @@
         <v>158</v>
       </c>
       <c r="E23" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>3595</v>
       </c>
       <c r="G23" t="n">
-        <v>157.4</v>
+        <v>152.65</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>158</v>
       </c>
       <c r="F24" t="n">
-        <v>370.4177</v>
+        <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>157.6</v>
+        <v>152.7666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>158</v>
       </c>
       <c r="F25" t="n">
-        <v>194</v>
+        <v>370.4177</v>
       </c>
       <c r="G25" t="n">
-        <v>157.8</v>
+        <v>152.8833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>158</v>
       </c>
       <c r="F26" t="n">
-        <v>3793</v>
+        <v>194</v>
       </c>
       <c r="G26" t="n">
-        <v>158</v>
+        <v>153.0166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1311,19 @@
         <v>158</v>
       </c>
       <c r="C27" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D27" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" t="n">
         <v>158</v>
       </c>
       <c r="F27" t="n">
-        <v>3910</v>
+        <v>3793</v>
       </c>
       <c r="G27" t="n">
-        <v>158.2</v>
+        <v>153.1166666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C28" t="n">
         <v>159</v>
@@ -1352,13 +1352,13 @@
         <v>159</v>
       </c>
       <c r="E28" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F28" t="n">
-        <v>6946.433</v>
+        <v>3910</v>
       </c>
       <c r="G28" t="n">
-        <v>158.4</v>
+        <v>153.2666666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>159</v>
       </c>
       <c r="F29" t="n">
-        <v>3835</v>
+        <v>6946.433</v>
       </c>
       <c r="G29" t="n">
-        <v>158.6</v>
+        <v>153.4166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,16 +1425,16 @@
         <v>159</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>3835</v>
       </c>
       <c r="G30" t="n">
-        <v>158.8</v>
+        <v>153.5333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1460,10 +1460,10 @@
         <v>159</v>
       </c>
       <c r="F31" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>159</v>
+        <v>153.6833333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C32" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D32" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E32" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F32" t="n">
-        <v>773.9117</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
-        <v>158.6</v>
+        <v>153.8333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C33" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D33" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E33" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F33" t="n">
-        <v>2.2706</v>
+        <v>773.9117</v>
       </c>
       <c r="G33" t="n">
-        <v>158</v>
+        <v>153.95</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C34" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D34" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E34" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F34" t="n">
-        <v>1000</v>
+        <v>2.2706</v>
       </c>
       <c r="G34" t="n">
-        <v>158.2</v>
+        <v>154.0166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C35" t="n">
         <v>160</v>
@@ -1597,13 +1597,13 @@
         <v>160</v>
       </c>
       <c r="E35" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>158.4</v>
+        <v>154.1833333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>160</v>
       </c>
       <c r="F36" t="n">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G36" t="n">
-        <v>158.6</v>
+        <v>154.3166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C37" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D37" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E37" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F37" t="n">
-        <v>290.7394</v>
+        <v>508</v>
       </c>
       <c r="G37" t="n">
-        <v>158.4</v>
+        <v>154.4833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,28 +1693,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C38" t="n">
         <v>156</v>
       </c>
       <c r="D38" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E38" t="n">
         <v>156</v>
       </c>
       <c r="F38" t="n">
-        <v>4836.8087</v>
+        <v>290.7394</v>
       </c>
       <c r="G38" t="n">
-        <v>158.4</v>
+        <v>154.5833333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C39" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D39" t="n">
         <v>159</v>
       </c>
       <c r="E39" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>4836.8087</v>
       </c>
       <c r="G39" t="n">
-        <v>158.2</v>
+        <v>154.75</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1772,13 +1772,13 @@
         <v>159</v>
       </c>
       <c r="E40" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F40" t="n">
-        <v>230.06</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>158</v>
+        <v>154.8833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C41" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D41" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E41" t="n">
         <v>156</v>
       </c>
       <c r="F41" t="n">
-        <v>2500</v>
+        <v>230.06</v>
       </c>
       <c r="G41" t="n">
-        <v>157.2</v>
+        <v>155.05</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>156</v>
       </c>
       <c r="F42" t="n">
-        <v>304.436</v>
+        <v>2500</v>
       </c>
       <c r="G42" t="n">
-        <v>157.2</v>
+        <v>155.1666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>156</v>
       </c>
       <c r="C43" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D43" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E43" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F43" t="n">
-        <v>501</v>
+        <v>304.436</v>
       </c>
       <c r="G43" t="n">
-        <v>157.6</v>
+        <v>155.2833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C44" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="G44" t="n">
-        <v>157.6</v>
+        <v>155.4333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C45" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D45" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E45" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F45" t="n">
-        <v>576.299</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>156.8</v>
+        <v>155.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>155</v>
       </c>
       <c r="F46" t="n">
-        <v>494.2816</v>
+        <v>576.299</v>
       </c>
       <c r="G46" t="n">
-        <v>156.6</v>
+        <v>155.6833333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C47" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D47" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E47" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F47" t="n">
-        <v>7297.1111</v>
+        <v>494.2816</v>
       </c>
       <c r="G47" t="n">
-        <v>156.2</v>
+        <v>155.7666666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>154</v>
       </c>
       <c r="F48" t="n">
-        <v>62.8457</v>
+        <v>7297.1111</v>
       </c>
       <c r="G48" t="n">
-        <v>155.4</v>
+        <v>155.8166666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C49" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E49" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F49" t="n">
-        <v>2385.4166</v>
+        <v>62.8457</v>
       </c>
       <c r="G49" t="n">
-        <v>154.2</v>
+        <v>155.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>153</v>
       </c>
       <c r="F50" t="n">
-        <v>3544.2687</v>
+        <v>2385.4166</v>
       </c>
       <c r="G50" t="n">
-        <v>153.8</v>
+        <v>155.9333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C51" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F51" t="n">
-        <v>1400</v>
+        <v>3544.2687</v>
       </c>
       <c r="G51" t="n">
-        <v>153.6</v>
+        <v>156</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C52" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E52" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F52" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="G52" t="n">
-        <v>153.4</v>
+        <v>156.05</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,19 +2230,23 @@
         <v>153</v>
       </c>
       <c r="F53" t="n">
-        <v>347.9799</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>153.2</v>
+        <v>156.0833333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>154</v>
+      </c>
+      <c r="K53" t="n">
+        <v>154</v>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
@@ -2253,22 +2257,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E54" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F54" t="n">
-        <v>3688</v>
+        <v>347.9799</v>
       </c>
       <c r="G54" t="n">
-        <v>153.4</v>
+        <v>156.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2281,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>154</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,20 +2310,28 @@
         <v>154</v>
       </c>
       <c r="F55" t="n">
-        <v>198.234</v>
+        <v>3688</v>
       </c>
       <c r="G55" t="n">
-        <v>153.6</v>
+        <v>156.1333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>153</v>
+      </c>
+      <c r="K55" t="n">
+        <v>154</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2335,19 +2353,23 @@
         <v>154</v>
       </c>
       <c r="F56" t="n">
-        <v>5</v>
+        <v>198.234</v>
       </c>
       <c r="G56" t="n">
-        <v>153.6</v>
+        <v>156.1666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>154</v>
+      </c>
+      <c r="K56" t="n">
+        <v>154</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
@@ -2370,20 +2392,28 @@
         <v>154</v>
       </c>
       <c r="F57" t="n">
-        <v>369.453</v>
+        <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>153.8</v>
+        <v>156.1833333333333</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>154</v>
+      </c>
+      <c r="K57" t="n">
+        <v>154</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2423,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D58" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E58" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F58" t="n">
-        <v>195.053</v>
+        <v>369.453</v>
       </c>
       <c r="G58" t="n">
-        <v>153.8</v>
+        <v>156.1833333333333</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,8 +2447,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>154</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2464,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C59" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D59" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" t="n">
-        <v>2689.6165</v>
+        <v>195.053</v>
       </c>
       <c r="G59" t="n">
-        <v>153.8</v>
+        <v>156.1666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2499,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D60" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E60" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F60" t="n">
-        <v>176.124</v>
+        <v>2689.6165</v>
       </c>
       <c r="G60" t="n">
-        <v>153.6</v>
+        <v>156.15</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,35 +2534,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C61" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D61" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E61" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F61" t="n">
-        <v>560.4880000000001</v>
+        <v>176.124</v>
       </c>
       <c r="G61" t="n">
-        <v>153.8</v>
+        <v>156.1833333333333</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>153</v>
-      </c>
-      <c r="K61" t="n">
-        <v>153</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
@@ -2549,28 +2581,20 @@
         <v>155</v>
       </c>
       <c r="F62" t="n">
-        <v>181.602</v>
+        <v>560.4880000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>154</v>
+        <v>156.1833333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>155</v>
-      </c>
-      <c r="K62" t="n">
-        <v>153</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,10 +2616,10 @@
         <v>155</v>
       </c>
       <c r="F63" t="n">
-        <v>244.478</v>
+        <v>181.602</v>
       </c>
       <c r="G63" t="n">
-        <v>154.4</v>
+        <v>156.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2604,14 +2628,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>153</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2621,22 +2639,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C64" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D64" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E64" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F64" t="n">
-        <v>544</v>
+        <v>244.478</v>
       </c>
       <c r="G64" t="n">
-        <v>154.4</v>
+        <v>156.2666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2668,10 +2686,10 @@
         <v>154</v>
       </c>
       <c r="F65" t="n">
-        <v>1232.061</v>
+        <v>544</v>
       </c>
       <c r="G65" t="n">
-        <v>154.6</v>
+        <v>156.2666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2703,10 +2721,10 @@
         <v>154</v>
       </c>
       <c r="F66" t="n">
-        <v>242</v>
+        <v>1232.061</v>
       </c>
       <c r="G66" t="n">
-        <v>154.4</v>
+        <v>156.2666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2726,22 +2744,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D67" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E67" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="G67" t="n">
-        <v>154</v>
+        <v>156.25</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2761,22 +2779,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C68" t="n">
         <v>153</v>
       </c>
       <c r="D68" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E68" t="n">
         <v>153</v>
       </c>
       <c r="F68" t="n">
-        <v>688.578</v>
+        <v>30</v>
       </c>
       <c r="G68" t="n">
-        <v>153.6</v>
+        <v>156.1833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2799,32 +2817,28 @@
         <v>154</v>
       </c>
       <c r="C69" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D69" t="n">
         <v>154</v>
       </c>
       <c r="E69" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F69" t="n">
-        <v>8000</v>
+        <v>688.578</v>
       </c>
       <c r="G69" t="n">
-        <v>153.6</v>
+        <v>156.1166666666667</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>153</v>
-      </c>
-      <c r="K69" t="n">
-        <v>153</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
@@ -2847,28 +2861,20 @@
         <v>154</v>
       </c>
       <c r="F70" t="n">
-        <v>4958.3379</v>
+        <v>8000</v>
       </c>
       <c r="G70" t="n">
-        <v>153.6</v>
+        <v>156.0666666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>154</v>
-      </c>
-      <c r="K70" t="n">
-        <v>153</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2890,10 +2896,10 @@
         <v>154</v>
       </c>
       <c r="F71" t="n">
-        <v>527</v>
+        <v>4958.3379</v>
       </c>
       <c r="G71" t="n">
-        <v>153.6</v>
+        <v>156.0166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2902,14 +2908,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>153</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2922,19 +2922,19 @@
         <v>154</v>
       </c>
       <c r="C72" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D72" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E72" t="n">
         <v>154</v>
       </c>
       <c r="F72" t="n">
-        <v>42.7421</v>
+        <v>527</v>
       </c>
       <c r="G72" t="n">
-        <v>154</v>
+        <v>155.9666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2954,22 +2954,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C73" t="n">
         <v>155</v>
       </c>
       <c r="D73" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E73" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F73" t="n">
-        <v>698.763</v>
+        <v>42.7421</v>
       </c>
       <c r="G73" t="n">
-        <v>154.4</v>
+        <v>155.9333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>155</v>
       </c>
       <c r="F74" t="n">
-        <v>14.432</v>
+        <v>698.763</v>
       </c>
       <c r="G74" t="n">
-        <v>154.6</v>
+        <v>155.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3024,22 +3024,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C75" t="n">
         <v>155</v>
       </c>
       <c r="D75" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E75" t="n">
         <v>155</v>
       </c>
       <c r="F75" t="n">
-        <v>3630.502</v>
+        <v>14.432</v>
       </c>
       <c r="G75" t="n">
-        <v>154.8</v>
+        <v>155.8833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3059,22 +3059,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C76" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D76" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E76" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>3630.502</v>
       </c>
       <c r="G76" t="n">
-        <v>154.6</v>
+        <v>155.8833333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3094,22 +3094,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C77" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D77" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E77" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
-        <v>154.8</v>
+        <v>155.8166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3129,22 +3129,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C78" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D78" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E78" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="G78" t="n">
-        <v>154.6</v>
+        <v>155.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3164,22 +3164,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C79" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D79" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E79" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F79" t="n">
         <v>1</v>
       </c>
       <c r="G79" t="n">
-        <v>154.2</v>
+        <v>155.7666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3199,22 +3199,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C80" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D80" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E80" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F80" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>154.6</v>
+        <v>155.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>157</v>
       </c>
       <c r="F81" t="n">
-        <v>567</v>
+        <v>24</v>
       </c>
       <c r="G81" t="n">
-        <v>155.4</v>
+        <v>155.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3269,22 +3269,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C82" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D82" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E82" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>567</v>
       </c>
       <c r="G82" t="n">
-        <v>155</v>
+        <v>155.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3304,22 +3304,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C83" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D83" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E83" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F83" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>155.6</v>
+        <v>155.6333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3339,22 +3339,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C84" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D84" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E84" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F84" t="n">
-        <v>41.555</v>
+        <v>500</v>
       </c>
       <c r="G84" t="n">
-        <v>155.8</v>
+        <v>155.6166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3374,22 +3374,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C85" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D85" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E85" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F85" t="n">
-        <v>750</v>
+        <v>41.555</v>
       </c>
       <c r="G85" t="n">
-        <v>156.2</v>
+        <v>155.55</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C86" t="n">
         <v>159</v>
@@ -3418,13 +3418,13 @@
         <v>159</v>
       </c>
       <c r="E86" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" t="n">
-        <v>1088.6761</v>
+        <v>750</v>
       </c>
       <c r="G86" t="n">
-        <v>156.6</v>
+        <v>155.5666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3456,10 +3456,10 @@
         <v>159</v>
       </c>
       <c r="F87" t="n">
-        <v>816.5062</v>
+        <v>1088.6761</v>
       </c>
       <c r="G87" t="n">
-        <v>157.6</v>
+        <v>155.5833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3479,22 +3479,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C88" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D88" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E88" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F88" t="n">
-        <v>2212.9974</v>
+        <v>816.5062</v>
       </c>
       <c r="G88" t="n">
-        <v>157.8</v>
+        <v>155.5833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3514,22 +3514,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D89" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E89" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F89" t="n">
-        <v>4000</v>
+        <v>2212.9974</v>
       </c>
       <c r="G89" t="n">
-        <v>158.8</v>
+        <v>155.5666666666667</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3552,19 +3552,19 @@
         <v>159</v>
       </c>
       <c r="C90" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D90" t="n">
         <v>159</v>
       </c>
       <c r="E90" t="n">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F90" t="n">
-        <v>255</v>
+        <v>4000</v>
       </c>
       <c r="G90" t="n">
-        <v>158.2</v>
+        <v>155.5666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3587,19 +3587,19 @@
         <v>159</v>
       </c>
       <c r="C91" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D91" t="n">
         <v>159</v>
       </c>
       <c r="E91" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="G91" t="n">
-        <v>158.2</v>
+        <v>155.5166666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3631,10 +3631,10 @@
         <v>159</v>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>158.2</v>
+        <v>155.5166666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3654,22 +3654,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C93" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D93" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E93" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F93" t="n">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="G93" t="n">
-        <v>158</v>
+        <v>155.55</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3689,22 +3689,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C94" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D94" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E94" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F94" t="n">
-        <v>2316.0464</v>
+        <v>86</v>
       </c>
       <c r="G94" t="n">
-        <v>158</v>
+        <v>155.5666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C95" t="n">
         <v>159</v>
@@ -3733,13 +3733,13 @@
         <v>159</v>
       </c>
       <c r="E95" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F95" t="n">
-        <v>1681.334</v>
+        <v>2316.0464</v>
       </c>
       <c r="G95" t="n">
-        <v>158.6</v>
+        <v>155.55</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3762,19 +3762,19 @@
         <v>159</v>
       </c>
       <c r="C96" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D96" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E96" t="n">
         <v>159</v>
       </c>
       <c r="F96" t="n">
-        <v>720.748</v>
+        <v>1681.334</v>
       </c>
       <c r="G96" t="n">
-        <v>158.8</v>
+        <v>155.5333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C97" t="n">
         <v>160</v>
@@ -3803,13 +3803,13 @@
         <v>160</v>
       </c>
       <c r="E97" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F97" t="n">
-        <v>655.9160000000001</v>
+        <v>720.748</v>
       </c>
       <c r="G97" t="n">
-        <v>159</v>
+        <v>155.5333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3832,19 +3832,19 @@
         <v>160</v>
       </c>
       <c r="C98" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D98" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E98" t="n">
         <v>160</v>
       </c>
       <c r="F98" t="n">
-        <v>7909.7569</v>
+        <v>655.9160000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>160.2</v>
+        <v>155.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D99" t="n">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E99" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>7909.7569</v>
       </c>
       <c r="G99" t="n">
-        <v>160.6</v>
+        <v>155.7166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3911,10 +3911,10 @@
         <v>161</v>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G100" t="n">
-        <v>161</v>
+        <v>155.75</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3934,22 +3934,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C101" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D101" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E101" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F101" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G101" t="n">
-        <v>160.8</v>
+        <v>155.7833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3969,22 +3969,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C102" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D102" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E102" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F102" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
-        <v>161</v>
+        <v>155.8333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4004,22 +4004,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C103" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D103" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E103" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F103" t="n">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="G103" t="n">
-        <v>160.8</v>
+        <v>155.9166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C104" t="n">
         <v>162</v>
@@ -4048,13 +4048,13 @@
         <v>162</v>
       </c>
       <c r="E104" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
-        <v>161</v>
+        <v>155.9833333333333</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4086,10 +4086,10 @@
         <v>162</v>
       </c>
       <c r="F105" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
-        <v>161.2</v>
+        <v>156.0333333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C106" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D106" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E106" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F106" t="n">
-        <v>3345.7899</v>
+        <v>81</v>
       </c>
       <c r="G106" t="n">
-        <v>162</v>
+        <v>156.15</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4144,22 +4144,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D107" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E107" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F107" t="n">
-        <v>1716.7932</v>
+        <v>3345.7899</v>
       </c>
       <c r="G107" t="n">
-        <v>162.6</v>
+        <v>156.2833333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>164</v>
       </c>
       <c r="F108" t="n">
-        <v>1383.743</v>
+        <v>1716.7932</v>
       </c>
       <c r="G108" t="n">
-        <v>163</v>
+        <v>156.45</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C109" t="n">
         <v>164</v>
@@ -4223,13 +4223,13 @@
         <v>164</v>
       </c>
       <c r="E109" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F109" t="n">
-        <v>1468.987</v>
+        <v>1383.743</v>
       </c>
       <c r="G109" t="n">
-        <v>163.4</v>
+        <v>156.6166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4249,22 +4249,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C110" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D110" t="n">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E110" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F110" t="n">
-        <v>55.489</v>
+        <v>1468.987</v>
       </c>
       <c r="G110" t="n">
-        <v>163</v>
+        <v>156.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4284,22 +4284,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C111" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D111" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E111" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F111" t="n">
-        <v>82.1254</v>
+        <v>55.489</v>
       </c>
       <c r="G111" t="n">
-        <v>163</v>
+        <v>156.9166666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>163</v>
       </c>
       <c r="F112" t="n">
-        <v>1000</v>
+        <v>82.1254</v>
       </c>
       <c r="G112" t="n">
-        <v>162.8</v>
+        <v>157.0666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4366,10 +4366,10 @@
         <v>163</v>
       </c>
       <c r="F113" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G113" t="n">
-        <v>162.6</v>
+        <v>157.2333333333333</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4401,10 +4401,10 @@
         <v>163</v>
       </c>
       <c r="F114" t="n">
-        <v>1042.347</v>
+        <v>500</v>
       </c>
       <c r="G114" t="n">
-        <v>162.4</v>
+        <v>157.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4436,10 +4436,10 @@
         <v>163</v>
       </c>
       <c r="F115" t="n">
-        <v>369.141</v>
+        <v>1042.347</v>
       </c>
       <c r="G115" t="n">
-        <v>163</v>
+        <v>157.55</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4471,10 +4471,10 @@
         <v>163</v>
       </c>
       <c r="F116" t="n">
-        <v>1743.027</v>
+        <v>369.141</v>
       </c>
       <c r="G116" t="n">
-        <v>163</v>
+        <v>157.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4506,10 +4506,10 @@
         <v>163</v>
       </c>
       <c r="F117" t="n">
-        <v>2283.6495</v>
+        <v>1743.027</v>
       </c>
       <c r="G117" t="n">
-        <v>163</v>
+        <v>157.85</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4541,10 +4541,10 @@
         <v>163</v>
       </c>
       <c r="F118" t="n">
-        <v>31.7397</v>
+        <v>2283.6495</v>
       </c>
       <c r="G118" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4564,22 +4564,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C119" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D119" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E119" t="n">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F119" t="n">
-        <v>2212.9973</v>
+        <v>31.7397</v>
       </c>
       <c r="G119" t="n">
-        <v>162.4</v>
+        <v>158.1666666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4599,22 +4599,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C120" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D120" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E120" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F120" t="n">
-        <v>159.9643</v>
+        <v>2212.9973</v>
       </c>
       <c r="G120" t="n">
-        <v>161.6</v>
+        <v>158.2666666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4634,22 +4634,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C121" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D121" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E121" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>159.9643</v>
       </c>
       <c r="G121" t="n">
-        <v>161.4</v>
+        <v>158.3666666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4664,6 +4664,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>162</v>
+      </c>
+      <c r="C122" t="n">
+        <v>162</v>
+      </c>
+      <c r="D122" t="n">
+        <v>162</v>
+      </c>
+      <c r="E122" t="n">
+        <v>162</v>
+      </c>
+      <c r="F122" t="n">
+        <v>250</v>
+      </c>
+      <c r="G122" t="n">
+        <v>158.4833333333333</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>313.541</v>
       </c>
       <c r="G2" t="n">
+        <v>152</v>
+      </c>
+      <c r="H2" t="n">
         <v>150.6833333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>197.2221</v>
       </c>
       <c r="G3" t="n">
+        <v>152.2</v>
+      </c>
+      <c r="H3" t="n">
         <v>150.75</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>155</v>
+      </c>
+      <c r="L3" t="n">
+        <v>155</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,29 @@
         <v>103</v>
       </c>
       <c r="G4" t="n">
+        <v>152.3333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>150.7666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>154</v>
+      </c>
+      <c r="L4" t="n">
+        <v>155</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>103</v>
       </c>
       <c r="G5" t="n">
+        <v>152.5333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>150.8166666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>151</v>
+      </c>
+      <c r="L5" t="n">
+        <v>155</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,25 @@
         <v>103</v>
       </c>
       <c r="G6" t="n">
+        <v>152.8666666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>150.8666666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>154</v>
+      </c>
+      <c r="L6" t="n">
+        <v>154</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +667,29 @@
         <v>5749.866</v>
       </c>
       <c r="G7" t="n">
+        <v>153.1333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>150.95</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>154</v>
+      </c>
+      <c r="L7" t="n">
+        <v>154</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +713,27 @@
         <v>5500</v>
       </c>
       <c r="G8" t="n">
+        <v>153.5333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>151.05</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>154</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +757,21 @@
         <v>500</v>
       </c>
       <c r="G9" t="n">
+        <v>153.8666666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>151.15</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +795,21 @@
         <v>269.974</v>
       </c>
       <c r="G10" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="H10" t="n">
         <v>151.2666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +833,21 @@
         <v>534.162</v>
       </c>
       <c r="G11" t="n">
+        <v>154.5333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>151.45</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +871,21 @@
         <v>2.1254</v>
       </c>
       <c r="G12" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="H12" t="n">
         <v>151.5666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +909,21 @@
         <v>1000</v>
       </c>
       <c r="G13" t="n">
+        <v>155</v>
+      </c>
+      <c r="H13" t="n">
         <v>151.6833333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +947,21 @@
         <v>63.69426751592356</v>
       </c>
       <c r="G14" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>151.7666666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +985,21 @@
         <v>1168.698</v>
       </c>
       <c r="G15" t="n">
+        <v>155.2666666666667</v>
+      </c>
+      <c r="H15" t="n">
         <v>151.85</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1023,21 @@
         <v>1400</v>
       </c>
       <c r="G16" t="n">
+        <v>155.5333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>151.9166666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1061,21 @@
         <v>1565.4614</v>
       </c>
       <c r="G17" t="n">
+        <v>155.6666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>152.0333333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1099,21 @@
         <v>2238.4102</v>
       </c>
       <c r="G18" t="n">
+        <v>155.8666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>152.1333333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1137,21 @@
         <v>311.821</v>
       </c>
       <c r="G19" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="H19" t="n">
         <v>152.2166666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1175,21 @@
         <v>6208.0897</v>
       </c>
       <c r="G20" t="n">
+        <v>156.4</v>
+      </c>
+      <c r="H20" t="n">
         <v>152.3333333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1213,21 @@
         <v>3782</v>
       </c>
       <c r="G21" t="n">
+        <v>156.6</v>
+      </c>
+      <c r="H21" t="n">
         <v>152.4333333333333</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1251,21 @@
         <v>3168</v>
       </c>
       <c r="G22" t="n">
+        <v>156.7333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>152.5333333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1289,21 @@
         <v>3595</v>
       </c>
       <c r="G23" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="H23" t="n">
         <v>152.65</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1327,21 @@
         <v>12</v>
       </c>
       <c r="G24" t="n">
+        <v>156.8666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>152.7666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1365,21 @@
         <v>370.4177</v>
       </c>
       <c r="G25" t="n">
+        <v>156.9333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>152.8833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1403,21 @@
         <v>194</v>
       </c>
       <c r="G26" t="n">
+        <v>157</v>
+      </c>
+      <c r="H26" t="n">
         <v>153.0166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1441,21 @@
         <v>3793</v>
       </c>
       <c r="G27" t="n">
+        <v>157.0666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>153.1166666666667</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1479,21 @@
         <v>3910</v>
       </c>
       <c r="G28" t="n">
+        <v>157.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>153.2666666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1517,21 @@
         <v>6946.433</v>
       </c>
       <c r="G29" t="n">
+        <v>157.3333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>153.4166666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1555,21 @@
         <v>3835</v>
       </c>
       <c r="G30" t="n">
+        <v>157.5333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>153.5333333333333</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1593,21 @@
         <v>11</v>
       </c>
       <c r="G31" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="H31" t="n">
         <v>153.6833333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1631,21 @@
         <v>62</v>
       </c>
       <c r="G32" t="n">
+        <v>157.9333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>153.8333333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1669,21 @@
         <v>773.9117</v>
       </c>
       <c r="G33" t="n">
+        <v>157.9333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>153.95</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1707,21 @@
         <v>2.2706</v>
       </c>
       <c r="G34" t="n">
+        <v>157.9333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>154.0166666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1745,21 @@
         <v>1000</v>
       </c>
       <c r="G35" t="n">
+        <v>158.1333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>154.1833333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1783,21 @@
         <v>500</v>
       </c>
       <c r="G36" t="n">
+        <v>158.3333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>154.3166666666667</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1821,21 @@
         <v>508</v>
       </c>
       <c r="G37" t="n">
+        <v>158.5333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>154.4833333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1859,21 @@
         <v>290.7394</v>
       </c>
       <c r="G38" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="H38" t="n">
         <v>154.5833333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1897,21 @@
         <v>4836.8087</v>
       </c>
       <c r="G39" t="n">
+        <v>158.2666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>154.75</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1935,21 @@
         <v>2</v>
       </c>
       <c r="G40" t="n">
+        <v>158.3333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>154.8833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1973,21 @@
         <v>230.06</v>
       </c>
       <c r="G41" t="n">
+        <v>158.4</v>
+      </c>
+      <c r="H41" t="n">
         <v>155.05</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2011,21 @@
         <v>2500</v>
       </c>
       <c r="G42" t="n">
+        <v>158.2666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>155.1666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2049,21 @@
         <v>304.436</v>
       </c>
       <c r="G43" t="n">
+        <v>158.0666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>155.2833333333333</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2087,21 @@
         <v>501</v>
       </c>
       <c r="G44" t="n">
+        <v>158</v>
+      </c>
+      <c r="H44" t="n">
         <v>155.4333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2125,21 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
+        <v>158</v>
+      </c>
+      <c r="H45" t="n">
         <v>155.6</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2163,21 @@
         <v>576.299</v>
       </c>
       <c r="G46" t="n">
+        <v>157.7333333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>155.6833333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2201,21 @@
         <v>494.2816</v>
       </c>
       <c r="G47" t="n">
+        <v>157.4666666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>155.7666666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2239,21 @@
         <v>7297.1111</v>
       </c>
       <c r="G48" t="n">
+        <v>157.2666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>155.8166666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2277,21 @@
         <v>62.8457</v>
       </c>
       <c r="G49" t="n">
+        <v>157.1333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>155.9</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2315,21 @@
         <v>2385.4166</v>
       </c>
       <c r="G50" t="n">
+        <v>156.6666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>155.9333333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2353,21 @@
         <v>3544.2687</v>
       </c>
       <c r="G51" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="H51" t="n">
         <v>156</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2391,21 @@
         <v>1400</v>
       </c>
       <c r="G52" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="H52" t="n">
         <v>156.05</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,22 +2429,25 @@
         <v>1000</v>
       </c>
       <c r="G53" t="n">
+        <v>155.6</v>
+      </c>
+      <c r="H53" t="n">
         <v>156.0833333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>154</v>
       </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>154</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2272,24 +2471,27 @@
         <v>347.9799</v>
       </c>
       <c r="G54" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="H54" t="n">
         <v>156.1</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>154</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>154</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2313,26 +2515,27 @@
         <v>3688</v>
       </c>
       <c r="G55" t="n">
+        <v>155.0666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>156.1333333333333</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>153</v>
-      </c>
-      <c r="K55" t="n">
-        <v>154</v>
-      </c>
-      <c r="L55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>154</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,22 +2559,25 @@
         <v>198.234</v>
       </c>
       <c r="G56" t="n">
+        <v>154.7333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>156.1666666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>154</v>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>154</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2395,26 +2601,27 @@
         <v>5</v>
       </c>
       <c r="G57" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="H57" t="n">
         <v>156.1833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>154</v>
-      </c>
-      <c r="K57" t="n">
-        <v>154</v>
-      </c>
-      <c r="L57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>154</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2438,24 +2645,29 @@
         <v>369.453</v>
       </c>
       <c r="G58" t="n">
+        <v>154.4666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>156.1833333333333</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="n">
         <v>154</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="n">
+        <v>154</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2479,18 +2691,25 @@
         <v>195.053</v>
       </c>
       <c r="G59" t="n">
+        <v>154.1333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>156.1666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>154</v>
+      </c>
+      <c r="L59" t="n">
+        <v>154</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2514,18 +2733,29 @@
         <v>2689.6165</v>
       </c>
       <c r="G60" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="H60" t="n">
         <v>156.15</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>153</v>
+      </c>
+      <c r="L60" t="n">
+        <v>154</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2549,18 +2779,29 @@
         <v>176.124</v>
       </c>
       <c r="G61" t="n">
+        <v>153.6666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>156.1833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>154</v>
+      </c>
+      <c r="L61" t="n">
+        <v>154</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2584,18 +2825,25 @@
         <v>560.4880000000001</v>
       </c>
       <c r="G62" t="n">
+        <v>153.6666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>156.1833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>153</v>
+      </c>
+      <c r="L62" t="n">
+        <v>153</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2619,18 +2867,27 @@
         <v>181.602</v>
       </c>
       <c r="G63" t="n">
+        <v>153.7333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>156.2</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>153</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2654,18 +2911,27 @@
         <v>244.478</v>
       </c>
       <c r="G64" t="n">
+        <v>153.8</v>
+      </c>
+      <c r="H64" t="n">
         <v>156.2666666666667</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>153</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,18 +2955,21 @@
         <v>544</v>
       </c>
       <c r="G65" t="n">
+        <v>153.8666666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>156.2666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,18 +2993,21 @@
         <v>1232.061</v>
       </c>
       <c r="G66" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>156.2666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2759,18 +3031,21 @@
         <v>242</v>
       </c>
       <c r="G67" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>156.25</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,18 +3069,21 @@
         <v>30</v>
       </c>
       <c r="G68" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>156.1833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2829,18 +3107,21 @@
         <v>688.578</v>
       </c>
       <c r="G69" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>156.1166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2864,18 +3145,25 @@
         <v>8000</v>
       </c>
       <c r="G70" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>156.0666666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>153</v>
+      </c>
+      <c r="L70" t="n">
+        <v>153</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,18 +3187,27 @@
         <v>4958.3379</v>
       </c>
       <c r="G71" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>156.0166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>153</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2934,18 +3231,27 @@
         <v>527</v>
       </c>
       <c r="G72" t="n">
+        <v>153.9333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>155.9666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>153</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,18 +3275,21 @@
         <v>42.7421</v>
       </c>
       <c r="G73" t="n">
+        <v>154</v>
+      </c>
+      <c r="H73" t="n">
         <v>155.9333333333333</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3004,18 +3313,21 @@
         <v>698.763</v>
       </c>
       <c r="G74" t="n">
+        <v>154.1333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>155.9</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3039,18 +3351,21 @@
         <v>14.432</v>
       </c>
       <c r="G75" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="H75" t="n">
         <v>155.8833333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3074,18 +3389,21 @@
         <v>3630.502</v>
       </c>
       <c r="G76" t="n">
+        <v>154.3333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>155.8833333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3109,18 +3427,21 @@
         <v>1</v>
       </c>
       <c r="G77" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="H77" t="n">
         <v>155.8166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3144,18 +3465,21 @@
         <v>250</v>
       </c>
       <c r="G78" t="n">
+        <v>154.2666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>155.8</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,18 +3503,21 @@
         <v>1</v>
       </c>
       <c r="G79" t="n">
+        <v>154.2</v>
+      </c>
+      <c r="H79" t="n">
         <v>155.7666666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,18 +3541,21 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
+        <v>154.1333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>155.7</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,18 +3579,25 @@
         <v>24</v>
       </c>
       <c r="G81" t="n">
+        <v>154.3333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>155.7</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>153</v>
+      </c>
+      <c r="L81" t="n">
+        <v>153</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3284,18 +3621,27 @@
         <v>567</v>
       </c>
       <c r="G82" t="n">
+        <v>154.5333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>155.7</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>153</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3319,18 +3665,27 @@
         <v>1</v>
       </c>
       <c r="G83" t="n">
+        <v>154.6</v>
+      </c>
+      <c r="H83" t="n">
         <v>155.6333333333333</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>153</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3354,18 +3709,21 @@
         <v>500</v>
       </c>
       <c r="G84" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H84" t="n">
         <v>155.6166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3389,18 +3747,21 @@
         <v>41.555</v>
       </c>
       <c r="G85" t="n">
+        <v>154.8666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>155.55</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3424,18 +3785,21 @@
         <v>750</v>
       </c>
       <c r="G86" t="n">
+        <v>155.2</v>
+      </c>
+      <c r="H86" t="n">
         <v>155.5666666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3459,18 +3823,21 @@
         <v>1088.6761</v>
       </c>
       <c r="G87" t="n">
+        <v>155.5333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>155.5833333333333</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,18 +3861,21 @@
         <v>816.5062</v>
       </c>
       <c r="G88" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="H88" t="n">
         <v>155.5833333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3529,18 +3899,21 @@
         <v>2212.9974</v>
       </c>
       <c r="G89" t="n">
+        <v>156</v>
+      </c>
+      <c r="H89" t="n">
         <v>155.5666666666667</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,18 +3937,21 @@
         <v>4000</v>
       </c>
       <c r="G90" t="n">
+        <v>156.2666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>155.5666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3599,18 +3975,21 @@
         <v>255</v>
       </c>
       <c r="G91" t="n">
+        <v>156.3333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>155.5166666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3634,18 +4013,21 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
+        <v>156.7333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>155.5166666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3669,18 +4051,21 @@
         <v>250</v>
       </c>
       <c r="G93" t="n">
+        <v>156.9333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>155.55</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3704,18 +4089,21 @@
         <v>86</v>
       </c>
       <c r="G94" t="n">
+        <v>157.1333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>155.5666666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3739,18 +4127,21 @@
         <v>2316.0464</v>
       </c>
       <c r="G95" t="n">
+        <v>157.5333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>155.55</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3774,18 +4165,21 @@
         <v>1681.334</v>
       </c>
       <c r="G96" t="n">
+        <v>157.6666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>155.5333333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3809,18 +4203,21 @@
         <v>720.748</v>
       </c>
       <c r="G97" t="n">
+        <v>157.8666666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>155.5333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,18 +4241,21 @@
         <v>655.9160000000001</v>
       </c>
       <c r="G98" t="n">
+        <v>158.2666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>155.6</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3879,18 +4279,21 @@
         <v>7909.7569</v>
       </c>
       <c r="G99" t="n">
+        <v>158.6666666666667</v>
+      </c>
+      <c r="H99" t="n">
         <v>155.7166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,18 +4317,21 @@
         <v>10</v>
       </c>
       <c r="G100" t="n">
+        <v>159.1333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>155.75</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3949,18 +4355,21 @@
         <v>20</v>
       </c>
       <c r="G101" t="n">
+        <v>159.2666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>155.7833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3984,18 +4393,21 @@
         <v>200</v>
       </c>
       <c r="G102" t="n">
+        <v>159.2666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>155.8333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4019,18 +4431,21 @@
         <v>70</v>
       </c>
       <c r="G103" t="n">
+        <v>159.4</v>
+      </c>
+      <c r="H103" t="n">
         <v>155.9166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4054,18 +4469,21 @@
         <v>199</v>
       </c>
       <c r="G104" t="n">
+        <v>159.6666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>155.9833333333333</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,18 +4507,21 @@
         <v>20</v>
       </c>
       <c r="G105" t="n">
+        <v>159.8666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>156.0333333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,18 +4545,21 @@
         <v>81</v>
       </c>
       <c r="G106" t="n">
+        <v>160.2666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>156.15</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4159,18 +4583,21 @@
         <v>3345.7899</v>
       </c>
       <c r="G107" t="n">
+        <v>160.5333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>156.2833333333333</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,18 +4621,21 @@
         <v>1716.7932</v>
       </c>
       <c r="G108" t="n">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>156.45</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4229,18 +4659,21 @@
         <v>1383.743</v>
       </c>
       <c r="G109" t="n">
+        <v>161.3333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>156.6166666666667</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,18 +4697,21 @@
         <v>1468.987</v>
       </c>
       <c r="G110" t="n">
+        <v>161.6666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>156.8</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4299,18 +4735,21 @@
         <v>55.489</v>
       </c>
       <c r="G111" t="n">
+        <v>161.7333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>156.9166666666667</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4334,18 +4773,21 @@
         <v>82.1254</v>
       </c>
       <c r="G112" t="n">
+        <v>161.9333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>157.0666666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4369,18 +4811,21 @@
         <v>1000</v>
       </c>
       <c r="G113" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>157.2333333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4404,18 +4849,21 @@
         <v>500</v>
       </c>
       <c r="G114" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>157.4</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4439,18 +4887,21 @@
         <v>1042.347</v>
       </c>
       <c r="G115" t="n">
+        <v>162.2666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>157.55</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,18 +4925,21 @@
         <v>369.141</v>
       </c>
       <c r="G116" t="n">
+        <v>162.4</v>
+      </c>
+      <c r="H116" t="n">
         <v>157.7</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4509,18 +4963,21 @@
         <v>1743.027</v>
       </c>
       <c r="G117" t="n">
+        <v>162.6666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>157.85</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4544,18 +5001,21 @@
         <v>2283.6495</v>
       </c>
       <c r="G118" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="H118" t="n">
         <v>158</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,18 +5039,21 @@
         <v>31.7397</v>
       </c>
       <c r="G119" t="n">
+        <v>162.8666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>158.1666666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,18 +5077,21 @@
         <v>2212.9973</v>
       </c>
       <c r="G120" t="n">
+        <v>162.7333333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>158.2666666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4649,18 +5115,21 @@
         <v>159.9643</v>
       </c>
       <c r="G121" t="n">
+        <v>162.5333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>158.3666666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,18 +5153,401 @@
         <v>250</v>
       </c>
       <c r="G122" t="n">
+        <v>162.4666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>158.4833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>162</v>
+      </c>
+      <c r="C123" t="n">
+        <v>162</v>
+      </c>
+      <c r="D123" t="n">
+        <v>162</v>
+      </c>
+      <c r="E123" t="n">
+        <v>162</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1976.411</v>
+      </c>
+      <c r="G123" t="n">
+        <v>162.3333333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>163</v>
+      </c>
+      <c r="C124" t="n">
+        <v>163</v>
+      </c>
+      <c r="D124" t="n">
+        <v>163</v>
+      </c>
+      <c r="E124" t="n">
+        <v>163</v>
+      </c>
+      <c r="F124" t="n">
+        <v>599.6686999999999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>162.2666666666667</v>
+      </c>
+      <c r="H124" t="n">
+        <v>158.7333333333333</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>161</v>
+      </c>
+      <c r="C125" t="n">
+        <v>162</v>
+      </c>
+      <c r="D125" t="n">
+        <v>162</v>
+      </c>
+      <c r="E125" t="n">
+        <v>161</v>
+      </c>
+      <c r="F125" t="n">
+        <v>10202</v>
+      </c>
+      <c r="G125" t="n">
+        <v>162.1333333333333</v>
+      </c>
+      <c r="H125" t="n">
+        <v>158.8666666666667</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>162</v>
+      </c>
+      <c r="C126" t="n">
+        <v>162</v>
+      </c>
+      <c r="D126" t="n">
+        <v>162</v>
+      </c>
+      <c r="E126" t="n">
+        <v>162</v>
+      </c>
+      <c r="F126" t="n">
+        <v>250</v>
+      </c>
+      <c r="G126" t="n">
+        <v>162.2666666666667</v>
+      </c>
+      <c r="H126" t="n">
+        <v>159</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>159</v>
+      </c>
+      <c r="C127" t="n">
+        <v>159</v>
+      </c>
+      <c r="D127" t="n">
+        <v>159</v>
+      </c>
+      <c r="E127" t="n">
+        <v>159</v>
+      </c>
+      <c r="F127" t="n">
+        <v>85</v>
+      </c>
+      <c r="G127" t="n">
+        <v>162</v>
+      </c>
+      <c r="H127" t="n">
+        <v>159.0833333333333</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>159</v>
+      </c>
+      <c r="C128" t="n">
+        <v>159</v>
+      </c>
+      <c r="D128" t="n">
+        <v>159</v>
+      </c>
+      <c r="E128" t="n">
+        <v>159</v>
+      </c>
+      <c r="F128" t="n">
+        <v>200</v>
+      </c>
+      <c r="G128" t="n">
+        <v>161.7333333333333</v>
+      </c>
+      <c r="H128" t="n">
+        <v>159.1833333333333</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>158</v>
+      </c>
+      <c r="C129" t="n">
+        <v>158</v>
+      </c>
+      <c r="D129" t="n">
+        <v>158</v>
+      </c>
+      <c r="E129" t="n">
+        <v>158</v>
+      </c>
+      <c r="F129" t="n">
+        <v>19.5174</v>
+      </c>
+      <c r="G129" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="H129" t="n">
+        <v>159.2666666666667</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>159</v>
+      </c>
+      <c r="C130" t="n">
+        <v>159</v>
+      </c>
+      <c r="D130" t="n">
+        <v>159</v>
+      </c>
+      <c r="E130" t="n">
+        <v>159</v>
+      </c>
+      <c r="F130" t="n">
+        <v>144.1672</v>
+      </c>
+      <c r="G130" t="n">
+        <v>161.1333333333333</v>
+      </c>
+      <c r="H130" t="n">
+        <v>159.35</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>159</v>
+      </c>
+      <c r="C131" t="n">
+        <v>159</v>
+      </c>
+      <c r="D131" t="n">
+        <v>159</v>
+      </c>
+      <c r="E131" t="n">
+        <v>159</v>
+      </c>
+      <c r="F131" t="n">
+        <v>128.905</v>
+      </c>
+      <c r="G131" t="n">
+        <v>160.8666666666667</v>
+      </c>
+      <c r="H131" t="n">
+        <v>159.4333333333333</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>160</v>
+      </c>
+      <c r="C132" t="n">
+        <v>160</v>
+      </c>
+      <c r="D132" t="n">
+        <v>160</v>
+      </c>
+      <c r="E132" t="n">
+        <v>160</v>
+      </c>
+      <c r="F132" t="n">
+        <v>55.4007</v>
+      </c>
+      <c r="G132" t="n">
+        <v>160.6666666666667</v>
+      </c>
+      <c r="H132" t="n">
+        <v>159.5333333333333</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:M161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>313.541</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>152</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H2" t="n">
-        <v>150.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D3" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F3" t="n">
-        <v>197.2221</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>152.2</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H3" t="n">
-        <v>150.75</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K3" t="n">
-        <v>155</v>
-      </c>
-      <c r="L3" t="n">
-        <v>155</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>150</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,44 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F4" t="n">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>152.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>150.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K4" t="n">
-        <v>154</v>
-      </c>
-      <c r="L4" t="n">
-        <v>155</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>150</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D5" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F5" t="n">
-        <v>103</v>
+        <v>1.1</v>
       </c>
       <c r="G5" t="n">
-        <v>152.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>150.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>151</v>
-      </c>
-      <c r="L5" t="n">
-        <v>155</v>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>150</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,40 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E6" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F6" t="n">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="G6" t="n">
-        <v>152.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>150.8666666666667</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="K6" t="n">
-        <v>154</v>
-      </c>
-      <c r="L6" t="n">
-        <v>154</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+        <v>152</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,44 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C7" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E7" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F7" t="n">
-        <v>5749.866</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>153.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.95</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K7" t="n">
-        <v>154</v>
-      </c>
-      <c r="L7" t="n">
-        <v>154</v>
-      </c>
-      <c r="M7" t="inlineStr">
+        <v>152</v>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -698,42 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C8" t="n">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D8" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F8" t="n">
-        <v>5500</v>
+        <v>5754</v>
       </c>
       <c r="G8" t="n">
-        <v>153.5333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="H8" t="n">
-        <v>151.05</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>154</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+        <v>150</v>
+      </c>
+      <c r="K8" t="n">
+        <v>152</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +718,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C9" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D9" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E9" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>1.12</v>
       </c>
       <c r="G9" t="n">
-        <v>153.8666666666667</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="H9" t="n">
-        <v>151.15</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>146</v>
+      </c>
+      <c r="K9" t="n">
+        <v>152</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +761,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D10" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E10" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F10" t="n">
-        <v>269.974</v>
+        <v>1025.2833</v>
       </c>
       <c r="G10" t="n">
-        <v>154.2</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="H10" t="n">
-        <v>151.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>151</v>
+      </c>
+      <c r="K10" t="n">
+        <v>152</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +804,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C11" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D11" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E11" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F11" t="n">
-        <v>534.162</v>
+        <v>516</v>
       </c>
       <c r="G11" t="n">
-        <v>154.5333333333333</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="H11" t="n">
-        <v>151.45</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+        <v>149</v>
+      </c>
+      <c r="K11" t="n">
+        <v>152</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +847,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C12" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D12" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E12" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F12" t="n">
-        <v>2.1254</v>
+        <v>30</v>
       </c>
       <c r="G12" t="n">
-        <v>154.8</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="H12" t="n">
-        <v>151.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+        <v>149</v>
+      </c>
+      <c r="K12" t="n">
+        <v>152</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +890,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C13" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D13" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E13" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F13" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>155</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="H13" t="n">
-        <v>151.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+        <v>149</v>
+      </c>
+      <c r="K13" t="n">
+        <v>152</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +933,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C14" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D14" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E14" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F14" t="n">
-        <v>63.69426751592356</v>
+        <v>18.2259</v>
       </c>
       <c r="G14" t="n">
-        <v>155.2</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="H14" t="n">
-        <v>151.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+        <v>149</v>
+      </c>
+      <c r="K14" t="n">
+        <v>152</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +976,41 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C15" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D15" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E15" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F15" t="n">
-        <v>1168.698</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>155.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>151.85</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+        <v>149</v>
+      </c>
+      <c r="K15" t="n">
+        <v>152</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1019,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C16" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D16" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E16" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F16" t="n">
-        <v>1400</v>
+        <v>2.1254</v>
       </c>
       <c r="G16" t="n">
-        <v>155.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>151.9166666666667</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+        <v>150</v>
+      </c>
+      <c r="K16" t="n">
+        <v>152</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1062,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C17" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D17" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E17" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F17" t="n">
-        <v>1565.4614</v>
+        <v>1.111</v>
       </c>
       <c r="G17" t="n">
-        <v>155.6666666666667</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="H17" t="n">
-        <v>152.0333333333333</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>150</v>
+      </c>
+      <c r="K17" t="n">
+        <v>152</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1105,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C18" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D18" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E18" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F18" t="n">
-        <v>2238.4102</v>
+        <v>52</v>
       </c>
       <c r="G18" t="n">
-        <v>155.8666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H18" t="n">
-        <v>152.1333333333333</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>151</v>
+      </c>
+      <c r="K18" t="n">
+        <v>152</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,37 +1148,42 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C19" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D19" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E19" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F19" t="n">
-        <v>311.821</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>156.2</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H19" t="n">
-        <v>152.2166666666667</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="K19" t="n">
+        <v>152</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0.988421052631579</v>
       </c>
     </row>
     <row r="20">
@@ -1160,36 +1191,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C20" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D20" t="n">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E20" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F20" t="n">
-        <v>6208.0897</v>
+        <v>104</v>
       </c>
       <c r="G20" t="n">
-        <v>156.4</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>152.3333333333333</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>151</v>
+      </c>
+      <c r="K20" t="n">
+        <v>151</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1234,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C21" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D21" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E21" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F21" t="n">
-        <v>3782</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>156.6</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>152.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>149</v>
+      </c>
+      <c r="K21" t="n">
+        <v>149</v>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1273,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C22" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D22" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E22" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F22" t="n">
-        <v>3168</v>
+        <v>213</v>
       </c>
       <c r="G22" t="n">
-        <v>156.7333333333333</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>152.5333333333333</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>151</v>
+      </c>
+      <c r="K22" t="n">
+        <v>149</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1316,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C23" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D23" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E23" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F23" t="n">
-        <v>3595</v>
+        <v>226</v>
       </c>
       <c r="G23" t="n">
-        <v>156.8</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="H23" t="n">
-        <v>152.65</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+        <v>151</v>
+      </c>
+      <c r="K23" t="n">
+        <v>149</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1359,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C24" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D24" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E24" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F24" t="n">
-        <v>12</v>
+        <v>3550</v>
       </c>
       <c r="G24" t="n">
-        <v>156.8666666666667</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>152.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>152</v>
+      </c>
+      <c r="K24" t="n">
+        <v>152</v>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1398,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C25" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D25" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E25" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F25" t="n">
-        <v>370.4177</v>
+        <v>2235.9309</v>
       </c>
       <c r="G25" t="n">
-        <v>156.9333333333333</v>
+        <v>20</v>
       </c>
       <c r="H25" t="n">
-        <v>152.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>152</v>
+      </c>
+      <c r="K25" t="n">
+        <v>152</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1441,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C26" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D26" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E26" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F26" t="n">
-        <v>194</v>
+        <v>2641.4271</v>
       </c>
       <c r="G26" t="n">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="H26" t="n">
-        <v>153.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>152</v>
+      </c>
+      <c r="K26" t="n">
+        <v>152</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1484,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C27" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D27" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E27" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F27" t="n">
-        <v>3793</v>
+        <v>371.7402</v>
       </c>
       <c r="G27" t="n">
-        <v>157.0666666666667</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="H27" t="n">
-        <v>153.1166666666667</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+        <v>153</v>
+      </c>
+      <c r="K27" t="n">
+        <v>152</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1527,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C28" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D28" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E28" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F28" t="n">
-        <v>3910</v>
+        <v>4500</v>
       </c>
       <c r="G28" t="n">
-        <v>157.2</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="H28" t="n">
-        <v>153.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>154</v>
+      </c>
+      <c r="K28" t="n">
+        <v>152</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1570,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C29" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D29" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E29" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F29" t="n">
-        <v>6946.433</v>
+        <v>1861.357</v>
       </c>
       <c r="G29" t="n">
-        <v>157.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
-        <v>153.4166666666667</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>154</v>
+      </c>
+      <c r="K29" t="n">
+        <v>152</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1613,41 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C30" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D30" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E30" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F30" t="n">
-        <v>3835</v>
+        <v>103</v>
       </c>
       <c r="G30" t="n">
-        <v>157.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>153.5333333333333</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+        <v>155</v>
+      </c>
+      <c r="K30" t="n">
+        <v>152</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1656,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C31" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D31" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E31" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F31" t="n">
-        <v>11</v>
+        <v>313.541</v>
       </c>
       <c r="G31" t="n">
-        <v>157.8</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H31" t="n">
-        <v>153.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>151</v>
+      </c>
+      <c r="K31" t="n">
+        <v>152</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1699,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C32" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D32" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E32" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F32" t="n">
-        <v>62</v>
+        <v>197.2221</v>
       </c>
       <c r="G32" t="n">
-        <v>157.9333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>153.8333333333333</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+        <v>155</v>
+      </c>
+      <c r="K32" t="n">
+        <v>152</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1742,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C33" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D33" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E33" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F33" t="n">
-        <v>773.9117</v>
+        <v>103</v>
       </c>
       <c r="G33" t="n">
-        <v>157.9333333333333</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="H33" t="n">
-        <v>153.95</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+        <v>154</v>
+      </c>
+      <c r="K33" t="n">
+        <v>152</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1785,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D34" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E34" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F34" t="n">
-        <v>2.2706</v>
+        <v>103</v>
       </c>
       <c r="G34" t="n">
-        <v>157.9333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H34" t="n">
-        <v>154.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+        <v>151</v>
+      </c>
+      <c r="K34" t="n">
+        <v>152</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1828,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C35" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D35" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E35" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>103</v>
       </c>
       <c r="G35" t="n">
-        <v>158.1333333333333</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="H35" t="n">
-        <v>154.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+        <v>154</v>
+      </c>
+      <c r="K35" t="n">
+        <v>152</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1871,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C36" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D36" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E36" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F36" t="n">
-        <v>500</v>
+        <v>5749.866</v>
       </c>
       <c r="G36" t="n">
-        <v>158.3333333333333</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="H36" t="n">
-        <v>154.3166666666667</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+        <v>154</v>
+      </c>
+      <c r="K36" t="n">
+        <v>152</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,37 +1914,42 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C37" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D37" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E37" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F37" t="n">
-        <v>508</v>
+        <v>5500</v>
       </c>
       <c r="G37" t="n">
-        <v>158.5333333333333</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="H37" t="n">
-        <v>154.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
-        <v>1</v>
+        <v>155</v>
+      </c>
+      <c r="K37" t="n">
+        <v>152</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>1.027894736842105</v>
       </c>
     </row>
     <row r="38">
@@ -1844,36 +1957,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D38" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E38" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F38" t="n">
-        <v>290.7394</v>
+        <v>500</v>
       </c>
       <c r="G38" t="n">
-        <v>158.4</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H38" t="n">
-        <v>154.5833333333333</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+        <v>157</v>
+      </c>
+      <c r="K38" t="n">
+        <v>154</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +2000,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C39" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D39" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E39" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F39" t="n">
-        <v>4836.8087</v>
+        <v>269.974</v>
       </c>
       <c r="G39" t="n">
-        <v>158.2666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="H39" t="n">
-        <v>154.75</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>157</v>
+      </c>
+      <c r="K39" t="n">
+        <v>157</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1923,33 +2042,38 @@
         <v>157</v>
       </c>
       <c r="C40" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D40" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" t="n">
         <v>157</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>534.162</v>
       </c>
       <c r="G40" t="n">
-        <v>158.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="H40" t="n">
-        <v>154.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+        <v>157</v>
+      </c>
+      <c r="K40" t="n">
+        <v>157</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1961,33 +2085,38 @@
         <v>157</v>
       </c>
       <c r="C41" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D41" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E41" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F41" t="n">
-        <v>230.06</v>
+        <v>2.1254</v>
       </c>
       <c r="G41" t="n">
-        <v>158.4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H41" t="n">
-        <v>155.05</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+        <v>157</v>
+      </c>
+      <c r="K41" t="n">
+        <v>157</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2125,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C42" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D42" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E42" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F42" t="n">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>158.2666666666667</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>155.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
+        <v>157</v>
+      </c>
+      <c r="K42" t="n">
+        <v>157</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2164,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C43" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D43" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E43" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F43" t="n">
-        <v>304.436</v>
+        <v>63.69426751592356</v>
       </c>
       <c r="G43" t="n">
-        <v>158.0666666666667</v>
+        <v>100</v>
       </c>
       <c r="H43" t="n">
-        <v>155.2833333333333</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+        <v>157</v>
+      </c>
+      <c r="K43" t="n">
+        <v>157</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2075,33 +2210,38 @@
         <v>156</v>
       </c>
       <c r="C44" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D44" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E44" t="n">
         <v>155</v>
       </c>
       <c r="F44" t="n">
-        <v>501</v>
+        <v>1168.698</v>
       </c>
       <c r="G44" t="n">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>155.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+        <v>157</v>
+      </c>
+      <c r="K44" t="n">
+        <v>157</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2250,41 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C45" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D45" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E45" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>1400</v>
       </c>
       <c r="G45" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>155.6</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+        <v>156</v>
+      </c>
+      <c r="K45" t="n">
+        <v>157</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2151,33 +2296,38 @@
         <v>155</v>
       </c>
       <c r="C46" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D46" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E46" t="n">
         <v>155</v>
       </c>
       <c r="F46" t="n">
-        <v>576.299</v>
+        <v>1565.4614</v>
       </c>
       <c r="G46" t="n">
-        <v>157.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>155.6833333333333</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+        <v>155</v>
+      </c>
+      <c r="K46" t="n">
+        <v>157</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2336,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C47" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D47" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E47" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F47" t="n">
-        <v>494.2816</v>
+        <v>2238.4102</v>
       </c>
       <c r="G47" t="n">
-        <v>157.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>155.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+        <v>157</v>
+      </c>
+      <c r="K47" t="n">
+        <v>157</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2379,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C48" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D48" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E48" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F48" t="n">
-        <v>7297.1111</v>
+        <v>311.821</v>
       </c>
       <c r="G48" t="n">
-        <v>157.2666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H48" t="n">
-        <v>155.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+        <v>157</v>
+      </c>
+      <c r="K48" t="n">
+        <v>157</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2422,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C49" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D49" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E49" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F49" t="n">
-        <v>62.8457</v>
+        <v>6208.0897</v>
       </c>
       <c r="G49" t="n">
-        <v>157.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>155.9</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+        <v>156</v>
+      </c>
+      <c r="K49" t="n">
+        <v>157</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2465,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C50" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D50" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E50" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F50" t="n">
-        <v>2385.4166</v>
+        <v>3782</v>
       </c>
       <c r="G50" t="n">
-        <v>156.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>155.9333333333333</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+        <v>157</v>
+      </c>
+      <c r="K50" t="n">
+        <v>157</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2508,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C51" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D51" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E51" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F51" t="n">
-        <v>3544.2687</v>
+        <v>3168</v>
       </c>
       <c r="G51" t="n">
-        <v>156.2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+        <v>157</v>
+      </c>
+      <c r="K51" t="n">
+        <v>157</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2551,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C52" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D52" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E52" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F52" t="n">
-        <v>1400</v>
+        <v>3595</v>
       </c>
       <c r="G52" t="n">
-        <v>155.8</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H52" t="n">
-        <v>156.05</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+        <v>157</v>
+      </c>
+      <c r="K52" t="n">
+        <v>157</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,40 +2594,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C53" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D53" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E53" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="G53" t="n">
-        <v>155.6</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H53" t="n">
-        <v>156.0833333333333</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="K53" t="n">
-        <v>154</v>
-      </c>
-      <c r="L53" t="n">
-        <v>154</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+        <v>157</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,42 +2637,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C54" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D54" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E54" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F54" t="n">
-        <v>347.9799</v>
+        <v>370.4177</v>
       </c>
       <c r="G54" t="n">
-        <v>155.4</v>
+        <v>60</v>
       </c>
       <c r="H54" t="n">
-        <v>156.1</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>154</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>158</v>
+      </c>
+      <c r="K54" t="n">
+        <v>157</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2500,43 +2680,42 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C55" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D55" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E55" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F55" t="n">
-        <v>3688</v>
+        <v>194</v>
       </c>
       <c r="G55" t="n">
-        <v>155.0666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>156.1333333333333</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>154</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>1</v>
+        <v>158</v>
+      </c>
+      <c r="K55" t="n">
+        <v>157</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>1.001369426751592</v>
       </c>
     </row>
     <row r="56">
@@ -2544,40 +2723,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C56" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D56" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E56" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F56" t="n">
-        <v>198.234</v>
+        <v>3793</v>
       </c>
       <c r="G56" t="n">
-        <v>154.7333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>156.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="K56" t="n">
-        <v>154</v>
-      </c>
-      <c r="L56" t="n">
-        <v>154</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+        <v>158</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2586,42 +2762,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C57" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D57" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E57" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>3910</v>
       </c>
       <c r="G57" t="n">
-        <v>154.6</v>
+        <v>100</v>
       </c>
       <c r="H57" t="n">
-        <v>156.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>154</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>158</v>
+      </c>
+      <c r="K57" t="n">
+        <v>158</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2630,44 +2805,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C58" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D58" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E58" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F58" t="n">
-        <v>369.453</v>
+        <v>6946.433</v>
       </c>
       <c r="G58" t="n">
-        <v>154.4666666666667</v>
+        <v>100</v>
       </c>
       <c r="H58" t="n">
-        <v>156.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="K58" t="n">
-        <v>154</v>
-      </c>
-      <c r="L58" t="n">
-        <v>154</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>158</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2676,40 +2848,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C59" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D59" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E59" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F59" t="n">
-        <v>195.053</v>
+        <v>3835</v>
       </c>
       <c r="G59" t="n">
-        <v>154.1333333333333</v>
+        <v>100</v>
       </c>
       <c r="H59" t="n">
-        <v>156.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="K59" t="n">
-        <v>154</v>
-      </c>
-      <c r="L59" t="n">
-        <v>154</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+        <v>158</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,44 +2891,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C60" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D60" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E60" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F60" t="n">
-        <v>2689.6165</v>
+        <v>11</v>
       </c>
       <c r="G60" t="n">
-        <v>153.8</v>
+        <v>100</v>
       </c>
       <c r="H60" t="n">
-        <v>156.15</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="K60" t="n">
-        <v>153</v>
-      </c>
-      <c r="L60" t="n">
-        <v>154</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>158</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2764,44 +2934,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C61" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D61" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E61" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F61" t="n">
-        <v>176.124</v>
+        <v>62</v>
       </c>
       <c r="G61" t="n">
-        <v>153.6666666666667</v>
+        <v>100</v>
       </c>
       <c r="H61" t="n">
-        <v>156.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="K61" t="n">
-        <v>154</v>
-      </c>
-      <c r="L61" t="n">
-        <v>154</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+        <v>158</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,40 +2977,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C62" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D62" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E62" t="n">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F62" t="n">
-        <v>560.4880000000001</v>
+        <v>773.9117</v>
       </c>
       <c r="G62" t="n">
-        <v>153.6666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H62" t="n">
-        <v>156.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="K62" t="n">
-        <v>153</v>
-      </c>
-      <c r="L62" t="n">
-        <v>153</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+        <v>158</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2852,42 +3020,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C63" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D63" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E63" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F63" t="n">
-        <v>181.602</v>
+        <v>2.2706</v>
       </c>
       <c r="G63" t="n">
-        <v>153.7333333333333</v>
+        <v>-50</v>
       </c>
       <c r="H63" t="n">
-        <v>156.2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>153</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+        <v>157</v>
+      </c>
+      <c r="K63" t="n">
+        <v>158</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,42 +3063,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C64" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D64" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E64" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F64" t="n">
-        <v>244.478</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="n">
-        <v>153.8</v>
+        <v>25</v>
       </c>
       <c r="H64" t="n">
-        <v>156.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>153</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>156</v>
+      </c>
+      <c r="K64" t="n">
+        <v>158</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2940,36 +3106,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C65" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D65" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E65" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F65" t="n">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="G65" t="n">
-        <v>153.8666666666667</v>
+        <v>25</v>
       </c>
       <c r="H65" t="n">
-        <v>156.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+        <v>160</v>
+      </c>
+      <c r="K65" t="n">
+        <v>158</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2978,36 +3149,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C66" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D66" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E66" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F66" t="n">
-        <v>1232.061</v>
+        <v>508</v>
       </c>
       <c r="G66" t="n">
-        <v>153.9333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H66" t="n">
-        <v>156.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+        <v>160</v>
+      </c>
+      <c r="K66" t="n">
+        <v>158</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3016,36 +3192,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C67" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D67" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E67" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F67" t="n">
-        <v>242</v>
+        <v>290.7394</v>
       </c>
       <c r="G67" t="n">
-        <v>153.9333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="H67" t="n">
-        <v>156.25</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+        <v>160</v>
+      </c>
+      <c r="K67" t="n">
+        <v>158</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,37 +3235,42 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C68" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D68" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E68" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F68" t="n">
-        <v>30</v>
+        <v>4836.8087</v>
       </c>
       <c r="G68" t="n">
-        <v>153.9333333333333</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="H68" t="n">
-        <v>156.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="K68" t="n">
+        <v>158</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>0.9823417721518988</v>
       </c>
     </row>
     <row r="69">
@@ -3092,36 +3278,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C69" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D69" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E69" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F69" t="n">
-        <v>688.578</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>153.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>156.1166666666667</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
+        <v>156</v>
+      </c>
+      <c r="K69" t="n">
+        <v>156</v>
+      </c>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,40 +3317,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C70" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D70" t="n">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E70" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F70" t="n">
-        <v>8000</v>
+        <v>230.06</v>
       </c>
       <c r="G70" t="n">
-        <v>153.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>156.0666666666667</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="K70" t="n">
-        <v>153</v>
-      </c>
-      <c r="L70" t="n">
-        <v>153</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+        <v>156</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,42 +3360,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C71" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D71" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E71" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F71" t="n">
-        <v>4958.3379</v>
+        <v>2500</v>
       </c>
       <c r="G71" t="n">
-        <v>153.9333333333333</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>156.0166666666667</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>153</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>159</v>
+      </c>
+      <c r="K71" t="n">
+        <v>156</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3216,42 +3403,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C72" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D72" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E72" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F72" t="n">
-        <v>527</v>
+        <v>304.436</v>
       </c>
       <c r="G72" t="n">
-        <v>153.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>155.9666666666667</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>153</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>156</v>
+      </c>
+      <c r="K72" t="n">
+        <v>156</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3260,36 +3446,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C73" t="n">
+        <v>158</v>
+      </c>
+      <c r="D73" t="n">
+        <v>158</v>
+      </c>
+      <c r="E73" t="n">
         <v>155</v>
       </c>
-      <c r="D73" t="n">
-        <v>155</v>
-      </c>
-      <c r="E73" t="n">
-        <v>154</v>
-      </c>
       <c r="F73" t="n">
-        <v>42.7421</v>
+        <v>501</v>
       </c>
       <c r="G73" t="n">
-        <v>154</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="H73" t="n">
-        <v>155.9333333333333</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+        <v>156</v>
+      </c>
+      <c r="K73" t="n">
+        <v>156</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,36 +3489,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C74" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D74" t="n">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E74" t="n">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F74" t="n">
-        <v>698.763</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>154.1333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="H74" t="n">
-        <v>155.9</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+        <v>158</v>
+      </c>
+      <c r="K74" t="n">
+        <v>156</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,36 +3532,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C75" t="n">
         <v>155</v>
       </c>
       <c r="D75" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E75" t="n">
         <v>155</v>
       </c>
       <c r="F75" t="n">
-        <v>14.432</v>
+        <v>576.299</v>
       </c>
       <c r="G75" t="n">
-        <v>154.2</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="H75" t="n">
-        <v>155.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+        <v>159</v>
+      </c>
+      <c r="K75" t="n">
+        <v>156</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3386,24 +3587,29 @@
         <v>155</v>
       </c>
       <c r="F76" t="n">
-        <v>3630.502</v>
+        <v>494.2816</v>
       </c>
       <c r="G76" t="n">
-        <v>154.3333333333333</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="H76" t="n">
-        <v>155.8833333333333</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+        <v>155</v>
+      </c>
+      <c r="K76" t="n">
+        <v>156</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3412,36 +3618,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C77" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D77" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E77" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>7297.1111</v>
       </c>
       <c r="G77" t="n">
-        <v>154.2</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H77" t="n">
-        <v>155.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+        <v>155</v>
+      </c>
+      <c r="K77" t="n">
+        <v>156</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,36 +3661,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>154</v>
+      </c>
+      <c r="C78" t="n">
+        <v>154</v>
+      </c>
+      <c r="D78" t="n">
+        <v>154</v>
+      </c>
+      <c r="E78" t="n">
+        <v>154</v>
+      </c>
+      <c r="F78" t="n">
+        <v>62.8457</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-45.45454545454545</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>154</v>
+      </c>
+      <c r="K78" t="n">
         <v>156</v>
       </c>
-      <c r="C78" t="n">
-        <v>156</v>
-      </c>
-      <c r="D78" t="n">
-        <v>156</v>
-      </c>
-      <c r="E78" t="n">
-        <v>156</v>
-      </c>
-      <c r="F78" t="n">
-        <v>250</v>
-      </c>
-      <c r="G78" t="n">
-        <v>154.2666666666667</v>
-      </c>
-      <c r="H78" t="n">
-        <v>155.8</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3488,36 +3704,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D79" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E79" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>2385.4166</v>
       </c>
       <c r="G79" t="n">
-        <v>154.2</v>
+        <v>-50</v>
       </c>
       <c r="H79" t="n">
-        <v>155.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+        <v>154</v>
+      </c>
+      <c r="K79" t="n">
+        <v>156</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,24 +3759,29 @@
         <v>153</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>3544.2687</v>
       </c>
       <c r="G80" t="n">
-        <v>154.1333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H80" t="n">
-        <v>155.7</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+        <v>153</v>
+      </c>
+      <c r="K80" t="n">
+        <v>156</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3564,41 +3790,42 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C81" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D81" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E81" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F81" t="n">
-        <v>24</v>
+        <v>1400</v>
       </c>
       <c r="G81" t="n">
-        <v>154.3333333333333</v>
+        <v>-20</v>
       </c>
       <c r="H81" t="n">
-        <v>155.7</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="K81" t="n">
-        <v>153</v>
-      </c>
-      <c r="L81" t="n">
-        <v>153</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
-        <v>1</v>
+        <v>156</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>0.9821794871794872</v>
       </c>
     </row>
     <row r="82">
@@ -3606,42 +3833,41 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C82" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D82" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E82" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F82" t="n">
-        <v>567</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>154.5333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="H82" t="n">
-        <v>155.7</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
+        <v>154</v>
+      </c>
+      <c r="K82" t="n">
         <v>153</v>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="L82" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3650,42 +3876,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D83" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E83" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>347.9799</v>
       </c>
       <c r="G83" t="n">
-        <v>154.6</v>
+        <v>-75</v>
       </c>
       <c r="H83" t="n">
-        <v>155.6333333333333</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
         <v>153</v>
       </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="K83" t="n">
+        <v>153</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3694,36 +3915,41 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C84" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D84" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E84" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>3688</v>
       </c>
       <c r="G84" t="n">
-        <v>154.8666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H84" t="n">
-        <v>155.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+        <v>153</v>
+      </c>
+      <c r="K84" t="n">
+        <v>153</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,24 +3970,29 @@
         <v>154</v>
       </c>
       <c r="F85" t="n">
-        <v>41.555</v>
+        <v>198.234</v>
       </c>
       <c r="G85" t="n">
-        <v>154.8666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H85" t="n">
-        <v>155.55</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+        <v>154</v>
+      </c>
+      <c r="K85" t="n">
+        <v>153</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,36 +4001,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C86" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D86" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E86" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F86" t="n">
-        <v>750</v>
+        <v>5</v>
       </c>
       <c r="G86" t="n">
-        <v>155.2</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>155.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="K86" t="n">
+        <v>154</v>
+      </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,36 +4040,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C87" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D87" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E87" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F87" t="n">
-        <v>1088.6761</v>
+        <v>369.453</v>
       </c>
       <c r="G87" t="n">
-        <v>155.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>155.5833333333333</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+        <v>154</v>
+      </c>
+      <c r="K87" t="n">
+        <v>154</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,36 +4083,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C88" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D88" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E88" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F88" t="n">
-        <v>816.5062</v>
+        <v>195.053</v>
       </c>
       <c r="G88" t="n">
-        <v>155.8</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>155.5833333333333</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+        <v>154</v>
+      </c>
+      <c r="K88" t="n">
+        <v>154</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,36 +4126,37 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C89" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D89" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E89" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F89" t="n">
-        <v>2212.9974</v>
+        <v>2689.6165</v>
       </c>
       <c r="G89" t="n">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="H89" t="n">
-        <v>155.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+        <v>153</v>
+      </c>
+      <c r="K89" t="n">
+        <v>153</v>
+      </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,36 +4165,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C90" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D90" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E90" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F90" t="n">
-        <v>4000</v>
+        <v>176.124</v>
       </c>
       <c r="G90" t="n">
-        <v>156.2666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H90" t="n">
-        <v>155.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+        <v>154</v>
+      </c>
+      <c r="K90" t="n">
+        <v>153</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,36 +4208,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C91" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D91" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E91" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F91" t="n">
-        <v>255</v>
+        <v>560.4880000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>156.3333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>155.5166666666667</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+        <v>153</v>
+      </c>
+      <c r="K91" t="n">
+        <v>153</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,36 +4251,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C92" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D92" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E92" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>181.602</v>
       </c>
       <c r="G92" t="n">
-        <v>156.7333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H92" t="n">
-        <v>155.5166666666667</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+        <v>155</v>
+      </c>
+      <c r="K92" t="n">
+        <v>155</v>
+      </c>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,36 +4290,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C93" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D93" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E93" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>244.478</v>
       </c>
       <c r="G93" t="n">
-        <v>156.9333333333333</v>
+        <v>20</v>
       </c>
       <c r="H93" t="n">
-        <v>155.55</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+        <v>155</v>
+      </c>
+      <c r="K93" t="n">
+        <v>155</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4074,36 +4333,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C94" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D94" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E94" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F94" t="n">
-        <v>86</v>
+        <v>544</v>
       </c>
       <c r="G94" t="n">
-        <v>157.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>155.5666666666667</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+        <v>155</v>
+      </c>
+      <c r="K94" t="n">
+        <v>155</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4112,36 +4376,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C95" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D95" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E95" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F95" t="n">
-        <v>2316.0464</v>
+        <v>1232.061</v>
       </c>
       <c r="G95" t="n">
-        <v>157.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>155.55</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>154</v>
+      </c>
+      <c r="K95" t="n">
+        <v>154</v>
+      </c>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,36 +4415,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C96" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D96" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E96" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F96" t="n">
-        <v>1681.334</v>
+        <v>242</v>
       </c>
       <c r="G96" t="n">
-        <v>157.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>155.5333333333333</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+        <v>154</v>
+      </c>
+      <c r="K96" t="n">
+        <v>154</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4188,36 +4458,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C97" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D97" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E97" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F97" t="n">
-        <v>720.748</v>
+        <v>30</v>
       </c>
       <c r="G97" t="n">
-        <v>157.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>155.5333333333333</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+        <v>154</v>
+      </c>
+      <c r="K97" t="n">
+        <v>154</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4226,36 +4501,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C98" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D98" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E98" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F98" t="n">
-        <v>655.9160000000001</v>
+        <v>688.578</v>
       </c>
       <c r="G98" t="n">
-        <v>158.2666666666667</v>
+        <v>-20</v>
       </c>
       <c r="H98" t="n">
-        <v>155.6</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+        <v>153</v>
+      </c>
+      <c r="K98" t="n">
+        <v>154</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,36 +4544,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C99" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D99" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E99" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F99" t="n">
-        <v>7909.7569</v>
+        <v>8000</v>
       </c>
       <c r="G99" t="n">
-        <v>158.6666666666667</v>
+        <v>20</v>
       </c>
       <c r="H99" t="n">
-        <v>155.7166666666667</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+        <v>153</v>
+      </c>
+      <c r="K99" t="n">
+        <v>154</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4302,36 +4587,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C100" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D100" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E100" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>4958.3379</v>
       </c>
       <c r="G100" t="n">
-        <v>159.1333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H100" t="n">
-        <v>155.75</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+        <v>154</v>
+      </c>
+      <c r="K100" t="n">
+        <v>154</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4340,36 +4630,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C101" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D101" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E101" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>527</v>
       </c>
       <c r="G101" t="n">
-        <v>159.2666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="H101" t="n">
-        <v>155.7833333333333</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+        <v>154</v>
+      </c>
+      <c r="K101" t="n">
+        <v>154</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4378,36 +4673,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C102" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D102" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E102" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F102" t="n">
-        <v>200</v>
+        <v>42.7421</v>
       </c>
       <c r="G102" t="n">
-        <v>159.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>155.8333333333333</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+        <v>154</v>
+      </c>
+      <c r="K102" t="n">
+        <v>154</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4416,36 +4716,41 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C103" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D103" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E103" t="n">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F103" t="n">
-        <v>70</v>
+        <v>698.763</v>
       </c>
       <c r="G103" t="n">
-        <v>159.4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H103" t="n">
-        <v>155.9166666666667</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+        <v>155</v>
+      </c>
+      <c r="K103" t="n">
+        <v>154</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,36 +4759,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C104" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D104" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E104" t="n">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F104" t="n">
-        <v>199</v>
+        <v>14.432</v>
       </c>
       <c r="G104" t="n">
-        <v>159.6666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>155.9833333333333</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+        <v>155</v>
+      </c>
+      <c r="K104" t="n">
+        <v>154</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4492,36 +4802,41 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C105" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D105" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E105" t="n">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>3630.502</v>
       </c>
       <c r="G105" t="n">
-        <v>159.8666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>156.0333333333333</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>155</v>
+      </c>
+      <c r="K105" t="n">
+        <v>154</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,36 +4845,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C106" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D106" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E106" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F106" t="n">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>160.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>156.15</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+        <v>155</v>
+      </c>
+      <c r="K106" t="n">
+        <v>154</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4568,36 +4888,41 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C107" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D107" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E107" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F107" t="n">
-        <v>3345.7899</v>
+        <v>250</v>
       </c>
       <c r="G107" t="n">
-        <v>160.5333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="H107" t="n">
-        <v>156.2833333333333</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+        <v>153</v>
+      </c>
+      <c r="K107" t="n">
+        <v>154</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4606,36 +4931,41 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C108" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D108" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E108" t="n">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F108" t="n">
-        <v>1716.7932</v>
+        <v>1</v>
       </c>
       <c r="G108" t="n">
-        <v>160.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>156.45</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+        <v>156</v>
+      </c>
+      <c r="K108" t="n">
+        <v>154</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4644,37 +4974,42 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C109" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D109" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E109" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F109" t="n">
-        <v>1383.743</v>
+        <v>1</v>
       </c>
       <c r="G109" t="n">
-        <v>161.3333333333333</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H109" t="n">
-        <v>156.6166666666667</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
-        <v>1</v>
+        <v>154</v>
+      </c>
+      <c r="K109" t="n">
+        <v>154</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>0.9885064935064936</v>
       </c>
     </row>
     <row r="110">
@@ -4682,36 +5017,41 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C110" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D110" t="n">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E110" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F110" t="n">
-        <v>1468.987</v>
+        <v>24</v>
       </c>
       <c r="G110" t="n">
-        <v>161.6666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="H110" t="n">
-        <v>156.8</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+        <v>153</v>
+      </c>
+      <c r="K110" t="n">
+        <v>156</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4720,36 +5060,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C111" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D111" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E111" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F111" t="n">
-        <v>55.489</v>
+        <v>567</v>
       </c>
       <c r="G111" t="n">
-        <v>161.7333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H111" t="n">
-        <v>156.9166666666667</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+        <v>157</v>
+      </c>
+      <c r="K111" t="n">
+        <v>157</v>
+      </c>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,36 +5099,41 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C112" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D112" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E112" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F112" t="n">
-        <v>82.1254</v>
+        <v>1</v>
       </c>
       <c r="G112" t="n">
-        <v>161.9333333333333</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>157.0666666666667</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+        <v>157</v>
+      </c>
+      <c r="K112" t="n">
+        <v>157</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4796,36 +5142,41 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C113" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D113" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E113" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F113" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="G113" t="n">
-        <v>162.1333333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H113" t="n">
-        <v>157.2333333333333</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+        <v>154</v>
+      </c>
+      <c r="K113" t="n">
+        <v>157</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,36 +5185,41 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C114" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D114" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E114" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F114" t="n">
-        <v>500</v>
+        <v>41.555</v>
       </c>
       <c r="G114" t="n">
-        <v>162.1333333333333</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="H114" t="n">
-        <v>157.4</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+        <v>157</v>
+      </c>
+      <c r="K114" t="n">
+        <v>157</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4872,36 +5228,41 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C115" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D115" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E115" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F115" t="n">
-        <v>1042.347</v>
+        <v>750</v>
       </c>
       <c r="G115" t="n">
-        <v>162.2666666666667</v>
+        <v>25</v>
       </c>
       <c r="H115" t="n">
-        <v>157.55</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+        <v>154</v>
+      </c>
+      <c r="K115" t="n">
+        <v>157</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,36 +5271,41 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C116" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D116" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E116" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F116" t="n">
-        <v>369.141</v>
+        <v>1088.6761</v>
       </c>
       <c r="G116" t="n">
-        <v>162.4</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H116" t="n">
-        <v>157.7</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="n">
+        <v>159</v>
+      </c>
+      <c r="K116" t="n">
+        <v>157</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,36 +5314,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C117" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D117" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E117" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F117" t="n">
-        <v>1743.027</v>
+        <v>816.5062</v>
       </c>
       <c r="G117" t="n">
-        <v>162.6666666666667</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H117" t="n">
-        <v>157.85</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr"/>
-      <c r="N117" t="n">
+        <v>159</v>
+      </c>
+      <c r="K117" t="n">
+        <v>157</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4986,36 +5357,41 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C118" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D118" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E118" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F118" t="n">
-        <v>2283.6495</v>
+        <v>2212.9974</v>
       </c>
       <c r="G118" t="n">
-        <v>162.8</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H118" t="n">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr"/>
-      <c r="N118" t="n">
+        <v>159</v>
+      </c>
+      <c r="K118" t="n">
+        <v>157</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5024,36 +5400,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C119" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D119" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E119" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F119" t="n">
-        <v>31.7397</v>
+        <v>4000</v>
       </c>
       <c r="G119" t="n">
-        <v>162.8666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="H119" t="n">
-        <v>158.1666666666667</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="n">
+        <v>158</v>
+      </c>
+      <c r="K119" t="n">
+        <v>157</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5062,36 +5443,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C120" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D120" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E120" t="n">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F120" t="n">
-        <v>2212.9973</v>
+        <v>255</v>
       </c>
       <c r="G120" t="n">
-        <v>162.7333333333333</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="H120" t="n">
-        <v>158.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="inlineStr"/>
-      <c r="N120" t="n">
+        <v>159</v>
+      </c>
+      <c r="K120" t="n">
+        <v>157</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5112,24 +5498,29 @@
         <v>159</v>
       </c>
       <c r="F121" t="n">
-        <v>159.9643</v>
+        <v>1</v>
       </c>
       <c r="G121" t="n">
-        <v>162.5333333333333</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="H121" t="n">
-        <v>158.3666666666667</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="n">
+        <v>156</v>
+      </c>
+      <c r="K121" t="n">
+        <v>157</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,36 +5529,41 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C122" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D122" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E122" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F122" t="n">
         <v>250</v>
       </c>
       <c r="G122" t="n">
-        <v>162.4666666666667</v>
+        <v>12.5</v>
       </c>
       <c r="H122" t="n">
-        <v>158.4833333333333</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
-      <c r="N122" t="n">
+        <v>159</v>
+      </c>
+      <c r="K122" t="n">
+        <v>157</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5176,36 +5572,41 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C123" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D123" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E123" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F123" t="n">
-        <v>1976.411</v>
+        <v>86</v>
       </c>
       <c r="G123" t="n">
-        <v>162.3333333333333</v>
+        <v>20</v>
       </c>
       <c r="H123" t="n">
-        <v>158.6</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="n">
+        <v>159</v>
+      </c>
+      <c r="K123" t="n">
+        <v>157</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5214,37 +5615,42 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C124" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D124" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E124" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F124" t="n">
-        <v>599.6686999999999</v>
+        <v>2316.0464</v>
       </c>
       <c r="G124" t="n">
-        <v>162.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>158.7333333333333</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="n">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="K124" t="n">
+        <v>157</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1.007738853503185</v>
       </c>
     </row>
     <row r="125">
@@ -5252,36 +5658,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C125" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D125" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E125" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F125" t="n">
-        <v>10202</v>
+        <v>1681.334</v>
       </c>
       <c r="G125" t="n">
-        <v>162.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>158.8666666666667</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+        <v>159</v>
+      </c>
+      <c r="K125" t="n">
+        <v>159</v>
+      </c>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="n">
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,36 +5697,41 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C126" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D126" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E126" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>720.748</v>
       </c>
       <c r="G126" t="n">
-        <v>162.2666666666667</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H126" t="n">
-        <v>159</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>1</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr"/>
-      <c r="N126" t="n">
+        <v>159</v>
+      </c>
+      <c r="K126" t="n">
+        <v>159</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5328,36 +5740,41 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C127" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D127" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E127" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F127" t="n">
-        <v>85</v>
+        <v>655.9160000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>162</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H127" t="n">
-        <v>159.0833333333333</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="n">
+        <v>160</v>
+      </c>
+      <c r="K127" t="n">
+        <v>159</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,36 +5783,41 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C128" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D128" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E128" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F128" t="n">
-        <v>200</v>
+        <v>7909.7569</v>
       </c>
       <c r="G128" t="n">
-        <v>161.7333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="H128" t="n">
-        <v>159.1833333333333</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+        <v>160</v>
+      </c>
+      <c r="K128" t="n">
+        <v>159</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5404,36 +5826,41 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C129" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D129" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E129" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F129" t="n">
-        <v>19.5174</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>161.4</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H129" t="n">
-        <v>159.2666666666667</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+        <v>163</v>
+      </c>
+      <c r="K129" t="n">
+        <v>159</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5442,36 +5869,41 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C130" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D130" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E130" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F130" t="n">
-        <v>144.1672</v>
+        <v>20</v>
       </c>
       <c r="G130" t="n">
-        <v>161.1333333333333</v>
+        <v>20</v>
       </c>
       <c r="H130" t="n">
-        <v>159.35</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+        <v>161</v>
+      </c>
+      <c r="K130" t="n">
+        <v>159</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5492,24 +5924,29 @@
         <v>159</v>
       </c>
       <c r="F131" t="n">
-        <v>128.905</v>
+        <v>200</v>
       </c>
       <c r="G131" t="n">
-        <v>160.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>159.4333333333333</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+        <v>161</v>
+      </c>
+      <c r="K131" t="n">
+        <v>159</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5518,36 +5955,1280 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>161</v>
+      </c>
+      <c r="C132" t="n">
+        <v>161</v>
+      </c>
+      <c r="D132" t="n">
+        <v>161</v>
+      </c>
+      <c r="E132" t="n">
+        <v>161</v>
+      </c>
+      <c r="F132" t="n">
+        <v>70</v>
+      </c>
+      <c r="G132" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>159</v>
+      </c>
+      <c r="K132" t="n">
+        <v>159</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
         <v>160</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C133" t="n">
+        <v>162</v>
+      </c>
+      <c r="D133" t="n">
+        <v>162</v>
+      </c>
+      <c r="E133" t="n">
         <v>160</v>
       </c>
-      <c r="D132" t="n">
+      <c r="F133" t="n">
+        <v>199</v>
+      </c>
+      <c r="G133" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>161</v>
+      </c>
+      <c r="K133" t="n">
+        <v>159</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>162</v>
+      </c>
+      <c r="C134" t="n">
+        <v>162</v>
+      </c>
+      <c r="D134" t="n">
+        <v>162</v>
+      </c>
+      <c r="E134" t="n">
+        <v>162</v>
+      </c>
+      <c r="F134" t="n">
+        <v>20</v>
+      </c>
+      <c r="G134" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>162</v>
+      </c>
+      <c r="K134" t="n">
+        <v>159</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>162</v>
+      </c>
+      <c r="C135" t="n">
+        <v>162</v>
+      </c>
+      <c r="D135" t="n">
+        <v>162</v>
+      </c>
+      <c r="E135" t="n">
+        <v>162</v>
+      </c>
+      <c r="F135" t="n">
+        <v>81</v>
+      </c>
+      <c r="G135" t="n">
+        <v>20</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>162</v>
+      </c>
+      <c r="K135" t="n">
+        <v>159</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>163</v>
+      </c>
+      <c r="C136" t="n">
+        <v>163</v>
+      </c>
+      <c r="D136" t="n">
+        <v>163</v>
+      </c>
+      <c r="E136" t="n">
+        <v>163</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3345.7899</v>
+      </c>
+      <c r="G136" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>162</v>
+      </c>
+      <c r="K136" t="n">
+        <v>159</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>164</v>
+      </c>
+      <c r="C137" t="n">
+        <v>164</v>
+      </c>
+      <c r="D137" t="n">
+        <v>164</v>
+      </c>
+      <c r="E137" t="n">
+        <v>164</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1716.7932</v>
+      </c>
+      <c r="G137" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>163</v>
+      </c>
+      <c r="K137" t="n">
+        <v>159</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1.026446540880503</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>164</v>
+      </c>
+      <c r="C138" t="n">
+        <v>164</v>
+      </c>
+      <c r="D138" t="n">
+        <v>164</v>
+      </c>
+      <c r="E138" t="n">
+        <v>164</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1383.743</v>
+      </c>
+      <c r="G138" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>164</v>
+      </c>
+      <c r="K138" t="n">
+        <v>164</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>162</v>
+      </c>
+      <c r="C139" t="n">
+        <v>164</v>
+      </c>
+      <c r="D139" t="n">
+        <v>164</v>
+      </c>
+      <c r="E139" t="n">
+        <v>162</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1468.987</v>
+      </c>
+      <c r="G139" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>164</v>
+      </c>
+      <c r="K139" t="n">
+        <v>164</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>160</v>
       </c>
-      <c r="E132" t="n">
+      <c r="C140" t="n">
         <v>160</v>
       </c>
-      <c r="F132" t="n">
+      <c r="D140" t="n">
+        <v>160</v>
+      </c>
+      <c r="E140" t="n">
+        <v>160</v>
+      </c>
+      <c r="F140" t="n">
+        <v>55.489</v>
+      </c>
+      <c r="G140" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>164</v>
+      </c>
+      <c r="K140" t="n">
+        <v>164</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>163</v>
+      </c>
+      <c r="C141" t="n">
+        <v>163</v>
+      </c>
+      <c r="D141" t="n">
+        <v>163</v>
+      </c>
+      <c r="E141" t="n">
+        <v>163</v>
+      </c>
+      <c r="F141" t="n">
+        <v>82.1254</v>
+      </c>
+      <c r="G141" t="n">
+        <v>20</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>160</v>
+      </c>
+      <c r="K141" t="n">
+        <v>164</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>163</v>
+      </c>
+      <c r="C142" t="n">
+        <v>163</v>
+      </c>
+      <c r="D142" t="n">
+        <v>163</v>
+      </c>
+      <c r="E142" t="n">
+        <v>163</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G142" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>163</v>
+      </c>
+      <c r="K142" t="n">
+        <v>164</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>163</v>
+      </c>
+      <c r="C143" t="n">
+        <v>163</v>
+      </c>
+      <c r="D143" t="n">
+        <v>163</v>
+      </c>
+      <c r="E143" t="n">
+        <v>163</v>
+      </c>
+      <c r="F143" t="n">
+        <v>500</v>
+      </c>
+      <c r="G143" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>163</v>
+      </c>
+      <c r="K143" t="n">
+        <v>164</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>163</v>
+      </c>
+      <c r="C144" t="n">
+        <v>163</v>
+      </c>
+      <c r="D144" t="n">
+        <v>163</v>
+      </c>
+      <c r="E144" t="n">
+        <v>163</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1042.347</v>
+      </c>
+      <c r="G144" t="n">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>163</v>
+      </c>
+      <c r="K144" t="n">
+        <v>164</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>163</v>
+      </c>
+      <c r="C145" t="n">
+        <v>163</v>
+      </c>
+      <c r="D145" t="n">
+        <v>163</v>
+      </c>
+      <c r="E145" t="n">
+        <v>163</v>
+      </c>
+      <c r="F145" t="n">
+        <v>369.141</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>163</v>
+      </c>
+      <c r="K145" t="n">
+        <v>164</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>163</v>
+      </c>
+      <c r="C146" t="n">
+        <v>163</v>
+      </c>
+      <c r="D146" t="n">
+        <v>163</v>
+      </c>
+      <c r="E146" t="n">
+        <v>163</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1743.027</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>163</v>
+      </c>
+      <c r="K146" t="n">
+        <v>164</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>163</v>
+      </c>
+      <c r="C147" t="n">
+        <v>163</v>
+      </c>
+      <c r="D147" t="n">
+        <v>163</v>
+      </c>
+      <c r="E147" t="n">
+        <v>163</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2283.6495</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>163</v>
+      </c>
+      <c r="K147" t="n">
+        <v>164</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>163</v>
+      </c>
+      <c r="C148" t="n">
+        <v>163</v>
+      </c>
+      <c r="D148" t="n">
+        <v>163</v>
+      </c>
+      <c r="E148" t="n">
+        <v>163</v>
+      </c>
+      <c r="F148" t="n">
+        <v>31.7397</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>163</v>
+      </c>
+      <c r="K148" t="n">
+        <v>164</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>160</v>
+      </c>
+      <c r="C149" t="n">
+        <v>160</v>
+      </c>
+      <c r="D149" t="n">
+        <v>160</v>
+      </c>
+      <c r="E149" t="n">
+        <v>160</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2212.9973</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>163</v>
+      </c>
+      <c r="K149" t="n">
+        <v>164</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>159</v>
+      </c>
+      <c r="C150" t="n">
+        <v>159</v>
+      </c>
+      <c r="D150" t="n">
+        <v>159</v>
+      </c>
+      <c r="E150" t="n">
+        <v>159</v>
+      </c>
+      <c r="F150" t="n">
+        <v>159.9643</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>160</v>
+      </c>
+      <c r="K150" t="n">
+        <v>164</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>0.9645121951219512</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>162</v>
+      </c>
+      <c r="C151" t="n">
+        <v>162</v>
+      </c>
+      <c r="D151" t="n">
+        <v>162</v>
+      </c>
+      <c r="E151" t="n">
+        <v>162</v>
+      </c>
+      <c r="F151" t="n">
+        <v>250</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>159</v>
+      </c>
+      <c r="K151" t="n">
+        <v>163</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>162</v>
+      </c>
+      <c r="C152" t="n">
+        <v>162</v>
+      </c>
+      <c r="D152" t="n">
+        <v>162</v>
+      </c>
+      <c r="E152" t="n">
+        <v>162</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1976.411</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-14.28571428571428</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>162</v>
+      </c>
+      <c r="K152" t="n">
+        <v>162</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>163</v>
+      </c>
+      <c r="C153" t="n">
+        <v>163</v>
+      </c>
+      <c r="D153" t="n">
+        <v>163</v>
+      </c>
+      <c r="E153" t="n">
+        <v>163</v>
+      </c>
+      <c r="F153" t="n">
+        <v>599.6686999999999</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>162</v>
+      </c>
+      <c r="K153" t="n">
+        <v>162</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>161</v>
+      </c>
+      <c r="C154" t="n">
+        <v>162</v>
+      </c>
+      <c r="D154" t="n">
+        <v>162</v>
+      </c>
+      <c r="E154" t="n">
+        <v>161</v>
+      </c>
+      <c r="F154" t="n">
+        <v>10202</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-11.11111111111111</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>163</v>
+      </c>
+      <c r="K154" t="n">
+        <v>162</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>162</v>
+      </c>
+      <c r="C155" t="n">
+        <v>162</v>
+      </c>
+      <c r="D155" t="n">
+        <v>162</v>
+      </c>
+      <c r="E155" t="n">
+        <v>162</v>
+      </c>
+      <c r="F155" t="n">
+        <v>250</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-11.11111111111111</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>162</v>
+      </c>
+      <c r="K155" t="n">
+        <v>162</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>159</v>
+      </c>
+      <c r="C156" t="n">
+        <v>159</v>
+      </c>
+      <c r="D156" t="n">
+        <v>159</v>
+      </c>
+      <c r="E156" t="n">
+        <v>159</v>
+      </c>
+      <c r="F156" t="n">
+        <v>85</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>162</v>
+      </c>
+      <c r="K156" t="n">
+        <v>162</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>159</v>
+      </c>
+      <c r="C157" t="n">
+        <v>159</v>
+      </c>
+      <c r="D157" t="n">
+        <v>159</v>
+      </c>
+      <c r="E157" t="n">
+        <v>159</v>
+      </c>
+      <c r="F157" t="n">
+        <v>200</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-33.33333333333333</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>159</v>
+      </c>
+      <c r="K157" t="n">
+        <v>162</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>158</v>
+      </c>
+      <c r="C158" t="n">
+        <v>158</v>
+      </c>
+      <c r="D158" t="n">
+        <v>158</v>
+      </c>
+      <c r="E158" t="n">
+        <v>158</v>
+      </c>
+      <c r="F158" t="n">
+        <v>19.5174</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-20</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>159</v>
+      </c>
+      <c r="K158" t="n">
+        <v>162</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>159</v>
+      </c>
+      <c r="C159" t="n">
+        <v>159</v>
+      </c>
+      <c r="D159" t="n">
+        <v>159</v>
+      </c>
+      <c r="E159" t="n">
+        <v>159</v>
+      </c>
+      <c r="F159" t="n">
+        <v>144.1672</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>158</v>
+      </c>
+      <c r="K159" t="n">
+        <v>162</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>159</v>
+      </c>
+      <c r="C160" t="n">
+        <v>159</v>
+      </c>
+      <c r="D160" t="n">
+        <v>159</v>
+      </c>
+      <c r="E160" t="n">
+        <v>159</v>
+      </c>
+      <c r="F160" t="n">
+        <v>128.905</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-42.85714285714285</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>159</v>
+      </c>
+      <c r="K160" t="n">
+        <v>162</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>160</v>
+      </c>
+      <c r="C161" t="n">
+        <v>160</v>
+      </c>
+      <c r="D161" t="n">
+        <v>160</v>
+      </c>
+      <c r="E161" t="n">
+        <v>160</v>
+      </c>
+      <c r="F161" t="n">
         <v>55.4007</v>
       </c>
-      <c r="G132" t="n">
-        <v>160.6666666666667</v>
-      </c>
-      <c r="H132" t="n">
-        <v>159.5333333333333</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="G161" t="n">
+        <v>-25</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>159</v>
+      </c>
+      <c r="K161" t="n">
+        <v>162</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:N190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C2" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D2" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E2" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>1168.698</v>
+        <v>8335.8874</v>
       </c>
       <c r="G2" t="n">
-        <v>156.8</v>
+        <v>81324.66209999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C3" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D3" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E3" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F3" t="n">
-        <v>1400</v>
+        <v>1.12</v>
       </c>
       <c r="G3" t="n">
-        <v>156.4</v>
+        <v>81325.78209999998</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C4" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D4" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E4" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F4" t="n">
-        <v>1565.4614</v>
+        <v>98.88</v>
       </c>
       <c r="G4" t="n">
-        <v>156.4</v>
+        <v>81325.78209999998</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C5" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D5" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E5" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>2238.4102</v>
+        <v>3759.5181</v>
       </c>
       <c r="G5" t="n">
-        <v>156.4</v>
+        <v>77566.26399999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C6" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D6" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E6" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F6" t="n">
-        <v>311.821</v>
+        <v>2402.245</v>
       </c>
       <c r="G6" t="n">
-        <v>156.2</v>
+        <v>79968.50899999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,38 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C7" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D7" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E7" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F7" t="n">
-        <v>6208.0897</v>
+        <v>3664.2697</v>
       </c>
       <c r="G7" t="n">
-        <v>156.4</v>
+        <v>79968.50899999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>156</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -660,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C8" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D8" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E8" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F8" t="n">
-        <v>3782</v>
+        <v>4014.2293</v>
       </c>
       <c r="G8" t="n">
-        <v>156.8</v>
+        <v>75954.27969999997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -685,11 +679,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -700,36 +690,36 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C9" t="n">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D9" t="n">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E9" t="n">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F9" t="n">
-        <v>3168</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>156.8</v>
+        <v>75953.27969999997</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="n">
+        <v>150</v>
+      </c>
+      <c r="K9" t="n">
+        <v>150</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -740,34 +730,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C10" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D10" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E10" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F10" t="n">
-        <v>3595</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>157</v>
+        <v>75954.27969999997</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>146</v>
+      </c>
+      <c r="K10" t="n">
+        <v>150</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -780,22 +774,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C11" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D11" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E11" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>919</v>
       </c>
       <c r="G11" t="n">
-        <v>157.4</v>
+        <v>75954.27969999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -804,10 +798,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>150</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -820,22 +816,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C12" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D12" t="n">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E12" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F12" t="n">
-        <v>370.4177</v>
+        <v>913.7223</v>
       </c>
       <c r="G12" t="n">
-        <v>157.6</v>
+        <v>76868.00199999996</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -845,11 +841,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -860,22 +852,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C13" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D13" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E13" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F13" t="n">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>157.8</v>
+        <v>76867.00199999996</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -885,11 +877,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -900,22 +888,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C14" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D14" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E14" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F14" t="n">
-        <v>3793</v>
+        <v>1240.7814</v>
       </c>
       <c r="G14" t="n">
-        <v>158</v>
+        <v>76867.00199999996</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -925,11 +913,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -940,22 +924,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C15" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D15" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E15" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F15" t="n">
-        <v>3910</v>
+        <v>195.033</v>
       </c>
       <c r="G15" t="n">
-        <v>158.2</v>
+        <v>76671.96899999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -965,11 +949,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -980,22 +960,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C16" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D16" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E16" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F16" t="n">
-        <v>6946.433</v>
+        <v>1.1</v>
       </c>
       <c r="G16" t="n">
-        <v>158.4</v>
+        <v>76673.06899999997</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1005,11 +985,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1020,22 +996,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C17" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D17" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E17" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F17" t="n">
-        <v>3835</v>
+        <v>363.177</v>
       </c>
       <c r="G17" t="n">
-        <v>158.6</v>
+        <v>76673.06899999997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1045,11 +1021,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1060,22 +1032,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C18" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D18" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E18" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="G18" t="n">
-        <v>158.8</v>
+        <v>76173.06899999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1085,11 +1057,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1100,22 +1068,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C19" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D19" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E19" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F19" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>159</v>
+        <v>76174.06899999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1125,11 +1093,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1140,22 +1104,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C20" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D20" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E20" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F20" t="n">
-        <v>773.9117</v>
+        <v>84</v>
       </c>
       <c r="G20" t="n">
-        <v>158.6</v>
+        <v>76174.06899999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1165,11 +1129,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1180,22 +1140,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C21" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D21" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E21" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F21" t="n">
-        <v>2.2706</v>
+        <v>168</v>
       </c>
       <c r="G21" t="n">
-        <v>158</v>
+        <v>76174.06899999997</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1205,11 +1165,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1220,22 +1176,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C22" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D22" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E22" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F22" t="n">
-        <v>1000</v>
+        <v>84</v>
       </c>
       <c r="G22" t="n">
-        <v>158.2</v>
+        <v>76174.06899999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1245,11 +1201,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1260,22 +1212,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C23" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D23" t="n">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E23" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F23" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="G23" t="n">
-        <v>158.4</v>
+        <v>76174.06899999997</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1285,11 +1237,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1300,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C24" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D24" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E24" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="F24" t="n">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="G24" t="n">
-        <v>158.6</v>
+        <v>75651.06899999997</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1325,11 +1273,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1340,22 +1284,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C25" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D25" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E25" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F25" t="n">
-        <v>290.7394</v>
+        <v>501</v>
       </c>
       <c r="G25" t="n">
-        <v>158.4</v>
+        <v>76152.06899999997</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1365,11 +1309,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1380,22 +1320,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C26" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D26" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E26" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F26" t="n">
-        <v>4836.8087</v>
+        <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>158.4</v>
+        <v>76100.06899999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1405,11 +1345,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1420,22 +1356,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C27" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D27" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E27" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>158.2</v>
+        <v>76100.06899999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1445,11 +1381,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1460,22 +1392,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C28" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D28" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E28" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F28" t="n">
-        <v>230.06</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>158</v>
+        <v>76101.06899999997</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1485,11 +1417,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1500,22 +1428,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C29" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D29" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E29" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F29" t="n">
-        <v>2500</v>
+        <v>302.026</v>
       </c>
       <c r="G29" t="n">
-        <v>157.2</v>
+        <v>75799.04299999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1525,11 +1453,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1540,22 +1464,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C30" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D30" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E30" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F30" t="n">
-        <v>304.436</v>
+        <v>61</v>
       </c>
       <c r="G30" t="n">
-        <v>157.2</v>
+        <v>75799.04299999998</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1565,11 +1489,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1580,22 +1500,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C31" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D31" t="n">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E31" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F31" t="n">
-        <v>501</v>
+        <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>157.6</v>
+        <v>75799.04299999998</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1605,11 +1525,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1620,22 +1536,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C32" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D32" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E32" t="n">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F32" t="n">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>157.6</v>
+        <v>75800.04299999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1645,11 +1561,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1660,22 +1572,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C33" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D33" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E33" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F33" t="n">
-        <v>576.299</v>
+        <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>156.8</v>
+        <v>75785.04299999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1685,11 +1597,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1700,22 +1608,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C34" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D34" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E34" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F34" t="n">
-        <v>494.2816</v>
+        <v>1.1</v>
       </c>
       <c r="G34" t="n">
-        <v>156.6</v>
+        <v>75786.14299999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1725,11 +1633,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1740,22 +1644,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C35" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D35" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E35" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F35" t="n">
-        <v>7297.1111</v>
+        <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>156.2</v>
+        <v>75769.14299999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1765,11 +1669,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1780,22 +1680,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C36" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D36" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E36" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F36" t="n">
-        <v>62.8457</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>155.4</v>
+        <v>75769.14299999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1805,11 +1705,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1820,22 +1716,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C37" t="n">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D37" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E37" t="n">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F37" t="n">
-        <v>2385.4166</v>
+        <v>5754</v>
       </c>
       <c r="G37" t="n">
-        <v>154.2</v>
+        <v>70015.14299999998</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1845,11 +1741,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1860,22 +1752,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C38" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D38" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E38" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F38" t="n">
-        <v>3544.2687</v>
+        <v>1.12</v>
       </c>
       <c r="G38" t="n">
-        <v>153.8</v>
+        <v>70016.26299999998</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1885,11 +1777,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1900,38 +1788,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C39" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D39" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E39" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F39" t="n">
-        <v>1400</v>
+        <v>1025.2833</v>
       </c>
       <c r="G39" t="n">
-        <v>153.6</v>
+        <v>68990.97969999998</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>153</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1942,38 +1824,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C40" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D40" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E40" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F40" t="n">
-        <v>1000</v>
+        <v>516</v>
       </c>
       <c r="G40" t="n">
-        <v>153.4</v>
+        <v>68990.97969999998</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>154</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1984,38 +1860,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C41" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D41" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E41" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F41" t="n">
-        <v>347.9799</v>
+        <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>153.2</v>
+        <v>68990.97969999998</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>153</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2026,38 +1896,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C42" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D42" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E42" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F42" t="n">
-        <v>3688</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>153.4</v>
+        <v>68990.97969999998</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>153</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2068,38 +1932,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C43" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D43" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E43" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F43" t="n">
-        <v>198.234</v>
+        <v>18.2259</v>
       </c>
       <c r="G43" t="n">
-        <v>153.6</v>
+        <v>68990.97969999998</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>154</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2110,38 +1968,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C44" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D44" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E44" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>153.6</v>
+        <v>68991.97969999998</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>154</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2152,38 +2004,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C45" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D45" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E45" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F45" t="n">
-        <v>369.453</v>
+        <v>2.1254</v>
       </c>
       <c r="G45" t="n">
-        <v>153.8</v>
+        <v>68991.97969999998</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>154</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2194,38 +2040,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C46" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D46" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E46" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F46" t="n">
-        <v>195.053</v>
+        <v>1.111</v>
       </c>
       <c r="G46" t="n">
-        <v>153.8</v>
+        <v>68993.09069999999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>154</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2236,38 +2076,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C47" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D47" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E47" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F47" t="n">
-        <v>2689.6165</v>
+        <v>52</v>
       </c>
       <c r="G47" t="n">
-        <v>153.8</v>
+        <v>68941.09069999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>153</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2278,38 +2112,32 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C48" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D48" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E48" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F48" t="n">
-        <v>176.124</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>153.6</v>
+        <v>68942.09069999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>154</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2320,38 +2148,32 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C49" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D49" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E49" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F49" t="n">
-        <v>560.4880000000001</v>
+        <v>104</v>
       </c>
       <c r="G49" t="n">
-        <v>153.8</v>
+        <v>68838.09069999999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>153</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2362,38 +2184,32 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C50" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D50" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E50" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F50" t="n">
-        <v>181.602</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>154</v>
+        <v>68839.09069999999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>155</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2404,38 +2220,32 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C51" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D51" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E51" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F51" t="n">
-        <v>244.478</v>
+        <v>213</v>
       </c>
       <c r="G51" t="n">
-        <v>154.4</v>
+        <v>68839.09069999999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>155</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2446,22 +2256,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C52" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E52" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F52" t="n">
-        <v>544</v>
+        <v>226</v>
       </c>
       <c r="G52" t="n">
-        <v>154.4</v>
+        <v>69065.09069999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2471,11 +2281,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2486,38 +2292,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E53" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F53" t="n">
-        <v>1232.061</v>
+        <v>3550</v>
       </c>
       <c r="G53" t="n">
-        <v>154.6</v>
+        <v>69065.09069999999</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>154</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2528,22 +2328,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E54" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F54" t="n">
-        <v>242</v>
+        <v>2235.9309</v>
       </c>
       <c r="G54" t="n">
-        <v>154.4</v>
+        <v>69065.09069999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2553,11 +2353,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2568,7 +2364,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" t="n">
         <v>153</v>
@@ -2577,29 +2373,23 @@
         <v>153</v>
       </c>
       <c r="E55" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F55" t="n">
-        <v>30</v>
+        <v>2641.4271</v>
       </c>
       <c r="G55" t="n">
-        <v>154</v>
+        <v>71706.51779999999</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>154</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2613,19 +2403,19 @@
         <v>154</v>
       </c>
       <c r="C56" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D56" t="n">
         <v>154</v>
       </c>
       <c r="E56" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F56" t="n">
-        <v>688.578</v>
+        <v>371.7402</v>
       </c>
       <c r="G56" t="n">
-        <v>153.6</v>
+        <v>72078.25799999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2635,11 +2425,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2650,7 +2436,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C57" t="n">
         <v>154</v>
@@ -2659,13 +2445,13 @@
         <v>154</v>
       </c>
       <c r="E57" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F57" t="n">
-        <v>8000</v>
+        <v>4500</v>
       </c>
       <c r="G57" t="n">
-        <v>153.6</v>
+        <v>72078.25799999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2675,11 +2461,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2693,19 +2475,19 @@
         <v>154</v>
       </c>
       <c r="C58" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D58" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E58" t="n">
         <v>154</v>
       </c>
       <c r="F58" t="n">
-        <v>4958.3379</v>
+        <v>1861.357</v>
       </c>
       <c r="G58" t="n">
-        <v>153.6</v>
+        <v>73939.61499999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2715,11 +2497,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2730,22 +2508,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C59" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D59" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E59" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F59" t="n">
-        <v>527</v>
+        <v>103</v>
       </c>
       <c r="G59" t="n">
-        <v>153.6</v>
+        <v>73836.61499999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2755,11 +2533,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2770,7 +2544,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" t="n">
         <v>155</v>
@@ -2779,29 +2553,23 @@
         <v>155</v>
       </c>
       <c r="E60" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F60" t="n">
-        <v>42.7421</v>
+        <v>313.541</v>
       </c>
       <c r="G60" t="n">
-        <v>154</v>
+        <v>74150.15599999999</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>154</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2812,22 +2580,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C61" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D61" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E61" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F61" t="n">
-        <v>698.763</v>
+        <v>197.2221</v>
       </c>
       <c r="G61" t="n">
-        <v>154.4</v>
+        <v>73952.93389999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2837,11 +2605,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2852,22 +2616,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C62" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D62" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E62" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F62" t="n">
-        <v>14.432</v>
+        <v>103</v>
       </c>
       <c r="G62" t="n">
-        <v>154.6</v>
+        <v>73849.93389999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2877,11 +2641,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2892,22 +2652,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C63" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E63" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F63" t="n">
-        <v>3630.502</v>
+        <v>103</v>
       </c>
       <c r="G63" t="n">
-        <v>154.8</v>
+        <v>73952.93389999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2917,11 +2677,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2932,22 +2688,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C64" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D64" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E64" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="G64" t="n">
-        <v>154.6</v>
+        <v>73952.93389999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2957,11 +2713,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2972,22 +2724,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C65" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D65" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E65" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>5749.866</v>
       </c>
       <c r="G65" t="n">
-        <v>154.8</v>
+        <v>79702.79989999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2997,11 +2749,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3012,22 +2760,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C66" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D66" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E66" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>5500</v>
       </c>
       <c r="G66" t="n">
-        <v>154.6</v>
+        <v>85202.79989999998</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3037,11 +2785,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3052,22 +2796,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C67" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D67" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E67" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G67" t="n">
-        <v>154.2</v>
+        <v>85202.79989999998</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3077,11 +2821,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3104,10 +2844,10 @@
         <v>157</v>
       </c>
       <c r="F68" t="n">
-        <v>24</v>
+        <v>269.974</v>
       </c>
       <c r="G68" t="n">
-        <v>154.6</v>
+        <v>85202.79989999998</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3117,11 +2857,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3144,10 +2880,10 @@
         <v>157</v>
       </c>
       <c r="F69" t="n">
-        <v>567</v>
+        <v>534.162</v>
       </c>
       <c r="G69" t="n">
-        <v>155.4</v>
+        <v>85202.79989999998</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3157,11 +2893,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3172,22 +2904,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C70" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D70" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E70" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>2.1254</v>
       </c>
       <c r="G70" t="n">
-        <v>155</v>
+        <v>85202.79989999998</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3197,11 +2929,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3212,7 +2940,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C71" t="n">
         <v>157</v>
@@ -3221,13 +2949,13 @@
         <v>157</v>
       </c>
       <c r="E71" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F71" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>155.6</v>
+        <v>85202.79989999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3237,11 +2965,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3252,22 +2976,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C72" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D72" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E72" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F72" t="n">
-        <v>41.555</v>
+        <v>63.69426751592356</v>
       </c>
       <c r="G72" t="n">
-        <v>155.8</v>
+        <v>85202.79989999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3277,11 +3001,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3292,22 +3012,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D73" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E73" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F73" t="n">
-        <v>750</v>
+        <v>1168.698</v>
       </c>
       <c r="G73" t="n">
-        <v>156.2</v>
+        <v>84034.10189999998</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3317,11 +3037,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3332,22 +3048,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C74" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D74" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E74" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F74" t="n">
-        <v>1088.6761</v>
+        <v>1400</v>
       </c>
       <c r="G74" t="n">
-        <v>156.6</v>
+        <v>82634.10189999998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3357,11 +3073,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3372,22 +3084,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C75" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D75" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E75" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F75" t="n">
-        <v>816.5062</v>
+        <v>1565.4614</v>
       </c>
       <c r="G75" t="n">
-        <v>157.6</v>
+        <v>84199.56329999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3397,11 +3109,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3412,22 +3120,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C76" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D76" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E76" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F76" t="n">
-        <v>2212.9974</v>
+        <v>2238.4102</v>
       </c>
       <c r="G76" t="n">
-        <v>157.8</v>
+        <v>84199.56329999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3437,11 +3145,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3452,22 +3156,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C77" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D77" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E77" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F77" t="n">
-        <v>4000</v>
+        <v>311.821</v>
       </c>
       <c r="G77" t="n">
-        <v>158.8</v>
+        <v>83887.74229999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3477,11 +3181,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3492,22 +3192,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C78" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D78" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E78" t="n">
         <v>156</v>
       </c>
       <c r="F78" t="n">
-        <v>255</v>
+        <v>6208.0897</v>
       </c>
       <c r="G78" t="n">
-        <v>158.2</v>
+        <v>90095.83199999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3517,11 +3217,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3532,22 +3228,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C79" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D79" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E79" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>3782</v>
       </c>
       <c r="G79" t="n">
-        <v>158.2</v>
+        <v>90095.83199999998</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3557,11 +3253,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3572,22 +3264,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D80" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E80" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>3168</v>
       </c>
       <c r="G80" t="n">
-        <v>158.2</v>
+        <v>90095.83199999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3597,11 +3289,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3615,19 +3303,19 @@
         <v>157</v>
       </c>
       <c r="C81" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D81" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E81" t="n">
         <v>157</v>
       </c>
       <c r="F81" t="n">
-        <v>86</v>
+        <v>3595</v>
       </c>
       <c r="G81" t="n">
-        <v>158</v>
+        <v>93690.83199999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3637,11 +3325,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3652,22 +3336,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C82" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D82" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F82" t="n">
-        <v>2316.0464</v>
+        <v>12</v>
       </c>
       <c r="G82" t="n">
-        <v>158</v>
+        <v>93690.83199999998</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3677,11 +3361,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3692,22 +3372,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D83" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E83" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F83" t="n">
-        <v>1681.334</v>
+        <v>370.4177</v>
       </c>
       <c r="G83" t="n">
-        <v>158.6</v>
+        <v>93690.83199999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3717,11 +3397,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3732,22 +3408,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D84" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E84" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F84" t="n">
-        <v>720.748</v>
+        <v>194</v>
       </c>
       <c r="G84" t="n">
-        <v>158.8</v>
+        <v>93690.83199999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3757,11 +3433,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3772,22 +3444,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D85" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E85" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F85" t="n">
-        <v>655.9160000000001</v>
+        <v>3793</v>
       </c>
       <c r="G85" t="n">
-        <v>159</v>
+        <v>93690.83199999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3797,11 +3469,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3812,22 +3480,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C86" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D86" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E86" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F86" t="n">
-        <v>7909.7569</v>
+        <v>3910</v>
       </c>
       <c r="G86" t="n">
-        <v>160.2</v>
+        <v>97600.83199999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3837,11 +3505,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3852,22 +3516,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C87" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D87" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E87" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>6946.433</v>
       </c>
       <c r="G87" t="n">
-        <v>160.6</v>
+        <v>97600.83199999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3877,11 +3541,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3892,36 +3552,32 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C88" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D88" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E88" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>3835</v>
       </c>
       <c r="G88" t="n">
-        <v>161</v>
+        <v>97600.83199999998</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3944,24 +3600,20 @@
         <v>159</v>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>160.8</v>
+        <v>97600.83199999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3972,36 +3624,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C90" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D90" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E90" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F90" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G90" t="n">
-        <v>161</v>
+        <v>97600.83199999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4012,36 +3660,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C91" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D91" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E91" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F91" t="n">
-        <v>199</v>
+        <v>773.9117</v>
       </c>
       <c r="G91" t="n">
-        <v>160.8</v>
+        <v>96826.92029999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4052,36 +3696,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C92" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D92" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E92" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>2.2706</v>
       </c>
       <c r="G92" t="n">
-        <v>161</v>
+        <v>96824.64969999998</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4092,22 +3732,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C93" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D93" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E93" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F93" t="n">
-        <v>81</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="n">
-        <v>161.2</v>
+        <v>97824.64969999998</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4117,11 +3757,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4132,36 +3768,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C94" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D94" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E94" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F94" t="n">
-        <v>3345.7899</v>
+        <v>500</v>
       </c>
       <c r="G94" t="n">
-        <v>162</v>
+        <v>97824.64969999998</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4172,36 +3804,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C95" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D95" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E95" t="n">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F95" t="n">
-        <v>1716.7932</v>
+        <v>508</v>
       </c>
       <c r="G95" t="n">
-        <v>162.6</v>
+        <v>97824.64969999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4212,36 +3840,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C96" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D96" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E96" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F96" t="n">
-        <v>1383.743</v>
+        <v>290.7394</v>
       </c>
       <c r="G96" t="n">
-        <v>163</v>
+        <v>97533.91029999997</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4252,22 +3876,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C97" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D97" t="n">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E97" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F97" t="n">
-        <v>1468.987</v>
+        <v>4836.8087</v>
       </c>
       <c r="G97" t="n">
-        <v>163.4</v>
+        <v>97533.91029999997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4277,11 +3901,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4292,22 +3912,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C98" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D98" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E98" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F98" t="n">
-        <v>55.489</v>
+        <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>163</v>
+        <v>97535.91029999997</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4317,11 +3937,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4332,22 +3948,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C99" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D99" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E99" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F99" t="n">
-        <v>82.1254</v>
+        <v>230.06</v>
       </c>
       <c r="G99" t="n">
-        <v>163</v>
+        <v>97535.91029999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4357,11 +3973,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4372,36 +3984,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C100" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D100" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E100" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="G100" t="n">
-        <v>162.8</v>
+        <v>95035.91029999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4412,37 +4020,35 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C101" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D101" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E101" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F101" t="n">
-        <v>500</v>
+        <v>304.436</v>
       </c>
       <c r="G101" t="n">
-        <v>162.6</v>
+        <v>95035.91029999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
       <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
@@ -4450,22 +4056,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C102" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D102" t="n">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E102" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F102" t="n">
-        <v>1042.347</v>
+        <v>501</v>
       </c>
       <c r="G102" t="n">
-        <v>162.4</v>
+        <v>95536.91029999997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4486,22 +4092,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C103" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D103" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E103" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F103" t="n">
-        <v>369.141</v>
+        <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>163</v>
+        <v>95537.91029999997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4522,22 +4128,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C104" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D104" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E104" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F104" t="n">
-        <v>1743.027</v>
+        <v>576.299</v>
       </c>
       <c r="G104" t="n">
-        <v>163</v>
+        <v>94961.61129999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4558,22 +4164,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C105" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D105" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="E105" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F105" t="n">
-        <v>2283.6495</v>
+        <v>494.2816</v>
       </c>
       <c r="G105" t="n">
-        <v>163</v>
+        <v>94961.61129999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4594,28 +4200,28 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C106" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D106" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E106" t="n">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F106" t="n">
-        <v>31.7397</v>
+        <v>7297.1111</v>
       </c>
       <c r="G106" t="n">
-        <v>163</v>
+        <v>87664.50019999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4630,28 +4236,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C107" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D107" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E107" t="n">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F107" t="n">
-        <v>2212.9973</v>
+        <v>62.8457</v>
       </c>
       <c r="G107" t="n">
-        <v>162.4</v>
+        <v>87664.50019999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4666,28 +4272,28 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C108" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D108" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E108" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F108" t="n">
-        <v>159.9643</v>
+        <v>2385.4166</v>
       </c>
       <c r="G108" t="n">
-        <v>161.6</v>
+        <v>85279.08359999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4702,22 +4308,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C109" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D109" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E109" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>3544.2687</v>
       </c>
       <c r="G109" t="n">
-        <v>161.4</v>
+        <v>85279.08359999998</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4738,28 +4344,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C110" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D110" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E110" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F110" t="n">
-        <v>1976.411</v>
+        <v>1400</v>
       </c>
       <c r="G110" t="n">
-        <v>161.2</v>
+        <v>86679.08359999998</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4774,22 +4380,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C111" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D111" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E111" t="n">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F111" t="n">
-        <v>599.6686999999999</v>
+        <v>1000</v>
       </c>
       <c r="G111" t="n">
-        <v>161.2</v>
+        <v>85679.08359999998</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4810,28 +4416,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C112" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D112" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E112" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F112" t="n">
-        <v>10202</v>
+        <v>347.9799</v>
       </c>
       <c r="G112" t="n">
-        <v>161.6</v>
+        <v>85679.08359999998</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4846,28 +4452,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C113" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D113" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E113" t="n">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>3688</v>
       </c>
       <c r="G113" t="n">
-        <v>162.2</v>
+        <v>89367.08359999998</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4882,28 +4488,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C114" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D114" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E114" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F114" t="n">
-        <v>85</v>
+        <v>198.234</v>
       </c>
       <c r="G114" t="n">
-        <v>161.6</v>
+        <v>89367.08359999998</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4918,28 +4524,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C115" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D115" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E115" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F115" t="n">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="G115" t="n">
-        <v>161</v>
+        <v>89367.08359999998</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4954,28 +4560,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C116" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D116" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E116" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F116" t="n">
-        <v>19.5174</v>
+        <v>369.453</v>
       </c>
       <c r="G116" t="n">
-        <v>160</v>
+        <v>89367.08359999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4990,22 +4596,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C117" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D117" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E117" t="n">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F117" t="n">
-        <v>144.1672</v>
+        <v>195.053</v>
       </c>
       <c r="G117" t="n">
-        <v>159.4</v>
+        <v>89172.03059999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5026,22 +4632,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C118" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D118" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E118" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F118" t="n">
-        <v>128.905</v>
+        <v>2689.6165</v>
       </c>
       <c r="G118" t="n">
-        <v>158.8</v>
+        <v>91861.64709999999</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5062,22 +4668,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C119" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D119" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E119" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F119" t="n">
-        <v>55.4007</v>
+        <v>176.124</v>
       </c>
       <c r="G119" t="n">
-        <v>159</v>
+        <v>91685.52309999999</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5093,6 +4699,2562 @@
       </c>
       <c r="N119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>155</v>
+      </c>
+      <c r="C120" t="n">
+        <v>155</v>
+      </c>
+      <c r="D120" t="n">
+        <v>155</v>
+      </c>
+      <c r="E120" t="n">
+        <v>155</v>
+      </c>
+      <c r="F120" t="n">
+        <v>560.4880000000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>92246.01109999999</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>155</v>
+      </c>
+      <c r="C121" t="n">
+        <v>155</v>
+      </c>
+      <c r="D121" t="n">
+        <v>155</v>
+      </c>
+      <c r="E121" t="n">
+        <v>155</v>
+      </c>
+      <c r="F121" t="n">
+        <v>181.602</v>
+      </c>
+      <c r="G121" t="n">
+        <v>92246.01109999999</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>155</v>
+      </c>
+      <c r="C122" t="n">
+        <v>155</v>
+      </c>
+      <c r="D122" t="n">
+        <v>155</v>
+      </c>
+      <c r="E122" t="n">
+        <v>155</v>
+      </c>
+      <c r="F122" t="n">
+        <v>244.478</v>
+      </c>
+      <c r="G122" t="n">
+        <v>92246.01109999999</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>154</v>
+      </c>
+      <c r="C123" t="n">
+        <v>154</v>
+      </c>
+      <c r="D123" t="n">
+        <v>154</v>
+      </c>
+      <c r="E123" t="n">
+        <v>154</v>
+      </c>
+      <c r="F123" t="n">
+        <v>544</v>
+      </c>
+      <c r="G123" t="n">
+        <v>91702.01109999999</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>154</v>
+      </c>
+      <c r="C124" t="n">
+        <v>154</v>
+      </c>
+      <c r="D124" t="n">
+        <v>154</v>
+      </c>
+      <c r="E124" t="n">
+        <v>154</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1232.061</v>
+      </c>
+      <c r="G124" t="n">
+        <v>91702.01109999999</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>154</v>
+      </c>
+      <c r="C125" t="n">
+        <v>154</v>
+      </c>
+      <c r="D125" t="n">
+        <v>154</v>
+      </c>
+      <c r="E125" t="n">
+        <v>154</v>
+      </c>
+      <c r="F125" t="n">
+        <v>242</v>
+      </c>
+      <c r="G125" t="n">
+        <v>91702.01109999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>153</v>
+      </c>
+      <c r="C126" t="n">
+        <v>153</v>
+      </c>
+      <c r="D126" t="n">
+        <v>153</v>
+      </c>
+      <c r="E126" t="n">
+        <v>153</v>
+      </c>
+      <c r="F126" t="n">
+        <v>30</v>
+      </c>
+      <c r="G126" t="n">
+        <v>91672.01109999999</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>154</v>
+      </c>
+      <c r="C127" t="n">
+        <v>153</v>
+      </c>
+      <c r="D127" t="n">
+        <v>154</v>
+      </c>
+      <c r="E127" t="n">
+        <v>153</v>
+      </c>
+      <c r="F127" t="n">
+        <v>688.578</v>
+      </c>
+      <c r="G127" t="n">
+        <v>91672.01109999999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>154</v>
+      </c>
+      <c r="C128" t="n">
+        <v>154</v>
+      </c>
+      <c r="D128" t="n">
+        <v>154</v>
+      </c>
+      <c r="E128" t="n">
+        <v>154</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>99672.01109999999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>154</v>
+      </c>
+      <c r="C129" t="n">
+        <v>154</v>
+      </c>
+      <c r="D129" t="n">
+        <v>154</v>
+      </c>
+      <c r="E129" t="n">
+        <v>154</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4958.3379</v>
+      </c>
+      <c r="G129" t="n">
+        <v>99672.01109999999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>154</v>
+      </c>
+      <c r="C130" t="n">
+        <v>154</v>
+      </c>
+      <c r="D130" t="n">
+        <v>154</v>
+      </c>
+      <c r="E130" t="n">
+        <v>154</v>
+      </c>
+      <c r="F130" t="n">
+        <v>527</v>
+      </c>
+      <c r="G130" t="n">
+        <v>99672.01109999999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>154</v>
+      </c>
+      <c r="C131" t="n">
+        <v>155</v>
+      </c>
+      <c r="D131" t="n">
+        <v>155</v>
+      </c>
+      <c r="E131" t="n">
+        <v>154</v>
+      </c>
+      <c r="F131" t="n">
+        <v>42.7421</v>
+      </c>
+      <c r="G131" t="n">
+        <v>99714.75319999999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>157</v>
+      </c>
+      <c r="C132" t="n">
+        <v>155</v>
+      </c>
+      <c r="D132" t="n">
+        <v>157</v>
+      </c>
+      <c r="E132" t="n">
+        <v>155</v>
+      </c>
+      <c r="F132" t="n">
+        <v>698.763</v>
+      </c>
+      <c r="G132" t="n">
+        <v>99714.75319999999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>157</v>
+      </c>
+      <c r="C133" t="n">
+        <v>155</v>
+      </c>
+      <c r="D133" t="n">
+        <v>157</v>
+      </c>
+      <c r="E133" t="n">
+        <v>155</v>
+      </c>
+      <c r="F133" t="n">
+        <v>14.432</v>
+      </c>
+      <c r="G133" t="n">
+        <v>99714.75319999999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>155</v>
+      </c>
+      <c r="C134" t="n">
+        <v>155</v>
+      </c>
+      <c r="D134" t="n">
+        <v>155</v>
+      </c>
+      <c r="E134" t="n">
+        <v>155</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3630.502</v>
+      </c>
+      <c r="G134" t="n">
+        <v>99714.75319999999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>153</v>
+      </c>
+      <c r="C135" t="n">
+        <v>153</v>
+      </c>
+      <c r="D135" t="n">
+        <v>153</v>
+      </c>
+      <c r="E135" t="n">
+        <v>153</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>99713.75319999999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>156</v>
+      </c>
+      <c r="C136" t="n">
+        <v>156</v>
+      </c>
+      <c r="D136" t="n">
+        <v>156</v>
+      </c>
+      <c r="E136" t="n">
+        <v>156</v>
+      </c>
+      <c r="F136" t="n">
+        <v>250</v>
+      </c>
+      <c r="G136" t="n">
+        <v>99963.75319999999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>154</v>
+      </c>
+      <c r="C137" t="n">
+        <v>154</v>
+      </c>
+      <c r="D137" t="n">
+        <v>154</v>
+      </c>
+      <c r="E137" t="n">
+        <v>154</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>99962.75319999999</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>153</v>
+      </c>
+      <c r="C138" t="n">
+        <v>153</v>
+      </c>
+      <c r="D138" t="n">
+        <v>153</v>
+      </c>
+      <c r="E138" t="n">
+        <v>153</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>99961.75319999999</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>157</v>
+      </c>
+      <c r="C139" t="n">
+        <v>157</v>
+      </c>
+      <c r="D139" t="n">
+        <v>157</v>
+      </c>
+      <c r="E139" t="n">
+        <v>157</v>
+      </c>
+      <c r="F139" t="n">
+        <v>24</v>
+      </c>
+      <c r="G139" t="n">
+        <v>99985.75319999999</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>157</v>
+      </c>
+      <c r="C140" t="n">
+        <v>157</v>
+      </c>
+      <c r="D140" t="n">
+        <v>157</v>
+      </c>
+      <c r="E140" t="n">
+        <v>157</v>
+      </c>
+      <c r="F140" t="n">
+        <v>567</v>
+      </c>
+      <c r="G140" t="n">
+        <v>99985.75319999999</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>154</v>
+      </c>
+      <c r="C141" t="n">
+        <v>154</v>
+      </c>
+      <c r="D141" t="n">
+        <v>154</v>
+      </c>
+      <c r="E141" t="n">
+        <v>154</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>99984.75319999999</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>156</v>
+      </c>
+      <c r="C142" t="n">
+        <v>157</v>
+      </c>
+      <c r="D142" t="n">
+        <v>157</v>
+      </c>
+      <c r="E142" t="n">
+        <v>156</v>
+      </c>
+      <c r="F142" t="n">
+        <v>500</v>
+      </c>
+      <c r="G142" t="n">
+        <v>100484.7532</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>154</v>
+      </c>
+      <c r="C143" t="n">
+        <v>154</v>
+      </c>
+      <c r="D143" t="n">
+        <v>154</v>
+      </c>
+      <c r="E143" t="n">
+        <v>154</v>
+      </c>
+      <c r="F143" t="n">
+        <v>41.555</v>
+      </c>
+      <c r="G143" t="n">
+        <v>100443.1982</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>157</v>
+      </c>
+      <c r="C144" t="n">
+        <v>159</v>
+      </c>
+      <c r="D144" t="n">
+        <v>159</v>
+      </c>
+      <c r="E144" t="n">
+        <v>157</v>
+      </c>
+      <c r="F144" t="n">
+        <v>750</v>
+      </c>
+      <c r="G144" t="n">
+        <v>101193.1982</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>159</v>
+      </c>
+      <c r="C145" t="n">
+        <v>159</v>
+      </c>
+      <c r="D145" t="n">
+        <v>159</v>
+      </c>
+      <c r="E145" t="n">
+        <v>159</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1088.6761</v>
+      </c>
+      <c r="G145" t="n">
+        <v>101193.1982</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>159</v>
+      </c>
+      <c r="C146" t="n">
+        <v>159</v>
+      </c>
+      <c r="D146" t="n">
+        <v>159</v>
+      </c>
+      <c r="E146" t="n">
+        <v>159</v>
+      </c>
+      <c r="F146" t="n">
+        <v>816.5062</v>
+      </c>
+      <c r="G146" t="n">
+        <v>101193.1982</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>158</v>
+      </c>
+      <c r="C147" t="n">
+        <v>158</v>
+      </c>
+      <c r="D147" t="n">
+        <v>158</v>
+      </c>
+      <c r="E147" t="n">
+        <v>158</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2212.9974</v>
+      </c>
+      <c r="G147" t="n">
+        <v>98980.20079999999</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>159</v>
+      </c>
+      <c r="C148" t="n">
+        <v>159</v>
+      </c>
+      <c r="D148" t="n">
+        <v>159</v>
+      </c>
+      <c r="E148" t="n">
+        <v>159</v>
+      </c>
+      <c r="F148" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G148" t="n">
+        <v>102980.2008</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>159</v>
+      </c>
+      <c r="C149" t="n">
+        <v>156</v>
+      </c>
+      <c r="D149" t="n">
+        <v>159</v>
+      </c>
+      <c r="E149" t="n">
+        <v>156</v>
+      </c>
+      <c r="F149" t="n">
+        <v>255</v>
+      </c>
+      <c r="G149" t="n">
+        <v>102725.2008</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>159</v>
+      </c>
+      <c r="C150" t="n">
+        <v>159</v>
+      </c>
+      <c r="D150" t="n">
+        <v>159</v>
+      </c>
+      <c r="E150" t="n">
+        <v>159</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>102726.2008</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>159</v>
+      </c>
+      <c r="C151" t="n">
+        <v>159</v>
+      </c>
+      <c r="D151" t="n">
+        <v>159</v>
+      </c>
+      <c r="E151" t="n">
+        <v>159</v>
+      </c>
+      <c r="F151" t="n">
+        <v>250</v>
+      </c>
+      <c r="G151" t="n">
+        <v>102726.2008</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>157</v>
+      </c>
+      <c r="C152" t="n">
+        <v>157</v>
+      </c>
+      <c r="D152" t="n">
+        <v>157</v>
+      </c>
+      <c r="E152" t="n">
+        <v>157</v>
+      </c>
+      <c r="F152" t="n">
+        <v>86</v>
+      </c>
+      <c r="G152" t="n">
+        <v>102640.2008</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>156</v>
+      </c>
+      <c r="C153" t="n">
+        <v>159</v>
+      </c>
+      <c r="D153" t="n">
+        <v>159</v>
+      </c>
+      <c r="E153" t="n">
+        <v>156</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2316.0464</v>
+      </c>
+      <c r="G153" t="n">
+        <v>104956.2472</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>159</v>
+      </c>
+      <c r="C154" t="n">
+        <v>159</v>
+      </c>
+      <c r="D154" t="n">
+        <v>159</v>
+      </c>
+      <c r="E154" t="n">
+        <v>159</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1681.334</v>
+      </c>
+      <c r="G154" t="n">
+        <v>104956.2472</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>159</v>
+      </c>
+      <c r="C155" t="n">
+        <v>160</v>
+      </c>
+      <c r="D155" t="n">
+        <v>160</v>
+      </c>
+      <c r="E155" t="n">
+        <v>159</v>
+      </c>
+      <c r="F155" t="n">
+        <v>720.748</v>
+      </c>
+      <c r="G155" t="n">
+        <v>105676.9952</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>160</v>
+      </c>
+      <c r="C156" t="n">
+        <v>160</v>
+      </c>
+      <c r="D156" t="n">
+        <v>160</v>
+      </c>
+      <c r="E156" t="n">
+        <v>160</v>
+      </c>
+      <c r="F156" t="n">
+        <v>655.9160000000001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>105676.9952</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>160</v>
+      </c>
+      <c r="C157" t="n">
+        <v>163</v>
+      </c>
+      <c r="D157" t="n">
+        <v>163</v>
+      </c>
+      <c r="E157" t="n">
+        <v>160</v>
+      </c>
+      <c r="F157" t="n">
+        <v>7909.7569</v>
+      </c>
+      <c r="G157" t="n">
+        <v>113586.7521</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>161</v>
+      </c>
+      <c r="C158" t="n">
+        <v>161</v>
+      </c>
+      <c r="D158" t="n">
+        <v>161</v>
+      </c>
+      <c r="E158" t="n">
+        <v>161</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10</v>
+      </c>
+      <c r="G158" t="n">
+        <v>113576.7521</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>161</v>
+      </c>
+      <c r="C159" t="n">
+        <v>161</v>
+      </c>
+      <c r="D159" t="n">
+        <v>161</v>
+      </c>
+      <c r="E159" t="n">
+        <v>161</v>
+      </c>
+      <c r="F159" t="n">
+        <v>20</v>
+      </c>
+      <c r="G159" t="n">
+        <v>113576.7521</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>159</v>
+      </c>
+      <c r="C160" t="n">
+        <v>159</v>
+      </c>
+      <c r="D160" t="n">
+        <v>159</v>
+      </c>
+      <c r="E160" t="n">
+        <v>159</v>
+      </c>
+      <c r="F160" t="n">
+        <v>200</v>
+      </c>
+      <c r="G160" t="n">
+        <v>113376.7521</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>161</v>
+      </c>
+      <c r="C161" t="n">
+        <v>161</v>
+      </c>
+      <c r="D161" t="n">
+        <v>161</v>
+      </c>
+      <c r="E161" t="n">
+        <v>161</v>
+      </c>
+      <c r="F161" t="n">
+        <v>70</v>
+      </c>
+      <c r="G161" t="n">
+        <v>113446.7521</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>160</v>
+      </c>
+      <c r="C162" t="n">
+        <v>162</v>
+      </c>
+      <c r="D162" t="n">
+        <v>162</v>
+      </c>
+      <c r="E162" t="n">
+        <v>160</v>
+      </c>
+      <c r="F162" t="n">
+        <v>199</v>
+      </c>
+      <c r="G162" t="n">
+        <v>113645.7521</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>162</v>
+      </c>
+      <c r="C163" t="n">
+        <v>162</v>
+      </c>
+      <c r="D163" t="n">
+        <v>162</v>
+      </c>
+      <c r="E163" t="n">
+        <v>162</v>
+      </c>
+      <c r="F163" t="n">
+        <v>20</v>
+      </c>
+      <c r="G163" t="n">
+        <v>113645.7521</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>162</v>
+      </c>
+      <c r="C164" t="n">
+        <v>162</v>
+      </c>
+      <c r="D164" t="n">
+        <v>162</v>
+      </c>
+      <c r="E164" t="n">
+        <v>162</v>
+      </c>
+      <c r="F164" t="n">
+        <v>81</v>
+      </c>
+      <c r="G164" t="n">
+        <v>113645.7521</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>163</v>
+      </c>
+      <c r="C165" t="n">
+        <v>163</v>
+      </c>
+      <c r="D165" t="n">
+        <v>163</v>
+      </c>
+      <c r="E165" t="n">
+        <v>163</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3345.7899</v>
+      </c>
+      <c r="G165" t="n">
+        <v>116991.542</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>164</v>
+      </c>
+      <c r="C166" t="n">
+        <v>164</v>
+      </c>
+      <c r="D166" t="n">
+        <v>164</v>
+      </c>
+      <c r="E166" t="n">
+        <v>164</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1716.7932</v>
+      </c>
+      <c r="G166" t="n">
+        <v>118708.3352</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>164</v>
+      </c>
+      <c r="C167" t="n">
+        <v>164</v>
+      </c>
+      <c r="D167" t="n">
+        <v>164</v>
+      </c>
+      <c r="E167" t="n">
+        <v>164</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1383.743</v>
+      </c>
+      <c r="G167" t="n">
+        <v>118708.3352</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>162</v>
+      </c>
+      <c r="C168" t="n">
+        <v>164</v>
+      </c>
+      <c r="D168" t="n">
+        <v>164</v>
+      </c>
+      <c r="E168" t="n">
+        <v>162</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1468.987</v>
+      </c>
+      <c r="G168" t="n">
+        <v>118708.3352</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>160</v>
+      </c>
+      <c r="C169" t="n">
+        <v>160</v>
+      </c>
+      <c r="D169" t="n">
+        <v>160</v>
+      </c>
+      <c r="E169" t="n">
+        <v>160</v>
+      </c>
+      <c r="F169" t="n">
+        <v>55.489</v>
+      </c>
+      <c r="G169" t="n">
+        <v>118652.8462</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>163</v>
+      </c>
+      <c r="C170" t="n">
+        <v>163</v>
+      </c>
+      <c r="D170" t="n">
+        <v>163</v>
+      </c>
+      <c r="E170" t="n">
+        <v>163</v>
+      </c>
+      <c r="F170" t="n">
+        <v>82.1254</v>
+      </c>
+      <c r="G170" t="n">
+        <v>118734.9716</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>163</v>
+      </c>
+      <c r="C171" t="n">
+        <v>163</v>
+      </c>
+      <c r="D171" t="n">
+        <v>163</v>
+      </c>
+      <c r="E171" t="n">
+        <v>163</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G171" t="n">
+        <v>118734.9716</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>163</v>
+      </c>
+      <c r="C172" t="n">
+        <v>163</v>
+      </c>
+      <c r="D172" t="n">
+        <v>163</v>
+      </c>
+      <c r="E172" t="n">
+        <v>163</v>
+      </c>
+      <c r="F172" t="n">
+        <v>500</v>
+      </c>
+      <c r="G172" t="n">
+        <v>118734.9716</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>163</v>
+      </c>
+      <c r="C173" t="n">
+        <v>163</v>
+      </c>
+      <c r="D173" t="n">
+        <v>163</v>
+      </c>
+      <c r="E173" t="n">
+        <v>163</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1042.347</v>
+      </c>
+      <c r="G173" t="n">
+        <v>118734.9716</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>163</v>
+      </c>
+      <c r="C174" t="n">
+        <v>163</v>
+      </c>
+      <c r="D174" t="n">
+        <v>163</v>
+      </c>
+      <c r="E174" t="n">
+        <v>163</v>
+      </c>
+      <c r="F174" t="n">
+        <v>369.141</v>
+      </c>
+      <c r="G174" t="n">
+        <v>118734.9716</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>163</v>
+      </c>
+      <c r="C175" t="n">
+        <v>163</v>
+      </c>
+      <c r="D175" t="n">
+        <v>163</v>
+      </c>
+      <c r="E175" t="n">
+        <v>163</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1743.027</v>
+      </c>
+      <c r="G175" t="n">
+        <v>118734.9716</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>163</v>
+      </c>
+      <c r="C176" t="n">
+        <v>163</v>
+      </c>
+      <c r="D176" t="n">
+        <v>163</v>
+      </c>
+      <c r="E176" t="n">
+        <v>163</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2283.6495</v>
+      </c>
+      <c r="G176" t="n">
+        <v>118734.9716</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>163</v>
+      </c>
+      <c r="C177" t="n">
+        <v>163</v>
+      </c>
+      <c r="D177" t="n">
+        <v>163</v>
+      </c>
+      <c r="E177" t="n">
+        <v>163</v>
+      </c>
+      <c r="F177" t="n">
+        <v>31.7397</v>
+      </c>
+      <c r="G177" t="n">
+        <v>118734.9716</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>160</v>
+      </c>
+      <c r="C178" t="n">
+        <v>160</v>
+      </c>
+      <c r="D178" t="n">
+        <v>160</v>
+      </c>
+      <c r="E178" t="n">
+        <v>160</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2212.9973</v>
+      </c>
+      <c r="G178" t="n">
+        <v>116521.9743</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>159</v>
+      </c>
+      <c r="C179" t="n">
+        <v>159</v>
+      </c>
+      <c r="D179" t="n">
+        <v>159</v>
+      </c>
+      <c r="E179" t="n">
+        <v>159</v>
+      </c>
+      <c r="F179" t="n">
+        <v>159.9643</v>
+      </c>
+      <c r="G179" t="n">
+        <v>116362.01</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>162</v>
+      </c>
+      <c r="C180" t="n">
+        <v>162</v>
+      </c>
+      <c r="D180" t="n">
+        <v>162</v>
+      </c>
+      <c r="E180" t="n">
+        <v>162</v>
+      </c>
+      <c r="F180" t="n">
+        <v>250</v>
+      </c>
+      <c r="G180" t="n">
+        <v>116612.01</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>162</v>
+      </c>
+      <c r="C181" t="n">
+        <v>162</v>
+      </c>
+      <c r="D181" t="n">
+        <v>162</v>
+      </c>
+      <c r="E181" t="n">
+        <v>162</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1976.411</v>
+      </c>
+      <c r="G181" t="n">
+        <v>116612.01</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>163</v>
+      </c>
+      <c r="C182" t="n">
+        <v>163</v>
+      </c>
+      <c r="D182" t="n">
+        <v>163</v>
+      </c>
+      <c r="E182" t="n">
+        <v>163</v>
+      </c>
+      <c r="F182" t="n">
+        <v>599.6686999999999</v>
+      </c>
+      <c r="G182" t="n">
+        <v>117211.6787</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>161</v>
+      </c>
+      <c r="C183" t="n">
+        <v>162</v>
+      </c>
+      <c r="D183" t="n">
+        <v>162</v>
+      </c>
+      <c r="E183" t="n">
+        <v>161</v>
+      </c>
+      <c r="F183" t="n">
+        <v>10202</v>
+      </c>
+      <c r="G183" t="n">
+        <v>107009.6787</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>162</v>
+      </c>
+      <c r="C184" t="n">
+        <v>162</v>
+      </c>
+      <c r="D184" t="n">
+        <v>162</v>
+      </c>
+      <c r="E184" t="n">
+        <v>162</v>
+      </c>
+      <c r="F184" t="n">
+        <v>250</v>
+      </c>
+      <c r="G184" t="n">
+        <v>107009.6787</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>159</v>
+      </c>
+      <c r="C185" t="n">
+        <v>159</v>
+      </c>
+      <c r="D185" t="n">
+        <v>159</v>
+      </c>
+      <c r="E185" t="n">
+        <v>159</v>
+      </c>
+      <c r="F185" t="n">
+        <v>85</v>
+      </c>
+      <c r="G185" t="n">
+        <v>106924.6787</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>159</v>
+      </c>
+      <c r="C186" t="n">
+        <v>159</v>
+      </c>
+      <c r="D186" t="n">
+        <v>159</v>
+      </c>
+      <c r="E186" t="n">
+        <v>159</v>
+      </c>
+      <c r="F186" t="n">
+        <v>200</v>
+      </c>
+      <c r="G186" t="n">
+        <v>106924.6787</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>158</v>
+      </c>
+      <c r="C187" t="n">
+        <v>158</v>
+      </c>
+      <c r="D187" t="n">
+        <v>158</v>
+      </c>
+      <c r="E187" t="n">
+        <v>158</v>
+      </c>
+      <c r="F187" t="n">
+        <v>19.5174</v>
+      </c>
+      <c r="G187" t="n">
+        <v>106905.1613</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>159</v>
+      </c>
+      <c r="C188" t="n">
+        <v>159</v>
+      </c>
+      <c r="D188" t="n">
+        <v>159</v>
+      </c>
+      <c r="E188" t="n">
+        <v>159</v>
+      </c>
+      <c r="F188" t="n">
+        <v>144.1672</v>
+      </c>
+      <c r="G188" t="n">
+        <v>107049.3285</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>159</v>
+      </c>
+      <c r="C189" t="n">
+        <v>159</v>
+      </c>
+      <c r="D189" t="n">
+        <v>159</v>
+      </c>
+      <c r="E189" t="n">
+        <v>159</v>
+      </c>
+      <c r="F189" t="n">
+        <v>128.905</v>
+      </c>
+      <c r="G189" t="n">
+        <v>107049.3285</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>160</v>
+      </c>
+      <c r="C190" t="n">
+        <v>160</v>
+      </c>
+      <c r="D190" t="n">
+        <v>160</v>
+      </c>
+      <c r="E190" t="n">
+        <v>160</v>
+      </c>
+      <c r="F190" t="n">
+        <v>55.4007</v>
+      </c>
+      <c r="G190" t="n">
+        <v>107104.7292</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>81324.66209999999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,19 @@
         <v>81325.78209999998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="J3" t="n">
+        <v>150</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +521,23 @@
         <v>81325.78209999998</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="J4" t="n">
+        <v>150</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +562,23 @@
         <v>77566.26399999998</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="J5" t="n">
+        <v>150</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +603,23 @@
         <v>79968.50899999998</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="J6" t="n">
+        <v>150</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +644,23 @@
         <v>79968.50899999998</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="J7" t="n">
+        <v>150</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +685,23 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="J8" t="n">
+        <v>150</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,22 +726,23 @@
         <v>75953.27969999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J9" t="n">
         <v>150</v>
       </c>
-      <c r="K9" t="n">
-        <v>150</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,26 +767,23 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="J10" t="n">
-        <v>146</v>
-      </c>
-      <c r="K10" t="n">
-        <v>150</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -792,24 +808,23 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>150</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="J11" t="n">
+        <v>150</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,18 +849,23 @@
         <v>76868.00199999996</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="J12" t="n">
+        <v>150</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -872,16 +892,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>150</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,16 +931,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>150</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,16 +970,19 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>150</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,18 +1007,23 @@
         <v>76673.06899999997</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="J16" t="n">
+        <v>150</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1014,18 +1048,23 @@
         <v>76673.06899999997</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="J17" t="n">
+        <v>150</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,18 +1089,23 @@
         <v>76173.06899999997</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="J18" t="n">
+        <v>150</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,18 +1130,23 @@
         <v>76174.06899999997</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
+        <v>150</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,18 +1171,23 @@
         <v>76174.06899999997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="J20" t="n">
+        <v>150</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1160,16 +1214,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>150</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,16 +1253,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>150</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1232,16 +1292,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>150</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,16 +1331,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>150</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1304,16 +1370,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>150</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,16 +1409,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>150</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1376,16 +1448,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>150</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,16 +1487,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>150</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1448,16 +1526,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>150</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1484,16 +1565,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>150</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1520,16 +1604,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>150</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1556,16 +1643,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>150</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,16 +1682,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>150</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1628,16 +1721,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>150</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1664,16 +1760,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>150</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1700,16 +1799,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>150</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1736,16 +1838,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>150</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1772,16 +1877,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>150</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1808,16 +1916,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>150</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1844,16 +1955,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>150</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1880,16 +1994,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>150</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1916,16 +2033,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>150</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1952,16 +2072,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>150</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1988,16 +2111,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>150</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2024,16 +2150,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>150</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2060,16 +2189,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>150</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2096,16 +2228,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>150</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2132,16 +2267,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>150</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2168,16 +2306,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>150</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2204,16 +2345,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>150</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2240,16 +2384,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>150</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2276,16 +2423,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>150</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2312,16 +2462,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>150</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2348,16 +2501,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>150</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2384,16 +2540,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>150</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2420,16 +2579,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>150</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2456,16 +2618,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>150</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2492,16 +2657,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>150</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2528,16 +2696,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>150</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2564,16 +2735,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2600,16 +2774,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>150</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2636,16 +2813,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>150</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2672,16 +2852,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>150</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2708,16 +2891,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>150</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2744,16 +2930,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>150</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2780,16 +2969,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>150</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2816,16 +3008,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>150</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2852,16 +3047,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>150</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2888,16 +3086,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>150</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2924,16 +3125,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>150</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2960,16 +3164,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>150</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,16 +3203,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>150</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3032,16 +3242,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>150</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3068,16 +3281,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>150</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3104,16 +3320,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>150</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3140,16 +3359,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>150</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3176,16 +3398,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>150</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3212,16 +3437,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>150</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3248,16 +3476,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>150</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3284,16 +3515,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>150</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3320,16 +3554,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>150</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3356,16 +3593,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>150</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3392,16 +3632,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>150</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3428,16 +3671,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>150</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3464,16 +3710,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>150</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3500,16 +3749,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>150</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3536,16 +3788,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>150</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3570,18 +3825,21 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>150</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3606,18 +3864,21 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>150</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3644,16 +3905,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>150</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3680,16 +3944,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>150</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3716,16 +3983,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>150</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3752,16 +4022,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>150</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,16 +4061,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>150</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3824,16 +4100,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>150</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3860,16 +4139,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>150</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3896,16 +4178,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>150</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3932,16 +4217,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>150</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3968,16 +4256,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>150</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4004,16 +4295,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>150</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4040,16 +4334,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>150</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4076,16 +4373,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>150</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4112,16 +4412,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>150</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4148,16 +4451,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>150</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4184,16 +4490,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>150</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4220,16 +4529,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>150</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4256,16 +4568,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>150</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4292,16 +4607,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>150</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4328,16 +4646,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>150</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4364,16 +4685,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>150</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4398,18 +4722,21 @@
         <v>85679.08359999998</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>150</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4434,18 +4761,21 @@
         <v>85679.08359999998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>150</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4470,18 +4800,21 @@
         <v>89367.08359999998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>150</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4508,16 +4841,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>150</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4542,18 +4878,21 @@
         <v>89367.08359999998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>150</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4578,18 +4917,21 @@
         <v>89367.08359999998</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>150</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4616,16 +4958,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>150</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4652,16 +4997,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>150</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4686,18 +5034,21 @@
         <v>91685.52309999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>150</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4722,18 +5073,21 @@
         <v>92246.01109999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>150</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4758,18 +5112,21 @@
         <v>92246.01109999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>150</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4796,16 +5153,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>150</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4830,18 +5190,21 @@
         <v>91702.01109999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>150</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4868,16 +5231,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>150</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4904,16 +5270,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>150</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4940,16 +5309,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>150</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4976,16 +5348,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>150</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5010,18 +5385,21 @@
         <v>99672.01109999999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>150</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5048,16 +5426,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>150</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5084,16 +5465,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>150</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5120,16 +5504,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>150</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5154,18 +5541,21 @@
         <v>99714.75319999999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>150</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5192,16 +5582,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>150</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5228,16 +5621,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>150</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5264,16 +5660,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>150</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5298,18 +5697,21 @@
         <v>99963.75319999999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>150</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5336,16 +5738,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>150</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5372,16 +5777,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>150</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5408,16 +5816,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>150</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5442,18 +5853,21 @@
         <v>99985.75319999999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>150</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5480,16 +5894,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>150</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5516,16 +5933,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>150</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5552,16 +5972,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>150</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5588,16 +6011,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>150</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5624,16 +6050,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>150</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5660,16 +6089,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>150</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5696,16 +6128,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>150</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5732,16 +6167,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>150</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5768,16 +6206,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>150</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5802,18 +6243,23 @@
         <v>102726.2008</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>150</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1.055</v>
+      </c>
       <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>1.006666666666667</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5838,18 +6284,15 @@
         <v>102726.2008</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5876,16 +6319,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5912,16 +6352,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5948,16 +6385,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5984,16 +6418,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6020,16 +6451,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6056,16 +6484,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6090,18 +6515,15 @@
         <v>113576.7521</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6126,18 +6548,15 @@
         <v>113576.7521</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6162,18 +6581,15 @@
         <v>113376.7521</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6198,18 +6614,15 @@
         <v>113446.7521</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6234,18 +6647,15 @@
         <v>113645.7521</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6270,18 +6680,15 @@
         <v>113645.7521</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6306,18 +6713,15 @@
         <v>113645.7521</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6342,18 +6746,15 @@
         <v>116991.542</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6378,18 +6779,15 @@
         <v>118708.3352</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6414,18 +6812,15 @@
         <v>118708.3352</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6450,18 +6845,15 @@
         <v>118708.3352</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6486,18 +6878,15 @@
         <v>118652.8462</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6522,18 +6911,15 @@
         <v>118734.9716</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6558,18 +6944,15 @@
         <v>118734.9716</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6594,18 +6977,15 @@
         <v>118734.9716</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6630,18 +7010,15 @@
         <v>118734.9716</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6668,16 +7045,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6704,16 +7078,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6740,16 +7111,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6776,16 +7144,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6812,16 +7177,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6848,16 +7210,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6884,16 +7243,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6920,16 +7276,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6956,16 +7309,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>1</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6990,18 +7340,15 @@
         <v>107009.6787</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7028,16 +7375,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7062,18 +7406,15 @@
         <v>106924.6787</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7100,16 +7441,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7136,16 +7474,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7172,16 +7507,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7208,16 +7540,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7244,18 +7573,15 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>81324.66209999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>81325.78209999998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>150</v>
@@ -521,7 +521,7 @@
         <v>81325.78209999998</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>151</v>
@@ -562,7 +562,7 @@
         <v>77566.26399999998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>151</v>
@@ -603,7 +603,7 @@
         <v>79968.50899999998</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>150</v>
@@ -644,7 +644,7 @@
         <v>79968.50899999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>151</v>
@@ -685,7 +685,7 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>151</v>
@@ -726,7 +726,7 @@
         <v>75953.27969999997</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>150</v>
@@ -767,7 +767,7 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>146</v>
@@ -808,7 +808,7 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>150</v>
@@ -849,11 +849,9 @@
         <v>76868.00199999996</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>150</v>
       </c>
@@ -1007,7 +1005,7 @@
         <v>76673.06899999997</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>150</v>
@@ -1048,11 +1046,9 @@
         <v>76673.06899999997</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>150</v>
       </c>
@@ -1089,11 +1085,9 @@
         <v>76173.06899999997</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>150</v>
       </c>
@@ -1130,11 +1124,9 @@
         <v>76174.06899999997</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>150</v>
       </c>
@@ -1171,11 +1163,9 @@
         <v>76174.06899999997</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>151</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>150</v>
       </c>
@@ -3825,7 +3815,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
@@ -3864,7 +3854,7 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
@@ -4371,7 +4361,7 @@
         <v>95536.91029999997</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
@@ -4379,11 +4369,11 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>1.048333333333333</v>
       </c>
       <c r="M102" t="inlineStr"/>
     </row>
@@ -4410,17 +4400,11 @@
         <v>95537.91029999997</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>150</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4449,17 +4433,11 @@
         <v>94961.61129999998</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>150</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4488,17 +4466,11 @@
         <v>94961.61129999998</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>150</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4527,17 +4499,11 @@
         <v>87664.50019999998</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>150</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4566,17 +4532,11 @@
         <v>87664.50019999998</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>150</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4605,17 +4565,11 @@
         <v>85279.08359999998</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>150</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4644,17 +4598,11 @@
         <v>85279.08359999998</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>150</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4683,17 +4631,11 @@
         <v>86679.08359999998</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>150</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4722,17 +4664,11 @@
         <v>85679.08359999998</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>150</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4761,17 +4697,11 @@
         <v>85679.08359999998</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>150</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4800,17 +4730,11 @@
         <v>89367.08359999998</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>150</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4842,14 +4766,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>150</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4878,17 +4796,11 @@
         <v>89367.08359999998</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>150</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4917,17 +4829,11 @@
         <v>89367.08359999998</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>150</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4956,17 +4862,11 @@
         <v>89172.03059999998</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>150</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4995,17 +4895,11 @@
         <v>91861.64709999999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>150</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5034,17 +4928,11 @@
         <v>91685.52309999999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>150</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5073,17 +4961,11 @@
         <v>92246.01109999999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>150</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5112,17 +4994,11 @@
         <v>92246.01109999999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>150</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5154,14 +5030,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>150</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5190,17 +5060,11 @@
         <v>91702.01109999999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>150</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5232,14 +5096,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>150</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5271,14 +5129,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>150</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5310,14 +5162,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>150</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5349,14 +5195,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>150</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5385,17 +5225,11 @@
         <v>99672.01109999999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>150</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5427,14 +5261,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>150</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5466,14 +5294,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>150</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5505,14 +5327,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>150</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5541,17 +5357,11 @@
         <v>99714.75319999999</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>150</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5583,14 +5393,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>150</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5622,14 +5426,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>150</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5661,14 +5459,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>150</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5697,17 +5489,11 @@
         <v>99963.75319999999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>150</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5739,14 +5525,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>150</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5778,14 +5558,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>150</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5817,14 +5591,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>150</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5853,17 +5621,11 @@
         <v>99985.75319999999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>150</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5895,14 +5657,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>150</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5934,14 +5690,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>150</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5973,14 +5723,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>150</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6012,14 +5756,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>150</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6051,14 +5789,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>150</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6090,14 +5822,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>150</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6129,14 +5855,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>150</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6168,14 +5888,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>150</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6207,14 +5921,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>150</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6243,23 +5951,15 @@
         <v>102726.2008</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>150</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>1.055</v>
-      </c>
-      <c r="M150" t="n">
-        <v>1.006666666666667</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6284,7 +5984,7 @@
         <v>102726.2008</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6515,7 +6215,7 @@
         <v>113576.7521</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6548,7 +6248,7 @@
         <v>113576.7521</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6581,7 +6281,7 @@
         <v>113376.7521</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6614,7 +6314,7 @@
         <v>113446.7521</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6647,7 +6347,7 @@
         <v>113645.7521</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6680,7 +6380,7 @@
         <v>113645.7521</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6713,7 +6413,7 @@
         <v>113645.7521</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6746,7 +6446,7 @@
         <v>116991.542</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6779,7 +6479,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6812,7 +6512,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6845,7 +6545,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6878,7 +6578,7 @@
         <v>118652.8462</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6911,7 +6611,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6944,7 +6644,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6977,7 +6677,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -7010,7 +6710,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -7208,7 +6908,7 @@
         <v>116362.01</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7241,7 +6941,7 @@
         <v>116612.01</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7274,7 +6974,7 @@
         <v>116612.01</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7307,7 +7007,7 @@
         <v>117211.6787</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7340,7 +7040,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7373,7 +7073,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7406,7 +7106,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7439,7 +7139,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7472,7 +7172,7 @@
         <v>106905.1613</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7505,7 +7205,7 @@
         <v>107049.3285</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7538,7 +7238,7 @@
         <v>107049.3285</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7571,7 +7271,7 @@
         <v>107104.7292</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7582,6 +7282,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -562,11 +562,9 @@
         <v>77566.26399999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>151</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>150</v>
       </c>
@@ -644,11 +642,9 @@
         <v>79968.50899999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>151</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>150</v>
       </c>
@@ -685,11 +681,9 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>151</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>150</v>
       </c>
@@ -726,11 +720,9 @@
         <v>75953.27969999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>150</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>150</v>
       </c>
@@ -1005,11 +997,9 @@
         <v>76673.06899999997</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>150</v>
       </c>
@@ -2996,7 +2986,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
@@ -3004,11 +2994,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>1.041666666666667</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -3035,17 +3025,11 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>150</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3074,17 +3058,11 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>150</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3113,17 +3091,11 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>150</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3152,17 +3124,11 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>150</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3191,17 +3157,11 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>150</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3230,17 +3190,11 @@
         <v>84034.10189999998</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>150</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3269,17 +3223,11 @@
         <v>82634.10189999998</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>150</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3308,17 +3256,11 @@
         <v>84199.56329999998</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>150</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3347,17 +3289,11 @@
         <v>84199.56329999998</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>150</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3386,17 +3322,11 @@
         <v>83887.74229999998</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>150</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3425,17 +3355,11 @@
         <v>90095.83199999998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>150</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3467,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>150</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3503,17 +3421,11 @@
         <v>90095.83199999998</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>150</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3542,17 +3454,11 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>150</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3581,17 +3487,11 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>150</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3620,17 +3520,11 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>150</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3659,17 +3553,11 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>150</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3698,17 +3586,11 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>150</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3737,17 +3619,11 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>150</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3776,17 +3652,11 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>150</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3815,17 +3685,11 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>150</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3854,17 +3718,11 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>150</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3893,17 +3751,11 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>150</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3932,17 +3784,11 @@
         <v>96826.92029999998</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>150</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3971,17 +3817,11 @@
         <v>96824.64969999998</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>150</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4010,17 +3850,11 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>150</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4049,17 +3883,11 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>150</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4088,17 +3916,11 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>150</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4130,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>150</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4169,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>150</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4208,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>150</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4247,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>150</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4286,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>150</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4325,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>150</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4361,19 +4147,13 @@
         <v>95536.91029999997</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>150</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>1.048333333333333</v>
+        <v>1</v>
       </c>
       <c r="M102" t="inlineStr"/>
     </row>
@@ -4400,7 +4180,7 @@
         <v>95537.91029999997</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4433,7 +4213,7 @@
         <v>94961.61129999998</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4466,7 +4246,7 @@
         <v>94961.61129999998</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4499,7 +4279,7 @@
         <v>87664.50019999998</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4532,7 +4312,7 @@
         <v>87664.50019999998</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4565,7 +4345,7 @@
         <v>85279.08359999998</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4598,7 +4378,7 @@
         <v>85279.08359999998</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4631,7 +4411,7 @@
         <v>86679.08359999998</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4796,7 +4576,7 @@
         <v>89367.08359999998</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4829,7 +4609,7 @@
         <v>89367.08359999998</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4862,7 +4642,7 @@
         <v>89172.03059999998</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4895,7 +4675,7 @@
         <v>91861.64709999999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -6314,7 +6094,7 @@
         <v>113446.7521</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6347,7 +6127,7 @@
         <v>113645.7521</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6380,7 +6160,7 @@
         <v>113645.7521</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6413,7 +6193,7 @@
         <v>113645.7521</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6446,7 +6226,7 @@
         <v>116991.542</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6479,7 +6259,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6908,7 +6688,7 @@
         <v>116362.01</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6941,7 +6721,7 @@
         <v>116612.01</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6974,7 +6754,7 @@
         <v>116612.01</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7007,7 +6787,7 @@
         <v>117211.6787</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7040,7 +6820,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7073,7 +6853,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7106,7 +6886,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7139,7 +6919,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7172,7 +6952,7 @@
         <v>106905.1613</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7205,7 +6985,7 @@
         <v>107049.3285</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7238,7 +7018,7 @@
         <v>107049.3285</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7271,7 +7051,7 @@
         <v>107104.7292</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7282,6 +7062,6 @@
       <c r="M190" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -562,9 +562,11 @@
         <v>77566.26399999998</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>151</v>
+      </c>
       <c r="J5" t="n">
         <v>150</v>
       </c>
@@ -642,9 +644,11 @@
         <v>79968.50899999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>151</v>
+      </c>
       <c r="J7" t="n">
         <v>150</v>
       </c>
@@ -681,9 +685,11 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>151</v>
+      </c>
       <c r="J8" t="n">
         <v>150</v>
       </c>
@@ -720,9 +726,11 @@
         <v>75953.27969999997</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>150</v>
+      </c>
       <c r="J9" t="n">
         <v>150</v>
       </c>
@@ -759,11 +767,9 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>150</v>
       </c>
@@ -800,11 +806,9 @@
         <v>75954.27969999997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>150</v>
       </c>
@@ -2986,7 +2990,7 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
@@ -2994,11 +2998,11 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.041666666666667</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -3025,11 +3029,17 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>150</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3068,17 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>150</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3107,17 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>150</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3146,17 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>150</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3185,17 @@
         <v>85202.79989999998</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>150</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3224,17 @@
         <v>84034.10189999998</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>150</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3263,17 @@
         <v>82634.10189999998</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>150</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3302,17 @@
         <v>84199.56329999998</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>150</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3341,17 @@
         <v>84199.56329999998</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>150</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3380,17 @@
         <v>83887.74229999998</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>150</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3419,17 @@
         <v>90095.83199999998</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>150</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3461,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>150</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3497,17 @@
         <v>90095.83199999998</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>150</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3536,17 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>150</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3575,17 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>150</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3614,17 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>150</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3653,17 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>150</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3692,17 @@
         <v>93690.83199999998</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>150</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3731,17 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>150</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3770,17 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>150</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3809,17 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>150</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3848,17 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>150</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3887,17 @@
         <v>97600.83199999998</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>150</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +3926,17 @@
         <v>96826.92029999998</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>150</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3965,17 @@
         <v>96824.64969999998</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>150</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4004,17 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>150</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4043,17 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>150</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4082,17 @@
         <v>97824.64969999998</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>150</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4124,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>150</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4163,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>150</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4202,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>150</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4241,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>150</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4280,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>150</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4319,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>150</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4358,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>150</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4397,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>150</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4436,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>150</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4475,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>150</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4514,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>150</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4553,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>150</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>150</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4631,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>150</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4670,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>150</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4709,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>150</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>150</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>150</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>150</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4865,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>150</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4904,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>150</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4943,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>150</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4982,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>150</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5021,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>150</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5060,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>150</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5099,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>150</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>150</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>150</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>150</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>150</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>150</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>150</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5372,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>150</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5411,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>150</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>150</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5489,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>150</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5528,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>150</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5567,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>150</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5606,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>150</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5645,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>150</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5684,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>150</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5723,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>150</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5762,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>150</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5801,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>150</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5840,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>150</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5879,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>150</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5918,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>150</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5957,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>150</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5996,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>150</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6035,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>150</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6074,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>150</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6113,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>150</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6152,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>150</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6191,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>150</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6230,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>150</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6269,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>150</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6308,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>150</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6347,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>150</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6386,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>150</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6425,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>150</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6464,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>150</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6503,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>150</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6542,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>150</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6581,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>150</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6620,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>150</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6659,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>150</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6698,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>150</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6160,15 +6734,23 @@
         <v>113645.7521</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>150</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>1.075</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.006666666666667</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6226,7 +6808,7 @@
         <v>116991.542</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6259,7 +6841,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6292,7 +6874,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6325,7 +6907,7 @@
         <v>118708.3352</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6358,7 +6940,7 @@
         <v>118652.8462</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6391,7 +6973,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6424,7 +7006,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6457,7 +7039,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6490,7 +7072,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6523,7 +7105,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6556,7 +7138,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6589,7 +7171,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6622,7 +7204,7 @@
         <v>118734.9716</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6655,7 +7237,7 @@
         <v>116521.9743</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6688,7 +7270,7 @@
         <v>116362.01</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6721,7 +7303,7 @@
         <v>116612.01</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6754,7 +7336,7 @@
         <v>116612.01</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6787,7 +7369,7 @@
         <v>117211.6787</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6820,7 +7402,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6853,7 +7435,7 @@
         <v>107009.6787</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6886,7 +7468,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6919,7 +7501,7 @@
         <v>106924.6787</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest ABT.xlsx
+++ b/BackTest/2019-10-26 BackTest ABT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M190"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>8335.8874</v>
       </c>
       <c r="G2" t="n">
-        <v>81324.66209999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>1.12</v>
       </c>
       <c r="G3" t="n">
-        <v>81325.78209999998</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="I3" t="n">
         <v>150</v>
       </c>
-      <c r="J3" t="n">
-        <v>150</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>98.88</v>
       </c>
       <c r="G4" t="n">
-        <v>81325.78209999998</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="I4" t="n">
-        <v>151</v>
-      </c>
-      <c r="J4" t="n">
-        <v>150</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>150</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>3759.5181</v>
       </c>
       <c r="G5" t="n">
-        <v>77566.26399999998</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="I5" t="n">
-        <v>151</v>
-      </c>
-      <c r="J5" t="n">
-        <v>150</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>150</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,26 +583,23 @@
         <v>2402.245</v>
       </c>
       <c r="G6" t="n">
-        <v>79968.50899999998</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="I6" t="n">
         <v>150</v>
       </c>
-      <c r="J6" t="n">
-        <v>150</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -641,26 +621,23 @@
         <v>3664.2697</v>
       </c>
       <c r="G7" t="n">
-        <v>79968.50899999998</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="I7" t="n">
-        <v>151</v>
-      </c>
-      <c r="J7" t="n">
-        <v>150</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -682,26 +659,23 @@
         <v>4014.2293</v>
       </c>
       <c r="G8" t="n">
-        <v>75954.27969999997</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="I8" t="n">
-        <v>151</v>
-      </c>
-      <c r="J8" t="n">
-        <v>150</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -723,26 +697,23 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>75953.27969999997</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="I9" t="n">
         <v>150</v>
       </c>
-      <c r="J9" t="n">
-        <v>150</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,24 +735,23 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>75954.27969999997</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>150</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>146</v>
+      </c>
+      <c r="I10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -803,24 +773,23 @@
         <v>919</v>
       </c>
       <c r="G11" t="n">
-        <v>75954.27969999997</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>150</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="I11" t="n">
+        <v>150</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,24 +811,23 @@
         <v>913.7223</v>
       </c>
       <c r="G12" t="n">
-        <v>76868.00199999996</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>150</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="I12" t="n">
+        <v>150</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -881,24 +849,21 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>76867.00199999996</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>150</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>150</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -920,24 +885,21 @@
         <v>1240.7814</v>
       </c>
       <c r="G14" t="n">
-        <v>76867.00199999996</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>150</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>150</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -959,24 +921,21 @@
         <v>195.033</v>
       </c>
       <c r="G15" t="n">
-        <v>76671.96899999997</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>150</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>150</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -998,24 +957,23 @@
         <v>1.1</v>
       </c>
       <c r="G16" t="n">
-        <v>76673.06899999997</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>150</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="I16" t="n">
+        <v>150</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1037,24 +995,23 @@
         <v>363.177</v>
       </c>
       <c r="G17" t="n">
-        <v>76673.06899999997</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>150</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1076,24 +1033,21 @@
         <v>500</v>
       </c>
       <c r="G18" t="n">
-        <v>76173.06899999997</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>150</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>150</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1115,24 +1069,21 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>76174.06899999997</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>150</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1154,24 +1105,21 @@
         <v>84</v>
       </c>
       <c r="G20" t="n">
-        <v>76174.06899999997</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>150</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>150</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1193,24 +1141,21 @@
         <v>168</v>
       </c>
       <c r="G21" t="n">
-        <v>76174.06899999997</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>150</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>150</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1232,24 +1177,21 @@
         <v>84</v>
       </c>
       <c r="G22" t="n">
-        <v>76174.06899999997</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>150</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>150</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1271,24 +1213,21 @@
         <v>251</v>
       </c>
       <c r="G23" t="n">
-        <v>76174.06899999997</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>150</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>150</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1310,24 +1249,21 @@
         <v>523</v>
       </c>
       <c r="G24" t="n">
-        <v>75651.06899999997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>150</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>150</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1349,24 +1285,21 @@
         <v>501</v>
       </c>
       <c r="G25" t="n">
-        <v>76152.06899999997</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>150</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>150</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1388,24 +1321,21 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>76100.06899999997</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>150</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>150</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1427,24 +1357,21 @@
         <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>76100.06899999997</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>150</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>150</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1466,24 +1393,21 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>76101.06899999997</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>150</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>150</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1505,24 +1429,21 @@
         <v>302.026</v>
       </c>
       <c r="G29" t="n">
-        <v>75799.04299999998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>150</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>150</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1544,24 +1465,21 @@
         <v>61</v>
       </c>
       <c r="G30" t="n">
-        <v>75799.04299999998</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>150</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>150</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1583,24 +1501,21 @@
         <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>75799.04299999998</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>150</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>150</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1622,24 +1537,21 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>75800.04299999998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>150</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>150</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1661,24 +1573,21 @@
         <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>75785.04299999998</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>150</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>150</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1700,24 +1609,21 @@
         <v>1.1</v>
       </c>
       <c r="G34" t="n">
-        <v>75786.14299999998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>150</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>150</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1739,24 +1645,21 @@
         <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>75769.14299999998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>150</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>150</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1778,24 +1681,21 @@
         <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>75769.14299999998</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>150</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>150</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1817,24 +1717,21 @@
         <v>5754</v>
       </c>
       <c r="G37" t="n">
-        <v>70015.14299999998</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>150</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>150</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1856,24 +1753,21 @@
         <v>1.12</v>
       </c>
       <c r="G38" t="n">
-        <v>70016.26299999998</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>150</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>150</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1895,24 +1789,21 @@
         <v>1025.2833</v>
       </c>
       <c r="G39" t="n">
-        <v>68990.97969999998</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>150</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>150</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1934,24 +1825,21 @@
         <v>516</v>
       </c>
       <c r="G40" t="n">
-        <v>68990.97969999998</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>150</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>150</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1973,24 +1861,21 @@
         <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>68990.97969999998</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>150</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>150</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2012,24 +1897,21 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>68990.97969999998</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>150</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>150</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2051,24 +1933,21 @@
         <v>18.2259</v>
       </c>
       <c r="G43" t="n">
-        <v>68990.97969999998</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>150</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>150</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2090,24 +1969,21 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>68991.97969999998</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>150</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>150</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2129,24 +2005,21 @@
         <v>2.1254</v>
       </c>
       <c r="G45" t="n">
-        <v>68991.97969999998</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>150</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>150</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2168,24 +2041,21 @@
         <v>1.111</v>
       </c>
       <c r="G46" t="n">
-        <v>68993.09069999999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>150</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>150</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2207,24 +2077,21 @@
         <v>52</v>
       </c>
       <c r="G47" t="n">
-        <v>68941.09069999999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>150</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>150</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2246,24 +2113,21 @@
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>68942.09069999999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>150</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>150</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2285,24 +2149,21 @@
         <v>104</v>
       </c>
       <c r="G49" t="n">
-        <v>68838.09069999999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>150</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>150</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2324,24 +2185,21 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>68839.09069999999</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>150</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>150</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2363,24 +2221,21 @@
         <v>213</v>
       </c>
       <c r="G51" t="n">
-        <v>68839.09069999999</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>150</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>150</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2402,24 +2257,21 @@
         <v>226</v>
       </c>
       <c r="G52" t="n">
-        <v>69065.09069999999</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>150</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>150</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2441,24 +2293,21 @@
         <v>3550</v>
       </c>
       <c r="G53" t="n">
-        <v>69065.09069999999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>150</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>150</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2480,24 +2329,21 @@
         <v>2235.9309</v>
       </c>
       <c r="G54" t="n">
-        <v>69065.09069999999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>150</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>150</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2519,24 +2365,21 @@
         <v>2641.4271</v>
       </c>
       <c r="G55" t="n">
-        <v>71706.51779999999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>150</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>150</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2558,24 +2401,21 @@
         <v>371.7402</v>
       </c>
       <c r="G56" t="n">
-        <v>72078.25799999999</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>150</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>150</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2597,24 +2437,21 @@
         <v>4500</v>
       </c>
       <c r="G57" t="n">
-        <v>72078.25799999999</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>150</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>150</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2636,24 +2473,21 @@
         <v>1861.357</v>
       </c>
       <c r="G58" t="n">
-        <v>73939.61499999999</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>150</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>150</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2675,24 +2509,21 @@
         <v>103</v>
       </c>
       <c r="G59" t="n">
-        <v>73836.61499999999</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>150</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>150</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2714,24 +2545,21 @@
         <v>313.541</v>
       </c>
       <c r="G60" t="n">
-        <v>74150.15599999999</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>150</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>150</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2753,24 +2581,21 @@
         <v>197.2221</v>
       </c>
       <c r="G61" t="n">
-        <v>73952.93389999999</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>150</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>150</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2792,24 +2617,21 @@
         <v>103</v>
       </c>
       <c r="G62" t="n">
-        <v>73849.93389999999</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>150</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>150</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2831,24 +2653,21 @@
         <v>103</v>
       </c>
       <c r="G63" t="n">
-        <v>73952.93389999999</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>150</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>150</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2870,24 +2689,21 @@
         <v>103</v>
       </c>
       <c r="G64" t="n">
-        <v>73952.93389999999</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>150</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>150</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2909,24 +2725,21 @@
         <v>5749.866</v>
       </c>
       <c r="G65" t="n">
-        <v>79702.79989999998</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>150</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>150</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2948,24 +2761,21 @@
         <v>5500</v>
       </c>
       <c r="G66" t="n">
-        <v>85202.79989999998</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>150</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>150</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2987,24 +2797,21 @@
         <v>500</v>
       </c>
       <c r="G67" t="n">
-        <v>85202.79989999998</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>150</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>150</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3026,24 +2833,21 @@
         <v>269.974</v>
       </c>
       <c r="G68" t="n">
-        <v>85202.79989999998</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>150</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>150</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3065,24 +2869,21 @@
         <v>534.162</v>
       </c>
       <c r="G69" t="n">
-        <v>85202.79989999998</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>150</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>150</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3104,24 +2905,21 @@
         <v>2.1254</v>
       </c>
       <c r="G70" t="n">
-        <v>85202.79989999998</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>150</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>150</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3143,24 +2941,21 @@
         <v>1000</v>
       </c>
       <c r="G71" t="n">
-        <v>85202.79989999998</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>150</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>150</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3182,24 +2977,21 @@
         <v>63.69426751592356</v>
       </c>
       <c r="G72" t="n">
-        <v>85202.79989999998</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>150</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>150</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3221,24 +3013,21 @@
         <v>1168.698</v>
       </c>
       <c r="G73" t="n">
-        <v>84034.10189999998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>150</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>150</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3260,24 +3049,21 @@
         <v>1400</v>
       </c>
       <c r="G74" t="n">
-        <v>82634.10189999998</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>150</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>150</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3299,24 +3085,21 @@
         <v>1565.4614</v>
       </c>
       <c r="G75" t="n">
-        <v>84199.56329999998</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>150</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>150</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3338,24 +3121,21 @@
         <v>2238.4102</v>
       </c>
       <c r="G76" t="n">
-        <v>84199.56329999998</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>150</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>150</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3377,24 +3157,21 @@
         <v>311.821</v>
       </c>
       <c r="G77" t="n">
-        <v>83887.74229999998</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>150</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>150</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3416,24 +3193,21 @@
         <v>6208.0897</v>
       </c>
       <c r="G78" t="n">
-        <v>90095.83199999998</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>150</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>150</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3455,24 +3229,21 @@
         <v>3782</v>
       </c>
       <c r="G79" t="n">
-        <v>90095.83199999998</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>150</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>150</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3494,24 +3265,21 @@
         <v>3168</v>
       </c>
       <c r="G80" t="n">
-        <v>90095.83199999998</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>150</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>150</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3533,24 +3301,21 @@
         <v>3595</v>
       </c>
       <c r="G81" t="n">
-        <v>93690.83199999998</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>150</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>150</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3572,24 +3337,21 @@
         <v>12</v>
       </c>
       <c r="G82" t="n">
-        <v>93690.83199999998</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>150</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>150</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3611,24 +3373,21 @@
         <v>370.4177</v>
       </c>
       <c r="G83" t="n">
-        <v>93690.83199999998</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>150</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>150</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3650,24 +3409,21 @@
         <v>194</v>
       </c>
       <c r="G84" t="n">
-        <v>93690.83199999998</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>150</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>150</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3689,24 +3445,21 @@
         <v>3793</v>
       </c>
       <c r="G85" t="n">
-        <v>93690.83199999998</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>150</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>150</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3728,24 +3481,21 @@
         <v>3910</v>
       </c>
       <c r="G86" t="n">
-        <v>97600.83199999998</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>150</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>150</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3767,24 +3517,21 @@
         <v>6946.433</v>
       </c>
       <c r="G87" t="n">
-        <v>97600.83199999998</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>150</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>150</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3806,24 +3553,21 @@
         <v>3835</v>
       </c>
       <c r="G88" t="n">
-        <v>97600.83199999998</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>150</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>150</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3845,24 +3589,21 @@
         <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>97600.83199999998</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>150</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>150</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3884,24 +3625,21 @@
         <v>62</v>
       </c>
       <c r="G90" t="n">
-        <v>97600.83199999998</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>150</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>150</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3923,24 +3661,21 @@
         <v>773.9117</v>
       </c>
       <c r="G91" t="n">
-        <v>96826.92029999998</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>150</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>150</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3962,24 +3697,21 @@
         <v>2.2706</v>
       </c>
       <c r="G92" t="n">
-        <v>96824.64969999998</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>150</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>150</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4001,24 +3733,21 @@
         <v>1000</v>
       </c>
       <c r="G93" t="n">
-        <v>97824.64969999998</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>150</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>150</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4040,24 +3769,21 @@
         <v>500</v>
       </c>
       <c r="G94" t="n">
-        <v>97824.64969999998</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>150</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>150</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4079,24 +3805,21 @@
         <v>508</v>
       </c>
       <c r="G95" t="n">
-        <v>97824.64969999998</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>150</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>150</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4118,24 +3841,21 @@
         <v>290.7394</v>
       </c>
       <c r="G96" t="n">
-        <v>97533.91029999997</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>150</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>150</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4157,24 +3877,21 @@
         <v>4836.8087</v>
       </c>
       <c r="G97" t="n">
-        <v>97533.91029999997</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>150</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>150</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4196,24 +3913,21 @@
         <v>2</v>
       </c>
       <c r="G98" t="n">
-        <v>97535.91029999997</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>150</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>150</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4235,24 +3949,21 @@
         <v>230.06</v>
       </c>
       <c r="G99" t="n">
-        <v>97535.91029999997</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>150</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>150</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4274,24 +3985,21 @@
         <v>2500</v>
       </c>
       <c r="G100" t="n">
-        <v>95035.91029999997</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>150</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>150</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4313,24 +4021,21 @@
         <v>304.436</v>
       </c>
       <c r="G101" t="n">
-        <v>95035.91029999997</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>150</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>150</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4352,24 +4057,21 @@
         <v>501</v>
       </c>
       <c r="G102" t="n">
-        <v>95536.91029999997</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>150</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>150</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4391,24 +4093,21 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>95537.91029999997</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>150</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>150</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4430,24 +4129,21 @@
         <v>576.299</v>
       </c>
       <c r="G104" t="n">
-        <v>94961.61129999998</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>150</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>150</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4469,24 +4165,21 @@
         <v>494.2816</v>
       </c>
       <c r="G105" t="n">
-        <v>94961.61129999998</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>150</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>150</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4508,24 +4201,21 @@
         <v>7297.1111</v>
       </c>
       <c r="G106" t="n">
-        <v>87664.50019999998</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>150</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>150</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4547,24 +4237,21 @@
         <v>62.8457</v>
       </c>
       <c r="G107" t="n">
-        <v>87664.50019999998</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>150</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>150</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4586,24 +4273,21 @@
         <v>2385.4166</v>
       </c>
       <c r="G108" t="n">
-        <v>85279.08359999998</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>150</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>150</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4625,24 +4309,21 @@
         <v>3544.2687</v>
       </c>
       <c r="G109" t="n">
-        <v>85279.08359999998</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>150</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>150</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4664,24 +4345,21 @@
         <v>1400</v>
       </c>
       <c r="G110" t="n">
-        <v>86679.08359999998</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>150</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>150</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4703,24 +4381,21 @@
         <v>1000</v>
       </c>
       <c r="G111" t="n">
-        <v>85679.08359999998</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>150</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>150</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4742,24 +4417,21 @@
         <v>347.9799</v>
       </c>
       <c r="G112" t="n">
-        <v>85679.08359999998</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>150</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>150</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4781,24 +4453,21 @@
         <v>3688</v>
       </c>
       <c r="G113" t="n">
-        <v>89367.08359999998</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>150</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>150</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4820,24 +4489,21 @@
         <v>198.234</v>
       </c>
       <c r="G114" t="n">
-        <v>89367.08359999998</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>150</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>150</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4859,24 +4525,21 @@
         <v>5</v>
       </c>
       <c r="G115" t="n">
-        <v>89367.08359999998</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>150</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>150</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4898,24 +4561,21 @@
         <v>369.453</v>
       </c>
       <c r="G116" t="n">
-        <v>89367.08359999998</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>150</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>150</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4937,24 +4597,21 @@
         <v>195.053</v>
       </c>
       <c r="G117" t="n">
-        <v>89172.03059999998</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>150</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>150</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4976,24 +4633,21 @@
         <v>2689.6165</v>
       </c>
       <c r="G118" t="n">
-        <v>91861.64709999999</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>150</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>150</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5015,24 +4669,21 @@
         <v>176.124</v>
       </c>
       <c r="G119" t="n">
-        <v>91685.52309999999</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>150</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>150</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5054,24 +4705,21 @@
         <v>560.4880000000001</v>
       </c>
       <c r="G120" t="n">
-        <v>92246.01109999999</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>150</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>150</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5093,24 +4741,21 @@
         <v>181.602</v>
       </c>
       <c r="G121" t="n">
-        <v>92246.01109999999</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>150</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>150</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5132,24 +4777,21 @@
         <v>244.478</v>
       </c>
       <c r="G122" t="n">
-        <v>92246.01109999999</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>150</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>150</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5171,24 +4813,21 @@
         <v>544</v>
       </c>
       <c r="G123" t="n">
-        <v>91702.01109999999</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>150</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>150</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5210,24 +4849,21 @@
         <v>1232.061</v>
       </c>
       <c r="G124" t="n">
-        <v>91702.01109999999</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>150</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>150</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5249,24 +4885,21 @@
         <v>242</v>
       </c>
       <c r="G125" t="n">
-        <v>91702.01109999999</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>150</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>150</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5288,24 +4921,21 @@
         <v>30</v>
       </c>
       <c r="G126" t="n">
-        <v>91672.01109999999</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>150</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>150</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5327,24 +4957,21 @@
         <v>688.578</v>
       </c>
       <c r="G127" t="n">
-        <v>91672.01109999999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>150</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>150</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5366,24 +4993,21 @@
         <v>8000</v>
       </c>
       <c r="G128" t="n">
-        <v>99672.01109999999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>150</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>150</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5405,24 +5029,21 @@
         <v>4958.3379</v>
       </c>
       <c r="G129" t="n">
-        <v>99672.01109999999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>150</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>150</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5444,24 +5065,21 @@
         <v>527</v>
       </c>
       <c r="G130" t="n">
-        <v>99672.01109999999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>150</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>150</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5483,24 +5101,21 @@
         <v>42.7421</v>
       </c>
       <c r="G131" t="n">
-        <v>99714.75319999999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>150</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>150</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5522,24 +5137,21 @@
         <v>698.763</v>
       </c>
       <c r="G132" t="n">
-        <v>99714.75319999999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>150</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>150</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5561,24 +5173,21 @@
         <v>14.432</v>
       </c>
       <c r="G133" t="n">
-        <v>99714.75319999999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>150</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>150</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5600,24 +5209,21 @@
         <v>3630.502</v>
       </c>
       <c r="G134" t="n">
-        <v>99714.75319999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>150</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>150</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5639,24 +5245,21 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>99713.75319999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>150</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>150</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5678,24 +5281,21 @@
         <v>250</v>
       </c>
       <c r="G136" t="n">
-        <v>99963.75319999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>150</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>150</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5717,24 +5317,21 @@
         <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>99962.75319999999</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>150</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>150</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5756,24 +5353,21 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>99961.75319999999</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>150</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>150</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5795,24 +5389,21 @@
         <v>24</v>
       </c>
       <c r="G139" t="n">
-        <v>99985.75319999999</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>150</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>150</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5834,24 +5425,21 @@
         <v>567</v>
       </c>
       <c r="G140" t="n">
-        <v>99985.75319999999</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>150</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>150</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5873,24 +5461,21 @@
         <v>1</v>
       </c>
       <c r="G141" t="n">
-        <v>99984.75319999999</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>150</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>150</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5912,24 +5497,21 @@
         <v>500</v>
       </c>
       <c r="G142" t="n">
-        <v>100484.7532</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>150</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>150</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5951,24 +5533,21 @@
         <v>41.555</v>
       </c>
       <c r="G143" t="n">
-        <v>100443.1982</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>150</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>150</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5990,24 +5569,21 @@
         <v>750</v>
       </c>
       <c r="G144" t="n">
-        <v>101193.1982</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>150</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>150</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6029,24 +5605,21 @@
         <v>1088.6761</v>
       </c>
       <c r="G145" t="n">
-        <v>101193.1982</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>150</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>150</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6068,24 +5641,21 @@
         <v>816.5062</v>
       </c>
       <c r="G146" t="n">
-        <v>101193.1982</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>150</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>150</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6107,24 +5677,21 @@
         <v>2212.9974</v>
       </c>
       <c r="G147" t="n">
-        <v>98980.20079999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>150</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>150</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6146,24 +5713,21 @@
         <v>4000</v>
       </c>
       <c r="G148" t="n">
-        <v>102980.2008</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>150</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>150</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6185,24 +5749,21 @@
         <v>255</v>
       </c>
       <c r="G149" t="n">
-        <v>102725.2008</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>150</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>150</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6224,24 +5785,21 @@
         <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>102726.2008</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>150</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>150</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6263,24 +5821,21 @@
         <v>250</v>
       </c>
       <c r="G151" t="n">
-        <v>102726.2008</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>150</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>150</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6302,24 +5857,21 @@
         <v>86</v>
       </c>
       <c r="G152" t="n">
-        <v>102640.2008</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>150</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>150</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6341,24 +5893,21 @@
         <v>2316.0464</v>
       </c>
       <c r="G153" t="n">
-        <v>104956.2472</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>150</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>150</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6380,24 +5929,21 @@
         <v>1681.334</v>
       </c>
       <c r="G154" t="n">
-        <v>104956.2472</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>150</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>150</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6419,24 +5965,21 @@
         <v>720.748</v>
       </c>
       <c r="G155" t="n">
-        <v>105676.9952</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>150</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>150</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6458,24 +6001,21 @@
         <v>655.9160000000001</v>
       </c>
       <c r="G156" t="n">
-        <v>105676.9952</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>150</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>150</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6497,24 +6037,21 @@
         <v>7909.7569</v>
       </c>
       <c r="G157" t="n">
-        <v>113586.7521</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>150</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>150</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6536,24 +6073,21 @@
         <v>10</v>
       </c>
       <c r="G158" t="n">
-        <v>113576.7521</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>150</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>150</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6575,24 +6109,21 @@
         <v>20</v>
       </c>
       <c r="G159" t="n">
-        <v>113576.7521</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>150</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>150</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6614,24 +6145,21 @@
         <v>200</v>
       </c>
       <c r="G160" t="n">
-        <v>113376.7521</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>150</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>150</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6653,24 +6181,21 @@
         <v>70</v>
       </c>
       <c r="G161" t="n">
-        <v>113446.7521</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>150</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>150</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6692,24 +6217,21 @@
         <v>199</v>
       </c>
       <c r="G162" t="n">
-        <v>113645.7521</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>150</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>150</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6731,26 +6253,21 @@
         <v>20</v>
       </c>
       <c r="G163" t="n">
-        <v>113645.7521</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>150</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1.075</v>
-      </c>
-      <c r="M163" t="n">
-        <v>1.006666666666667</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>150</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6772,18 +6289,21 @@
         <v>81</v>
       </c>
       <c r="G164" t="n">
-        <v>113645.7521</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>150</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6805,18 +6325,21 @@
         <v>3345.7899</v>
       </c>
       <c r="G165" t="n">
-        <v>116991.542</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>150</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6838,18 +6361,21 @@
         <v>1716.7932</v>
       </c>
       <c r="G166" t="n">
-        <v>118708.3352</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>150</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6871,18 +6397,21 @@
         <v>1383.743</v>
       </c>
       <c r="G167" t="n">
-        <v>118708.3352</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>150</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6904,18 +6433,23 @@
         <v>1468.987</v>
       </c>
       <c r="G168" t="n">
-        <v>118708.3352</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>150</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1.088333333333333</v>
+      </c>
       <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>1.006666666666667</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6937,18 +6471,15 @@
         <v>55.489</v>
       </c>
       <c r="G169" t="n">
-        <v>118652.8462</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6970,18 +6501,15 @@
         <v>82.1254</v>
       </c>
       <c r="G170" t="n">
-        <v>118734.9716</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7003,18 +6531,15 @@
         <v>1000</v>
       </c>
       <c r="G171" t="n">
-        <v>118734.9716</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7036,18 +6561,15 @@
         <v>500</v>
       </c>
       <c r="G172" t="n">
-        <v>118734.9716</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7069,18 +6591,15 @@
         <v>1042.347</v>
       </c>
       <c r="G173" t="n">
-        <v>118734.9716</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7102,18 +6621,15 @@
         <v>369.141</v>
       </c>
       <c r="G174" t="n">
-        <v>118734.9716</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7135,18 +6651,15 @@
         <v>1743.027</v>
       </c>
       <c r="G175" t="n">
-        <v>118734.9716</v>
-      </c>
-      <c r="H175" t="n">
         <v>2</v>
       </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7168,18 +6681,15 @@
         <v>2283.6495</v>
       </c>
       <c r="G176" t="n">
-        <v>118734.9716</v>
-      </c>
-      <c r="H176" t="n">
         <v>2</v>
       </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7201,18 +6711,15 @@
         <v>31.7397</v>
       </c>
       <c r="G177" t="n">
-        <v>118734.9716</v>
-      </c>
-      <c r="H177" t="n">
         <v>2</v>
       </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7234,18 +6741,15 @@
         <v>2212.9973</v>
       </c>
       <c r="G178" t="n">
-        <v>116521.9743</v>
-      </c>
-      <c r="H178" t="n">
         <v>2</v>
       </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7267,18 +6771,15 @@
         <v>159.9643</v>
       </c>
       <c r="G179" t="n">
-        <v>116362.01</v>
-      </c>
-      <c r="H179" t="n">
         <v>2</v>
       </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7300,18 +6801,15 @@
         <v>250</v>
       </c>
       <c r="G180" t="n">
-        <v>116612.01</v>
-      </c>
-      <c r="H180" t="n">
         <v>2</v>
       </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7333,18 +6831,15 @@
         <v>1976.411</v>
       </c>
       <c r="G181" t="n">
-        <v>116612.01</v>
-      </c>
-      <c r="H181" t="n">
         <v>2</v>
       </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7366,18 +6861,15 @@
         <v>599.6686999999999</v>
       </c>
       <c r="G182" t="n">
-        <v>117211.6787</v>
-      </c>
-      <c r="H182" t="n">
         <v>2</v>
       </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7399,18 +6891,15 @@
         <v>10202</v>
       </c>
       <c r="G183" t="n">
-        <v>107009.6787</v>
-      </c>
-      <c r="H183" t="n">
         <v>2</v>
       </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7432,18 +6921,15 @@
         <v>250</v>
       </c>
       <c r="G184" t="n">
-        <v>107009.6787</v>
-      </c>
-      <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7465,18 +6951,15 @@
         <v>85</v>
       </c>
       <c r="G185" t="n">
-        <v>106924.6787</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7498,18 +6981,15 @@
         <v>200</v>
       </c>
       <c r="G186" t="n">
-        <v>106924.6787</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7531,18 +7011,15 @@
         <v>19.5174</v>
       </c>
       <c r="G187" t="n">
-        <v>106905.1613</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7564,18 +7041,15 @@
         <v>144.1672</v>
       </c>
       <c r="G188" t="n">
-        <v>107049.3285</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7597,18 +7071,15 @@
         <v>128.905</v>
       </c>
       <c r="G189" t="n">
-        <v>107049.3285</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7630,18 +7101,15 @@
         <v>55.4007</v>
       </c>
       <c r="G190" t="n">
-        <v>107104.7292</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
